--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Documents\Kuliah GLG\Semester 7\TKI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA65C41-7874-4DF7-8E45-64348FA1BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3D65CD-2F3D-4580-9439-EF95A7D2651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="191">
   <si>
     <t>no_putusan</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">- Berdasarkan Penetapan PN Nomor : 68/ Pen. Pid/ 2022 PN Bpp tanggal 18 Januari 2022 berupa  1 (Satu) paket Sabu dalam kemasan plastik bening seberat 0,26 (nol koma dua puluh enam) gram;  1 (Satu) buah dompet merk LEVIS berwarna coklat </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Lindawati Binti Alm Darmansyah;   Tempat lahir      : Balikpapan;   Umur/tanggal lahir   : 44 Tahun / 10 Juli 1977;   Jenis Kelamin      : Perempuan;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jalan Sosial Dalam RT 04 Kelurahan Lamaru Kecamatan Balikpapan Timur;   Agama          : Islam;   Pekerjaan        : Ibu Rumah Tangga;   Terdakwa Lindawati Binti Alm Darmansyah ditahan dalam Tahanan Rutan oleh:  1.  Penyidik sejak tanggal 13 Januari 2022 sampai dengan tanggal 01 Februari 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 02 Februari 2022 sampai dengan tanggal 13 Maret 2022;   3.  Penuntut sejak tanggal 10 Maret 2022 sampai dengan tanggal 29 Maret 2022;   4.  Hakim PN sejak tanggal 23 Maret 2022 sampai dengan tanggal 21 April 2022;   5.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 22 April 2022 sampai dengan tanggal 20 Juni 2022;    Terdakwa menghadap didampingi Penasihat Hukumnya dari Posbakum SIKAP;   Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 105/Pid.Sus/2022/PN Bpp tanggal 23 Maret 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 105/Pid.Sus/2022/PN Bpp tanggal 23 Maret 2022 tentang penetapan hari sidang; - Berkas perkara dan surat-surat lain yang bersangkutan;  Setelah mendengar keterangan Saksi-saksi, dan Terdakwa serta memperhatikan bukti surat dan barang bukti yang diajukan di persidangan;</t>
+    <t xml:space="preserve"> 1. Menyatakan terdakwa LINDAWATI BINTI (ALM) DARMANSYAH terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “, tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana terhadap terdakwa LINDAWATI BINTI (ALM) DARMANSYAH dengan pidana penjara selama 4 (empat) tahun dan 6 (enam) bulan dan denda sebesar Rp. 800.000.000,- dengan ketentuan</t>
   </si>
   <si>
     <t>106/Pid.Sus/2022/PN Bpp</t>
@@ -53,7 +53,7 @@
 </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1. Nama lengkap  : Giyan Sukmawan Putro Alias Roy Bin Hari    Sugianto; 2. Tempat lahir  : Banyuwangi ; 3. Umur/Tanggal lahir  : 35 tahun/ 01 Januari 1987 ; 4. Jenis kelamin  : Laki-laki ; 5. Kebangsaan  : Indonesia ; 6. Tempat tinggal  : Jl. Jend. Sudirman No.01 Kelurahan Klandasan Ilir Kecamatan Balikpapam Kota (Borneo Bay City) ; 7. Agama  : Islam ; 8. Pekerjaan  : Wiraswasta ; 9. Pendidikan : SMA (tamat) ;  Terdakwa Giyan Sukmawan Putro Alias Roy Bin Hari Sugianto ditahan dalam tahanan rutan oleh:  1. Penyidik sejak tanggal 15 Januari 2022 sampai dengan tanggal 3 Februari 2022 ; 2. Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 4 Februari 2022 sampai dengan tanggal 15 Maret 2022 ; 3. Penunutut Umum sejak tanggal 10 Maret 2022 sampai dengan tanggal29 Maret 2022 ; 4. Hakim Pengadilan Negeri sejak tanggal 23 Maret 2022 sampai dengan tanggal 21 April 2022 ; 5. Ketua Pengadilan Negeri sejak tanggal 22 April 2022 sampai dengan tanggal 20 Juni 2022 ; Terdakwa di damping oleh Penasihat Hukum Ita Ma’ruf,S.H.,S.Ag., Advokat dari Pos Bantuan Hukum Advokasi Indonesia (Posbakumadin) berkantor di Perumahan Pondok Karya Agung Blok BAA No. 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, berdasarkan Penetapan Majelis Hakim Pengadilan Negeri Balikpapan tanggal Nomor 106/Pid.Sus/2022/PN Bpp tanggal 30 Maret 2022 ;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Giyan Sukmawan Putro Alias Roy Bin Hari Sugianto terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Pemufakatan jahat tanpa hak menawarkan untuk dijual, menjual, membeli dalam jual beli Narkotika Golongan I”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan denda sejumlah Rp 1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan ; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :    - 1 (satu) paket sabu dalam kemasan plastik bening dengan berat 36,47 gram ; - 1 (satu) buah Hp merk Oppo Reno 4 dengan No. Sim : 081232301618 dan No. Imei : 864757055771273 ; - 1 (satu) buah amplop warna coklat ; - 1 (satu) buah tissue warna putih ; - 1 (satu) buah timbangan digital warna silver ; - 1 (satu) buah sendokan yang terbuat dari sedotan plastik ; Dimusnahkan. 6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp. 5.000,00 (lima ribu rupiah ) ; Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Rabu, tanggal 20 April 2022, oleh kami,</t>
   </si>
   <si>
     <t>109/Pid.Sus/2022/PN Bpp</t>
@@ -63,7 +63,7 @@
 dari 21 Putusan Nomor : 109/Pid.Sus/2022/PN.Bpp    </t>
   </si>
   <si>
-    <t>perkara-perkara pidana dalam peradilan tingkat pertama, yang diperiksa dengan acara biasa telah menjatuhkan putusan sebagai berikut dalam perkara terdakwa  :  ----------------  N a m a  : FAJAR RIDONA ALIAS FAJAR BIN M.IDRUS  BAUZAD; Tempat Lahir  :  Balikpapan;  Umur/Tanggal Lahir  :  45 tahun/ 24 Januari  1977 ;  Jenis Kelamin    :  Laki-Laki  ;  Kebangsaan              :  Indonesia ;   Tempat Tinggal          : Jalan Agung Tunggal No. 17 RT.014 Kelurahan Damai Baru, Kecamatan  Balikpapan Selatan, Kota Balikpapan ; A g a m a   :  Islam ;  P e k e r j a a n  :  Swasta ;    Terdakwa ditahan oleh :  1. Penyidik sejak tanggal 14 Januari 2022 sampai dengan tanggal  02 Februari 2022;   2. Penyidik Perpanjangan Oleh PU sejak tanggal 03 Februari 2022 sampai dengan tanggal 14 Maret 2022;   3. Penuntut sejak tanggal 14 Maret 2022 sampai dengan tanggal 02 April 2022;  4. Majelis Hakim Pengadilan Negeri Balikpapan, sejak tanggal 22 Maret 2022 s/d tanggal 22 April 2022 ;  5. Perpanjangan Ketua Pengadilan Negeri Balikpapan, sejak tanggal 23 April 2022 s/d tanggal 21 Juni 2022 ;  Terdakwa di persidangan didampingi oleh 1. Rapaun Rambe,  2.Ita Ma’ruf, SH., S.Ag., 3.Muhammad Hilal, SH., 4.Ramadhan, SH. Para Advokat atau Penasihat Hukum dari POSBAKUMADIN, beralamat kantor di  Perumahan  Pondok Karya Agung Blok BAA No.48 RT.13 Kelurahan Sungai Nangka, Kecamatan Balikpapan, Kota Balikpapan, berdasarkan Surat Kuasa Khusus tertanggal 13 Januari 2022,  Nomor : 109/Pid.Sus/2022/PN Bpp;</t>
+    <t xml:space="preserve">  1. Menyatakan terdakwa Fajar Ridona Als Fajar Bin (Alm) M.Idrus Bauzad, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Penyalahguna Narkotika Golongan I bagi diri sendiri “ sebagaimana dakwaan alternatif ketiga Penuntut Umum;  2. Menjatuhkan pidana terhadap terdakwa Fajar Ridona Als Fajar Bin (Alm) M.Idrus Bauzad oleh karena itu dengan pidana penjara selama…………..              tahun ;</t>
   </si>
   <si>
     <t>10/Pid.Sus/2022/PN Bpp</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve"> - 1 (satu) Paket sabu-dalam kemasan plastik bening seberat 0,23  (nol koma dua puluh tiga ) Gram. - 1 (satu) buah celana pamjamg warna jeans Seluruhnya </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Ahmanur Bin Alm H. Tangke 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 23/10 Oktober 1998 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jln. Pandan  Sari  No 28  Rt 029 Kel Marga Sari Kec                                                   Balikpapan Barat 7.  Agama  : Islam 8.  Pekerjaan  : Pelajar/Mahasiswa  Terdakwa Ahmanur Bin Alm H. Tangke ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 14 November 2021 sampai dengan tanggal 3 Desember 2021   2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 4 Desember 2021 sampai dengan tanggal 12 Januari 2022   3.  Penuntut Umum sejak tanggal 6 Januari 2022 sampai dengan tanggal 25 Januari 2022   4.  Hakim Pengadilan Negeri sejak tanggal 13 Januari 2022 sampai dengan tanggal 11 Februari 2022   5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 12 Februari 2022 sampai dengan tanggal 12 April 2022   Terdakwa didampingi Penasehat Hukumnya ;    Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 10/Pid.Sus/2022/PN Bpp tanggal 13 Januari 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 10/Pid.Sus/2022/PN Bpp tanggal 13 Januari 2022 tentang penetapan hari sidang; - Berkas perkara dan surat-surat lain yang bersangkutan;             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa AHMANUR Bin Alm H. TANGKE  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana  “  Percobaan atau Permufakatan Jahat untuk melakukan tindak pidana tanpa hak menawarkan untuk dijual, membeli dan menjadi perantara dalam jual beli Narkotika Golongan  I bukan tanaman   “ ;</t>
   </si>
   <si>
     <t>127/Pid.Sus/2022/PN Bpp</t>
@@ -82,7 +82,7 @@
 • 1 (satu) buah sendokan warna putih; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa:  Nama lengkap  : Pangeran Murthi Bin Abdul Salam  Tempat lahir  : Balikpapan   Umur/Tanggal lahir  : 41/18 Oktober 1980   Jenis kelamin  : Laki-laki  Kebangsaan  : Indonesia   Tempat tinggal  : Mayjend Sutoyo Gang Lestari No.17 RT. 53      Kelurahan Klandasan Ilir Kecamatan Balikpapan      Kota atau Jl. Gurindas Strat 5 No.13 RT.42      Kelurahan Gunung Samarinda Kecamatan      Balikpapan Utara Kota Balikpapan  Agama  : Islam  Pekerjaan  : swasta  Terdakwa Pangeran Murthi Bin Abdul Salam ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 29 Januari 2022 sampai dengan tanggal 17 Februari 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 18 Februari 2022 sampai dengan tanggal 29 Maret 2022  3.  Penuntut Umum sejak tanggal 28 Maret 2022 sampai dengan tanggal 16 April 2022  4.  Hakim Pengadilan Negeri sejak tanggal 11 April 2022 sampai dengan tanggal 10 Mei 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 11 Mei 2022 sampai dengan tanggal 9 Juli 2022   Terdakwa di damping oleh Penasihat Yohanis Marokko, S.H., dan rekan Advokad &amp; Pengacara dari LEMBAGA BANTUAN HUKUM (LBH) SIKAP, yang beralamat kantor di Hotel Gran Senyiur Balikpapan Jalan A.R.S. Muhammad No. 7 Kelurahan Klandasan Ulu, Kecamatan Balikpapan Kota, Kota Balikpapan, berdasarkan Surat Kuasa Khusus Nomor: 48/SK/IV/22/PN Bpp tanggal 20 April 2022;           Pid.I.A.3</t>
+    <t xml:space="preserve">  1. Menyatakan Terdakwa Pangeran Murthi Bin Abdul Salam terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sejumlah Rp 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :   - 5 (lima) paket sabu dalam kemasan plastik bening berat bersih 93,34 gram; - 2 (dua) bandel plastik bening klip besar dan kecil; - 1 (satu) buah timbangan digital kecil warna abu abu; - 1 (satu) buah tas selempang warna ungu;</t>
   </si>
   <si>
     <t>131/Pid.Sus/2022/PN Bpp</t>
@@ -91,16 +91,7 @@
     <t xml:space="preserve">Berdasarkan Penetapan PN Nomor : 163/ Pen. Pid/ 2022 PN Bpp tanggal 11 Februari 2022 berupa : - 1 (satu) Paket sabu-sabu + plastic flip warna bening : 0,31 (nol koma tiga puluh satu) Gram; - 1 (satu) Paket sabu-sabu + plastic flip warna bening : 0,55 (nol koma lima puluh lima) Gram;  - 1 (satu) lembar celana jeans warna biru merk razzan; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap   : Muhamamd Hamsyah Alias Hamsah Bin Haruna; 2.  Tempat lahir   : Balikpapan; 3.  Umur/Tanggal lahir  : 30 Tahun / 27 Januari 1992; 4.  Jenis kelamin   : Laki-laki; 5.  Kebangsaan   : Indonesia; 6.  Tempat tinggal   : Jalan MT Haryono RT 30 Kelurahan Sungai Nangka    Kecamatan Balikpapan Selatan; 7.  Agama    : Islam; 8.  Pekerjaan    : Security Perumahan Borneo Paradiso;  Terdakwa Muhammad Hamsyah Alias Hamsah Bin Haruna ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 07 Februari 2022 sampai dengan tanggal 26 Februari 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 27 Februari 2022 sampai dengan tanggal 07 April 2022;   3.  Penuntut sejak tanggal 07 April 2022 sampai dengan tanggal 26 April 2022;   4.  Hakim PN sejak tanggal 13 April 2022 sampai dengan tanggal 12 Mei 2022;   5.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 13 Mei 2022 sampai dengan tanggal 11 Juli 2022;    Terdakwa dipersidangan didampingi oleh Penasihat Hukum berdasarkan Penunjukan dari Majelis Hakim yakni Ita Ma’ruf, S.H., S.Ag., Ideham Alaik, S.H., S.Ag., dan Ramadhan, S.H., Para Advokat dari POSBAKUMADIN beralamat kantor di Perumahan Pondok Karya Agung Blok AA 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, Kota Balikpapan, berdasarkan Penetapan Hakim Pengadilan Negeri Balikpapan tanggal 18 April 2022 Nomor 131/Pid.Sus/2022/PN Bpp.;               Pid.I.A.3</t>
-  </si>
-  <si>
-    <t>137/Pid.Sus/2022/PN Bpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-  1 (satu) paket sabu  dalam kemasan plastic bening berat netto 0,02 (nol koma nol dua) gram.             </t>
-  </si>
-  <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Para Terdakwa : Terdakwa 1 1. Nama lengkap               : Achmad Rizki Saputra als Kontet Bin Erwan                                              Rahmad Supriadi 2.  Tempat lahir : Balikpapan 3.  Umur/Tanggal lahir  : 23/20 April 1999 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Bunga Rampai Rt. 30 No. 55 Kel. Gunung Sari Ilir Kec. Balikpapan Tengah 7.  Agama   : Islam 8.  Pekerjaan : Swasta Terdakwa Achmad Rizki Saputra als Kontet Bin Erwan Rahmad Supriadi ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 5 Februari 2022 sampai dengan tanggal 24 Februari 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 25 Februari 2022 sampai dengan tanggal 5 April 2022  3.  Penuntut Umum sejak tanggal 31 Maret 2022 sampai dengan tanggal 19 April 2022  4.  Hakim Pengadilan Negeri sejak tanggal 13 April 2022 sampai dengan tanggal 12 Mei 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 13 Mei 2022 sampai dengan tanggal 11 Juli 2022   Terdakwa 2 1.  Nama lengkap  : Ferdiansyah Yanuar Yusril. F als Jawa Bin Yulianto 2.  Tempat lahir  : Malang 3.  Umur/Tanggal lahir  : 21/4 Januari 2001 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Serobong Rt. 22 No. 15 Kel. Prapatan Kec. Balikpapan Kota  Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa MUHAMMAD HAMSYAH alias HAMSAH bin HARUNA, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ”Tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman”;  2. Menjatuhkan pidana kepada Terdakwa MUHAMMAD HAMSYAH alias HAMSAH bin HARUNA oleh karena itu dengan pidana penjara selama 5 (lima) Tahun dan 3 (tiga) Bulan, dan pidana denda sebesar Rp.800.000.000,00,- (delapan ratus juta rupiah), dengan ketentuan jika tidak dibayar akan diganti dengan pidana penjara selama 4 (empat) Bulan; 3. Menetapkan masa penangkapan dan penahanan yang dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap dalam tahanan; 5. Menetapkan barang bukti berupa:    - 1 (satu) Paket sabu-sabu + plastic flip warna bening : 0,31 (nol koma tiga puluh satu) Gram; - 1 (satu) Paket sabu-sabu + plastic flip warna bening : 0,55 (nol koma lima puluh lima) Gram; - 1 (satu) lembar celana jeans warna biru merk razzan; Dirampas untuk dimusnahkan; 6. Membebankan biaya perkara kepada Terdakwa sebesar Rp. 5.000,- (lima ribu rupiah); Demikian diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari RABU, tanggal 25 MEI 2022, oleh SUTARMO, S.H., M.Hum., sebagai Hakim Ketua, ARIF WISAKSONO, S.H., dan ARUM KUSUMA DEWI, S.H., M.H., masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari SENIN, tanggal 13 JUNI 2022 oleh SUTARMO, S.H., M.Hum., sebagai Hakim Ketua, ARIF WISAKSONO, S.H., dan LILA SARI, S.H., M.H., masing-masing sebagai Hakim Anggota,dibantu oleh RIZA ACHMADSYAH, S.H., Panitera Pengganti</t>
   </si>
   <si>
     <t>142/Pid.Sus/2022/PN Bpp</t>
@@ -109,7 +100,7 @@
     <t xml:space="preserve">   • 1 (satu) paket sabu dalam kemasan plastic bening dengan berat brutto 0,33 (nol koma tiga tiga) gram; • 1 (satu) buah kotak rokok Sampoerna Mild menthol warna putih;       </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Sarman Saldi Bin Alm Udding 2.  Tempat lahir  : Bone Waetuwo 3.  Umur/Tanggal lahir  : 21/8 April 2001 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6. Tempat tinggal         : Jl. Soekarno-Hatta Km. 17 RT. - No. - Kel. Karang Joang Kec. Balikpapan Utara / Ling Maccikka RT. 02 RW. 02 Kel. Waetuwo Kab. Bone Prov. Sulawesi Selatan 7.  Agama  : Islam 8.  Pekerjaan  : karyawan swasta mekanik motor  Terdakwa Sarman Saldi Bin Alm Udding ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 5 Februari 2022 sampai dengan tanggal 24 Februari 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 25 Februari 2022 sampai dengan tanggal 5 April 2022  3.  Penuntut Umum sejak tanggal 4 April 2022 sampai dengan tanggal 23 April 2022  4.  Hakim Pengadilan Negeri sejak tanggal 14 April 2022 sampai dengan tanggal 13 Mei 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 14 Mei 2022 sampai dengan tanggal 12 Juli 2022   Terdakwa menghadap didampingi ITA MA’RUF, S. Ag, S.H dan MUHAMMAD RAMADHAN, S.H, dari Posbakumadin Balikpapan, berdasarkan surat penetapan Hakim Ketua No. 142/Pid.Sus/2022/PN.Bpp tanggal 26 April 2022;     Pengadilan Negeri tersebut; Setelah membaca:             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa SARMAN SALDI Bin (Alm) UDDING, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “menyimpan narkotika Golongan I bukan tanaman”; 1. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama   5 (lima) tahun denda sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila tidak dibayar akan diganti dengan pidana penjara selama  3 (tiga) bulan; 2. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari yang dijatuhkan ; 3. Menetapkan Terdakwa tetap berada dalam tahanan ; 4. Menetapkan barang bukti berupa :    • 1 (satu) paket sabu dalam kemasan plastic bening dengan berat brutto 0,33 (nol koma tiga tiga) gram; • 1 (satu) buah kotak rokok Sampoerna Mild menthol warna putih;       Dirampas untuk dimusnahkan.  5. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp. 5.000,00 (lima ribu rupiah ) ;</t>
   </si>
   <si>
     <t>143/Pid.Sus/2022/PN Bpp</t>
@@ -118,7 +109,7 @@
     <t xml:space="preserve">   - 1 (satu) paket sabu dengan berat bruto 0,23 (nol koma dua tiga) gram dan berat netto 0,13 (nol koma satu tiga) gram.; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara  Terdakwa : Nama lengkap :  Khevin  Surya Dinata Bin Wayan Mawar Susila; Tempat lahir  :  Bali Sadar Selatan ; Umur/Tanggal lahir  :  20 Tahun / 13 Juli 2001; Jenis kelamin  :  Laki-laki ; Kebangsaan  :  Indonesia ; Tempat tinggal  :  Sido rahayu No. - RT. 00 Kelurahan Sido Rahayu, Kecamatan Buay Pemaca Kabupaten Komering Selatan,  Prov Sumatera Selatan ; Agama  :  Islam ; Pekerjaan  :  Wiraswasta ;  Terdakwa  Khevin  Surya Dinata Bin Wayan Mawar Susila  ditahan dalam Rumah Tahanan oleh : 1.  Penyidik sejak tanggal 9 Januari 2022 sampai dengan tanggal 28 Januari 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 29 Januari 2022 sampai dengan tanggal 9 Maret 2022;  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 10 Maret 2022 sampai dengan tanggal 8 April 2022;  4.  Penuntut Umum sejak tanggal 4 April 2022 sampai dengan tanggal                 23 April 2022;  5.  Hakim Pengadilan Negeri sejak tanggal 14 April 2022 sampai dengan tanggal 13 Mei 2022;  6. Perpanjangan Wakil Ketua Pengadilan Negeri Balikpapan sejak tanggal               14 Mei 2022 sampai dengan tanggal  12 Juli 2022 ;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Khevin  Surya Dinata Bin Wayan Mawar Susila terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “setiap orang yang tanpa hak atau melawan hukum memiliki, menguasai, menyimpan atau menyediakan Narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sejumlah Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1 (satu) bulan ; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :    - 1 (satu) paket sabu dengan berat bruto 0,23 (nol koma dua tiga) gram dan berat netto 0,13 (nol koma satu tiga) gram.; Dirampas untuk dimusnahkan 6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah                Rp5.000,00 (lima ribu rupiah ) ;  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Senin, tanggal  04 Juli 2022, oleh kami, ARIF WISAKSONO, S.H. sebagai Hakim Ketua, SUTARMO, S.H.,M.Hum,</t>
   </si>
   <si>
     <t>156/Pid.Sus/2022/PN Bpp</t>
@@ -127,7 +118,7 @@
     <t xml:space="preserve">• 9 (sembilan) Paket sabu dalam kemasan plastik bening dengan berat keseluruhan 0,76 (nol koma tujuh enam) • 1 (satu) Buah kotak rokok bertuliskan Sehat Tentrem warna coklat • 1 (satu) Buah sendokkan yang terbuat dari sedotan plastic warna putih • 1 (satu) Buah tas jinjing warna biru tua </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara  Terdakwa : Nama lengkap  :  Joni Setiawan Bin Alm Masiran ; Tempat lahir  :  Nganjuk  (Jawa Timur); Umur/Tanggal lahir  :  38 Tahun / 10 Juli 1983; Jenis kelamin  :  Laki-laki ; Kebangsaan  :  Indonesia; Tempat tinggal  : Dusun Jimbir No. 09 Rt. 03 Keurahan Sugihwaras, Kecamatan Prambon/ Jalan Soekarno Hatta Km. 14 Rt. 31 No.- Kelurahan Karang Joang, Kecamatan Balikpapan Utara, Kota Balikpapan; Agama  :  Islam ; Pekerjaan  :  Karyawan Swasta ; Terdakwa  Joni Setiawan Bin Alm Masiran ditahan dalam Rumah Tahanan oleh : 1. Penyidik sejak tanggal 9 Januari 2022 sampai dengan tanggal  28 Januari 2022;  2. Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 29 Januari 2022 sampai dengan tanggal 9 Maret 2022;  3. Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 10 Maret 2022 sampai dengan tanggal 8 April 2022;  4. Penuntut Umum sejak tanggal 7 April 2022 sampai dengan tanggal 26 April 2022;  5. Hakim Pengadilan Negeri sejak tanggal 21 April 2022 sampai dengan tanggal 20 Mei 2022;  6. Perpanjangan Wakil Ketua Pengadilan Negeri Balikpapan sejak tanggal               21 Mei 2022 sampai dengan tanggal  19 Juli 2022 ;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Joni Setiawan Bin Alm Masiran  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Percobaan atau pemufakatan jahat menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar atau menyerahkan Narkotika  Golongan I”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama  5 (lima) tahun 6 (enam) dan denda sejumlah Rp1.000.000.000,00 (satu milyar  rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan ; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :    • 9 (sembilan) Paket sabu dalam kemasan plastik bening dengan berat keseluruhan 0,76 (nol koma tujuh enam)</t>
   </si>
   <si>
     <t>16/Pid.Sus/2022/PN Bpp</t>
@@ -136,7 +127,7 @@
     <t xml:space="preserve">• 16 (enam belas) Paket sabu berat bruto 4,62 (empat koma enam dua) gram berat netto 1,32 (satu koma tiga dua) gram. • 2 (dua) lembar tisu   • 1 (satu) buah dompet warna merah • 1 (satu) buah kotak warna Putih • 1 (satu) buah plastic klip bening kosong • 1 (satu) bundle plastic klip bening • 1 (satu) buah HP Oppo warna Biru No.Simcard 08575320291 Imei:867020040350415     </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa pada peradilan tingkat pertama, telah menjatuhkan putusan sebagai berikut dalam perkara para terdakwa :  1. Nama lengkap  :  Hani Binti Jusman; Tempat tanggal lahir  :  Balikpapan; Umur / tanggal lahir :  28 tahun / 22 Desember 1993; Jenis kelamin  :  Perempuan; Kebangsaan  :  Indonesia; Tempat tinggal           :  Jln Mulawarman No. 34. RT. 21. Kelurahan Sepinggan Raya Balikpapan Selatan Kota Balikpapan Agama   :  Islam; Pekerjaan   :  karyawan swasta; Terdakwa Hani Binti Jusman ditahan dalam  Tahanan Rutan oleh:  1. Penyidik sejak tanggal 22 Oktober 2021 sampai dengan tanggal 10 Nopember 2021; 2. Penyidik Perpanjangan Penuntut Umum sejak tanggal 11 Nopember  2021 sampai dengan 20 Desember 2021; 3. Penyidik Perpanjangan pertama oleh Ketua PN. Sejak tanggal 21 Desember 2021sampai dengan tanggal 19 Januari 2022; 4. Penuntut Umum sejak tanggal 06 Januari 2022 sampai dengan tanggal 25 Januari 2022; 5. Hakim Pengadilan Negeri Balikpapan sejak tanggal 14 Januari 2022 sampai dengan 12 Pebruari 2022; 6. Diperpanjang oleh Wakil Ketua PN sejak tanggal 13 Pebruari 2022 sampai dengan tanggal 13 April 2022;  2. Nama lengkap  :  Resky Kadir Mahmud Bin Al, Kadir Mahmud; Tempat tanggal lahir  :  Balikpapan; Umur / tanggal lahir :  24 tahun / 05 Desember 1997; Jenis kelamin  :  Laki-laki; Kebangsaan  :  Indonesia;</t>
+    <t xml:space="preserve"> 1. Menyatakan terdakwa I. HANI Binti JUSMAN dan terdakwa II RESKY KADIR MAHMUD Bin (Alm) KADIR terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana pidana “percobaan atau pemufakatan jahat tanpa hak atau melawan hukum, menjual menjadi perantara dalam jual beli atau menyerahkan narkotika golongan I;  2. Menjatuhkan pidana terhadap para terdakwa dengan pidana penjara masing-masing  selama 7 (tujuh) tahun, denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila tidak dibayar akan diganti dengan pidana penjara selama  6 (enam)  bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh para terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan para terdakwa tetap berada dalam tahanan; 5. Menetapkan  barang bukti berupa: • 16 (enam belas) Paket sabu berat bruto 4,62 (empat koma enam dua) gram berat netto 1,32 (satu koma tiga dua) gram;</t>
   </si>
   <si>
     <t>176/Pid.Sus/2022/PN Bpp</t>
@@ -145,7 +136,7 @@
     <t xml:space="preserve"> 4 (empat) paket sabu dalam kemasan plastik bening dengan rincian ; o 1 (satu) bungkus klip bening dengan berat brutto 0,51 gram, berat plastik pembungkus 0,27 gram , berat netto 0,24 gram  o 1 (satu) bungkus klip bening dengan berat brutto 0,51 gram, berat plastik pembungkus 0,27 gram , berat netto 0,24 gram o 1 (satu) bungkus klip bening dengan berat brutto 0,48 gram, berat plastik pembungkus 0,27 gram , berat netto 0,2 gram o 1 (satu) bungkus klip bening dengan berat brutto 0,53 gram, berat plastik pembungkus 0,27 gram , berat netto 0,26 gram  1 (satu) buah tas merk AOJIALISI  1 (satu) buah korek gas  1 (satu) buah sedotan plastik warna putih  1 (satu) buah pipet kaca bekepala karet warna hitam  1 (satu) buah pipet kaca berkepala karet warna merah </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Para Terdakwa : Terdakwa 1:   Nama lengkap      : Zulkarnain als Diki Bin Kasim;    Tempat lahir      : Balikpapan;    Umur/tanggal lahir   : 28 Tahun / 01 Juli 1993;    Jenis Kelamin      : Laki-laki;    Kebangsaan       : Indonesia;    Tempat tinggal     : Komplek Perum Bangun Reksa Blok KP Rt.21 Kel. Graha Indah Kec .Balikpapan Utara Kota Balikpapan;    Agama          : Islam;    Pekerjaan        : Tidak Bekerja;   Terdakwa Zulkarnain als Diki Bin Kasim ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 3 Februari 2022 sampai dengan tanggal 22 Februari 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 23 Februari 2022 sampai dengan tanggal 3 April 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 3 April 2022 sampai dengan tanggal 2 Mei 2022  4.  Penuntut Umum sejak tanggal 18 April 2022 sampai dengan tanggal 7 Mei 2022  5.  Hakim Pengadilan Negeri sejak tanggal 26 April 2022 sampai dengan tanggal 25 Mei 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 26 Mei 2022 sampai dengan tanggal 24 Juli 2022  Terdakwa 2:  Nama lengkap      : Surya als Adi Bin Syamsuddin;    Tempat lahir      : Balikpapan;    Umur/tanggal lahir   : 33 Tahun / 27 Desember 1988;    Jenis Kelamin      : Laki-laki;    Kebangsaan       : Indonesia;    Tempat tinggal     : Jl. Letjend S. Parman No. 42 RT. 20 Kel. Sumber Rejo Kec. Balikpapan Tengah, Kota Balikpapan;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa I ZULKARNAIN als DIKI Bin KASIM dAN Terdakwa II SURYA als ADI Bin SYAMSUDDIN telah terbukti  secara sah dan meyakinkan bersalah melakukan tindak pidana  pemufakatan jahat tanpa hak atau melawan hukum, memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman;   2. Menjatuhkan pidana oleh karena itu kepada Terdakwa I ZULKARNAIN als DIKI Bin KASIM dan Terdakwa II SURYA als ADI Bin SYAMSUDDIN dengan pidana penjara masing-masing selama 6 ( enam ) tahun dan membayar denda masing-masing sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan penjara  3. Menetapkan masa penahanan yang telah dijalani para Terdakwa dikurangkan seluruhnya dari pidan yang dijatuhkan tersbeut;   4. Menetapkan Para Terdakwa tetap berada dlam tahanan;   5. Menetapkan barang bukti berupa:      4 (empat) paket sabu dalam kemasan plastik bening dengan rincian ;    1 (satu) bungkus klip bening dengan berat brutto 0,51 gram, berat plastik pembungkus 0,27 gram , berat netto 0,24 gram   1 (satu) bungkus klip bening dengan berat brutto 0,51 gram, berat plastik pembungkus 0,27 gram , berat netto 0,24 gram   1 (satu) bungkus klip bening dengan berat brutto 0,48 gram, berat plastik pembungkus 0,27 gram , berat netto 0,2 gram   1 (satu) bungkus klip bening dengan berat brutto 0,53 gram, berat plastik pembungkus 0,27 gram , berat netto 0,26 gram    1 (satu) buah tas merk AOJIALISI   1 (satu) buah korek gas   1 (satu) buah sedotan plastik warna putih   1 (satu) buah pipet kaca bekepala karet warna hitam   1 (satu) buah pipet kaca berkepala karet warna merah  Dirampas untuk dimusnahkan.</t>
   </si>
   <si>
     <t>17/Pid.Sus/2022/PN Bpp</t>
@@ -154,7 +145,7 @@
     <t xml:space="preserve"> 2 (dua) paket sabu dalam kemasan plastik bening dengan berat netto 0,82 (nol koma delapan dua) gram;  1 (satu) bungkus klip kosong;  1 (satu) buah tissue warna putih;   1 (satu) buah dompet kecil warna hitam;  1 (satu) buah sendokan terbuat dari sedotan plastik;  1 (satu) buah timbangan digital warna hitam. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Yusuf Dg Mancini Alias Supu Bin Alm Rahman;   Tempat lahir      : Labakkang;   Umur/tanggal lahir   : 38 Tahun / 23 Oktober 1983;   Jenis Kelamin      : Laki-laki;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jalan Sepaku Laut No. â€“ Rt. 06 Kelurahan Marga Sari Kecamatan Balikpapan Barat, Kota Balikpapan.;   Agama          : Islam;   Pekerjaan        : Pedagang; Terdakwa Hendrik Bin Naba ditahan dalam tahanan rutan oleh:  1.   Penyidik sejak tanggal 12 November 2021 sampai dengan tanggal 01 Desember 2021;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 02 Desember 2021 sampai dengan tanggal 10 Januari 2022;   3.  Penuntut sejak tanggal 04 Januari 2022 sampai dengan tanggal 23 Januari 2022;   4.  Hakim PN sejak tanggal 14 Januari 2022 sampai dengan tanggal 12 Februari 2022;   Terdakwa di damping oleh Penasihat Hukum Yohanes Marokko, S.H., Advokat dari Posbakum Sikap pada Pengadilan Negeri Balikpapan beralamat di Jalan Jenderal Sudirman N0. 788 Balikpapan berdasarkan Penetapan Majelis Hakim Pengadilan Negeri Balikpapan tanggal 20 Januari 2022, Nomor 17/ Pid.Sus/ 2022/ PN Bpp; Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan Ketua Pengadilan Negeri Balikpapan Nomor 17/ Pid.Sus/ 2022/PN Bpp tanggal 14 Januari 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 17/ Pid.Sus/ 2022/PN Bpp tanggal 14 Januari 2022 tentang penetapan hari sidang; - Berkas perkara dan surat-surat lain yang bersangkutan;           Pid.I.A.3</t>
+    <t xml:space="preserve">  Menyatakan Terdakwa YUSUF DG MANCINI Alias SUPU Bin Alm RAHMAN terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana  Tanpa hak memiliki dan menguasai narkotika golongan I bukan tanaman  ;    Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda sejumlah Rp 800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan ;    Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;    Menetapkan Terdakwa tetap ditahan ;    Menetapkan barang bukti berupa :        2 (dua) paket sabu dalam kemasan plastik bening dengan berat netto 0,82 (nol koma delapan dua) gram;      1 (satu) bungkus klip kosong;      1 (satu) buah tissue warna putih;      1 (satu) buah dompet kecil warna hitam;      1 (satu) buah sendokan terbuat dari sedotan plastik;      1 (satu) buah timbangan digital warna hitam.  Dimusnahkan.  Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp. 5.000,00 (lima ribu rupiah ) ;   Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Kamis, tanggal 10 Maret 2022, oleh kami, Surya Laksemana, S.H, sebagai Hakim Ketua,. Lila Sari, S.H., M.H., Ennierlia Arientowaty S.H. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum secara elektronik pada hari Kamis,</t>
   </si>
   <si>
     <t>184/Pid.Sus/2022/PN Bpp</t>
@@ -163,7 +154,7 @@
     <t xml:space="preserve"> - 7 (tujuh) poket sabu dengan berat bruto 12,64 (dua belas koma enam empat) gram atau berat netto 10,93 (sepuluh koma sembilan tiga) gram; - 1 (satu) buah kotak rokok Sampoerna; - 1 (satu) unit handphone Samsung A31 warna hitam; Adalah merupakan alat yang dipakai untuk melakukan kejahatan, maka akan </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : ABDURROHMAN Alias ROHMAN Bin SUPAI; 2.  Tempat lahir  : Semoi; 3.  Umur/Tanggal lahir  : 34 Tahun/10 Agustus 1987; 4.  Jenis kelamin  : Laki-laki; 5.  Kebangsaan  : Indonesia; 6.  Tempat tinggal      : Jalan Bedu Saleh RT. 01 Kel. Nipah-nipah   Kec. Penajam, Kab. Penajam Paser Utara; 7.  Agama  : Islam; 8.  Pekerjaan       : Swasta; 9. Pendidikan  : SMA; Terdakwa ditangkap tanggal 20 Februari 2022; Terdakwa Abdurrohman Alias Rohman Bin Supai ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 21 Februari 2022 sampai dengan tanggal 12 Maret 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 13 Maret 2022 sampai dengan tanggal 21 April 2022;   3.  Penyidik Perpanjangan Pertama Oleh Ketua PN sejak tanggal 22 April 2022 sampai dengan tanggal 21 Mei 2022;   4.  Penuntut sejak tanggal 09 Mei 2022 sampai dengan tanggal 28 Mei 2022;   5.  Hakim PN sejak tanggal 23 Mei 2022 sampai dengan tanggal 21 Juni 2022;   6.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 22 Juni 2022 sampai dengan tanggal 20 Agustus 2022;   Terdakwa dipersidangan didampingi oleh Penasihat Hukum berdasarkan Penunjukan dari Majelis Hakim yakni Ita Ma’ruf, S.H., S.Ag., Ideham Alaik, S.H., S.Ag., dan Ramadhan, S.H., Para Advokat dari POSBAKUMADIN beralamat kantor di Perumahan Pondok Karya Agung Blok AA 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, Kota Balikpapan, berdasarkan Penetapan Hakim Pengadilan Negeri Balikpapan tanggal 18 April 2022 Nomor 184/Pid.Sus/2022/PN Bpp.;              Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa ABDURROHMAN Alias ROHMAN Bin SUPAI telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ”tanpa hak atau melawan hukum memiliki, menguasai narkotika golongan I bukan tanaman beratnya melebihi 5 (lima) gram”;  2. Menjatuhkan pidana terhadap Terdakwa ABDURROHMAN Alias ROHMAN Bin SUPAI dengan pidana penjara selama 7 (tujuh) tahun dan 6 (enam) bulan dan denda sebesar Rp. 800.000.000,00,- (delapan ratus juta rupiah), dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; 3. Menetapkan masa penangkapan dan penahanan yang dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap dalam tahanan; 5. Menetapkan barang bukti berupa:    - 7 (tujuh) poket sabu dengan berat bruto 12,64 (dua belas koma enam empat) gram atau berat netto 10,93 (sepuluh koma sembilan tiga) gram; - 1 (satu) buah kotak rokok Sampoerna; - 1 (satu) unit handphone Samsung A31 warna hitam; Dirampas untuk di musnahkan; 6. Membebankan biaya perkara kepada Terdakwa sejumlah Rp. 5.000,00 (lima ribu rupiah);  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Kamis, tanggal 28 Juli 2022, oleh kami, ENNIERLIA ARIENTOWATY, S.H., sebagai Hakim Ketua, SURYA LAKSEMANA, S.H., dan IMRON ROSYADI, S.H., masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari itu juga oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu oleh RIZA ACHMADSYAH, S.H., Panitera Pengganti pada Pengadilan Negeri</t>
   </si>
   <si>
     <t>1/Pid.Sus/2022/PN Bpp</t>
@@ -172,16 +163,7 @@
     <t xml:space="preserve">- 3 (Tiga) paket Narkotika jenis sabu dalam plastic klip bening dengan rincian sebagai berikut : a. 1 (satu) paket Narkotika jenis sabu-sabu berat kotor + 0,25 gram di bungkus klip bening. b. 1 (satu) paket Narkotika jenis sabu-sabu berat kotor + 0,23 gram di bungkus klip bening. c. 1 (satu) paket Narkotika jenis sabu-sabu berat kotor + 0,19 gram di bungkus klip bening.  Total berat keseluruhan Netto 0,1 gram - 1 (satu) buah tas merek Polo berwarna hitam; - 1 (satu) buah tempat senter berwarna hijau;  </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa: 1.  Nama lengkap  : Seldiyansyah als. Bento Bin Haji M. Tiro Ab Alm 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 33/27 Desember 1988 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jl. Letjen S Parman No. 42 RT. 20 Kel. Sumber      Rejo Kec. Balikpapan Tengah Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Buruh Lepas  Terdakwa Seldiyansyah als. Bento Bin Haji M. Tiro Ab Alm ditahan dalam perkara lain; Terdakwa didampingi Penasehat Hukum;    Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 1/Pid.Sus/2022/PN Bpp tanggal 5 Januari 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 1/Pid.Sus/2022/PN Bpp tanggal 5 Januari 2022 tentang penetapan hari sidang; - Berkas perkara dan surat-surat lain yang bersangkutan;  Setelah mendengar keterangan Saksi-saksi, dan Terdakwa serta memperhatikan barang bukti yang diajukan di persidangan; Setelah mendengar pembacaan tuntutan pidana yang diajukan oleh Penuntut Umum yang pada pokoknya sebagai berikut: 1. Menyatakan terdakwa SELDIANSYAH Als. BENTO Bin H.M. TIRO. AB (Alm) terbukti bersalah melakukan memiliki, menyimpan, menguasai atau menyediakan narkotika Golongan I bukan tanaman sebagaimana diatur dan diancam pidana dalam Pasal 112 ayat (1) UU No 35 Tahun 2009 Tentang Narkotika tersebut dalam dakwaan Kedua;           Pid.I.A.3</t>
-  </si>
-  <si>
-    <t>209/Pid.Sus/2022/PN Bpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 (satu) paket sabu dengan berat bruto 0,24 (nol koma dua empat) gram;  </t>
-  </si>
-  <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : RICO ARI BUWONO Bin (alm) BUWONO; 2.  Tempat lahir  : Balikpapan; 3.  Umur/Tanggal lahir  : 19 Tahun/05 Mei 2002 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jl. Semoi Sepaku No.- RT.011 Kel. Margasari, Kec.       Balikpapan Barat, Kota Balikpapan; 7.  Agama  : Islam; 8.  Pekerjaan  : Belum bekerja;  Terdakwa Rico Ari Buwono Bin (alm) Buwono ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 19 Maret 2022 sampai dengan tanggal 07 April 2022;   2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 08 April 2022 sampai dengan tanggal 17 Mei 2022;   3.  Penuntut Umum sejak tanggal 17 Mei 2022 sampai dengan tanggal 05 Juni 2022;   4.  Hakim PN sejak tanggal 24 Mei 2022 sampai dengan tanggal 22 Juni 2022;   5.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 23 Juni 2022 sampai dengan tanggal 21 Agustus 2022;    Terdakwa menghadap persidangan didampingi oleh Penasihat Hukum dari POSBAKUMADIN;     Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 209/Pid.Sus/2022/PN Bpp tanggal 24 Mei 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 209/Pid.Sus/2022/PN Bpp tanggal 24 Mei 2022 tentang penetapan hari sidang; - Berkas perkara dan surat-surat lain yang bersangkutan;            Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan terdakwa Seldiyansyah Als. Bento Bin Haji M. Tiro Ab (Alm) tersebut terbukti secara sah dan meyakinkan telah bersalah melakukan tindak pidana “Secara tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana kepada terdakwa Seldiyansyah Als. Bento Bin Haji M. Tiro Ab (Alm) dengan pidana penjara selama 5 (lima) tahun dan denda sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 2 (dua) bulan;  3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa : - 3 (Tiga) paket Narkotika jenis sabu dalam plastic klip bening dengan rincian sebagai berikut : a. 1 (satu) paket Narkotika jenis sabu-sabu berat kotor + 0,25 gram di bungkus klip bening. b. 1 (satu) paket Narkotika jenis sabu-sabu berat kotor + 0,23 gram di bungkus klip bening. c. 1 (satu) paket Narkotika jenis sabu-sabu berat kotor + 0,19 gram di bungkus klip bening.  Total berat keseluruhan Netto 0,1 gram - 1 (satu) buah tas merek Polo berwarna hitam; - 1 (satu) buah tempat senter berwarna hijau;  (Dirampas untuk dimusnahkan) 6. Membebankan biaya perkara kepada Terdakwa sebesar Rp. 5.000,- (lima ribu rupiah) ;</t>
   </si>
   <si>
     <t>213/Pid.Sus/2022/PN Bpp</t>
@@ -190,7 +172,7 @@
     <t xml:space="preserve"> 1 paket Sabu kristal (Narkotika) seberat Netto 0,08 (nol koma nol delapan) gram yang telah disisihkan 0,02 gram untuk labfor.  1 (satu) potong celana jeans pendek warna biru. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara  Terdakwa : Nama lengkap  : Sulaiman Bin Amir Hasan; Tempat lahir  : Samarinda ; Umur/Tanggal lahir  : 39 Tahun / 2 Januari 1983 ; Jenis kelamin  : Laki-laki ; Kebangsaan  : Indonesia ; Tempat tinggal  : Jalan Pangeran Antasari Rt. 18 No. 10 Kelurahan Sumber Rejo, Kec. Balikpapan Tengah, Kota Balikpapan ; Agama  : Islam ; Pekerjaan  : Swasta ; Terdakwa  Sulaiman Bin Amir Hasan  ditahan dalam Rumah Tahanan oleh : 1.  Penyidik sejak tanggal 23 Maret 2022 sampai dengan tanggal 11 April 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 12 April 2022 sampai dengan tanggal 21 Mei 2022;  3.  Penuntut Umum sejak tanggal 17 Mei 2022 sampai dengan tanggal 5 Juni 2022;  4. Hakim Pengadilan Negeri sejak tanggal 25 Mei 2022 sampai dengan tanggal 23 Juni 2022;   5. Perpanjangan Wakil Ketua Pengadilan Negeri Balikpapan sejak tanggal               24 Juni 2022 sampai dengan tanggal  22 Agustus 2022 ; Terdakwa di damping oleh Penasihat Hukum Ita Ma’ruf,S.H.,S.Ag., Advokat dari Pos Bantuan Hukum Advokasi Indonesia (Posbakumadin) berkantor di Perumahan Pondok Karya Agung Blok BAA No. 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, berdasarkan Penetapan Majelis Hakim Pengadilan Negeri Balikpapan tanggal 6 Juni 2022, Nomor 213/Pid.Sus/2022/ PN Bpp;            Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Sulaiman Bin Amir Hasan  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “setiap orang yang tanpa hak atau melawan hukum memiliki, menguasai, menyimpan atau menyediakan Narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama ……………………….. tahun dan denda sejumlah Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama ………………. bulan ; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :    - 1 paket Sabu kristal (Narkotika) seberat Netto 0,08 (nol koma nol delapan) gram yang telah disisihkan 0,02 gram untuk labfor; - 1 (satu) potong celana jeans pendek warna biru. Dirampas untuk dimusnahkan. -   1 (satu) unit kendaraan bermotor No.Pol KT-3482-LY. Dirampas untuk negara.  6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah                Rp5.000,00 (lima ribu rupiah ) ;  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Senin, tanggal  27 Juni 2022, oleh kami, SUTARMO, S.H.,M.Hum. sebagai Hakim Ketua, ARIF WISAKSONO, S.H., dan RUSDHIANA HANDAYANI, S.H.,M.H. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum secara elektronik  pada hari Senin tanggal  27 Juni 2022  oleh  SUTARMO, S.H.,M.Hum sebagai Hakim Ketua dengan didampingi ARIF WISAKSONO, S.H. dan RUSDHIANA HANDAYANI, S.H.,M.H. Para Hakim Anggota tersebut, dibantu oleh</t>
   </si>
   <si>
     <t>216/Pid.Sus/2022/PN Bpp</t>
@@ -199,7 +181,7 @@
     <t xml:space="preserve">- 2 (dua) paket sabu dalam kemasan plastik bening dengan berta netto 0,26 (nol koma dua puluh enam) gram ; - 1 (satu) buah bungkus plastik warna hijau yang bertuliskan Tato ; - 1 (satu) buah sedotan plastik warna merah ; - 1 (satu) unit HP merk Xiaomi Redmi 9 warna ungu pink dengan No. Imei : 860957050850817 dan No. Sim : 085654222756 ; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa: 1. Nama lengkap  : Zulham Sembirirng Bin (alm) Sahdan Sembiring ;  2. Tempat lahir  : Tanjung Morawa ; 3. Umur/Tanggal lahir  : 39 Tahun/ 13 Mei 1983 ; 4. Jenis kelamin  : Laki-laki ; 5. Kebangsaan  : Indonesia ; 6. Tempat tinggal  : Jalan Gunung Empat RT.47 No. 3A Kelurahan Margo Mulyo Kecamatan Balikpapan Barat ; 7. Agama  : Islam ; 8. Pekerjaan  : Karyawan Swasta ; 9. Pendidikan : D3 ; Terdakwa ditahan dalam tahanan rutan oleh:  1. Penyidik sejak tanggal 24 Februari 2022 sampai dengan tanggal 16 Maret 2022 ; 2. Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 16 Maret 2022 sampai dengan tanggal 24 April 2022 ; 3. Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 25 April 2022 sampai dengan tanggal 24 Mei 2022 ; 4. Penuntut Umum sejak tanggal 19 Mei 2022 sampai dengan tanggal 7 Juni 2022 ; 5. Hakim Pengadilan Negeri Balikpapan sejak tanggal 31 Mei 2022 sampai dengan tanggal 29 Juni 2022 ; 6. Wakil Ketua Pengadilan Negeri Balikpapan sejak tanggal 30 Juni 2022 sampai dengan tanggal 28 Agustus 2022 ; Terdakwa di damping oleh Ita Ma’ruf, S.H. dan Muhammad Ramadhan, S.H. berdasarkan Penetapan penujukan Majelis Nomor 216/Pid.Sus/2022/PN Bpp tanggal 7 Juni 2022 ; Pengadilan Negeri tersebut; Setelah membaca: - Penetapan Ketua Pengadilan Negeri Balikpapan Nomor 216/ Pid.Sus/ 2022/PN Bpp tanggal 31 Mei 2022 tentang penunjukan Majelis Hakim; Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Zulham Sembiring Bin (alm) Sahdan Sembiring terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa hak memiliki dan menguasai narkotika golongan I bukan tanaman”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama  5 (lima) tahun dan denda sejumlah Rp 800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan ; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :    - 2 (dua) paket sabu dalam kemasan plastik bening dengan berita netto 0,26 (nol koma dua puluh enam) gram ; - 1 (satu) buah bungkus plastik warna hijau yang bertuliskan Tato ; - 1 (satu) buah sedotan plastik warna merah ; - 1 (satu) unit HP merk Xiaomi Redmi 9 warna ungu pink dengan No. Imei : 860957050850817 dan No. Sim : 085654222756 ; Dimusnahkan. 6. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp. 5.000,00 (lima ribu rupiah ) ; Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Rabu, tanggal 13 Juli 2022 , oleh kami, Lila Sari, S.H., M.H., sebagai Hakim Ketua, Rusdhiana Andayani, S.H.,M.H. dan Annender Carnova, S.H., M.Hum., masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum secara elektronik pada hari Selasa, tanggal 26 Juli 2022 oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu oleh Abdul Halim, S.H. Panitera Pengganti pada Pengadilan</t>
   </si>
   <si>
     <t>222/Pid.Sus/2022/PN Bpp</t>
@@ -209,7 +191,7 @@
 ergunakan lagi untuk mengulangi perbuatannya maka terhadap barang bukti tersebut </t>
   </si>
   <si>
-    <t>perkara pidana khusus dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa: Terdakwa I; 1. Nama lengkap : H. JUNAIDI Alias KACONG Bin ZAKARIA; 2. Tempat lahir : Bangkalan; 3. Umur/tanggal lahir : 33 tahun / 22 September 1988;  4. Jenis kelamin : Laki-laki; 5. Kebangsaan : Indonesia; 6. Tempat tinggal : Dusun Mongguh RT. 03 RW. 03 Kelurahan Tanjung Bumi Kecamatan Tanjung Bumi Kabupaten Bangkalan Provinsi Jawa Timur;  7. Agama : Islam; 8. Pekerjaan : Tukang Parkir;  Terdakwa II; 1. Nama lengkap : YAYAK HARYONO Alias YONOK Bin H. ASWI; 2. Tempat lahir : Bangkalan; 3. Umur/tanggal lahir : 38 tahun / 10 November 1983;  4. Jenis kelamin : Laki-laki; 5. Kebangsaan : Indonesia; 6. Tempat tinggal : Jl. KH. Agus Salim Gang Tanjung 6D RT. 32 Kelurahan Sungai Pinang Luar Kecamatan Samarinda Kota Kota Samarinda;  7. Agama : Islam; 8. Pekerjaan : Kontraktor;  Para Terdakwa di tahan dalam Rutan yang dilakukan penahanan oleh: 1.  Penyidik sejak tanggal 26 Januari 2022 sampai dengan tanggal 14 Februari 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 15 Februari 2022 sampai dengan tanggal 26 Maret 2022;   3.  Penyidik Perpanjangan Pertama Oleh Ketua PN sejak tanggal 27 Maret 2022 sampai dengan tanggal 25 April 2022;             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa H. JUNAIDI Alias KACONG Bin ZAKARIA dan Terdakwa YAYAK HARYONO Alias YONOK Bin H. ASWI terbukti secara sah dan meyakinkan telah bersalah melakkukan tindak pidana “Permufakatan jahat secara tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I dalam bentuk bukan tanaman beratnya 5 (lima) gram”; 2. Menjatuhkan pidana kepada terdakwa H. JUNAIDI Alias KACONG Bin ZAKARIA oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan 6 (enam) bulan dan terdakwa YAYAK HARYONO Alias YONOK Bin H. ASWI oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda masing-masing sebesar Rp.1.000.000.000,00 (satu milyar rupiah) dangan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; 3. Menetapkan masa penangakapan dan penahanan yang tekah dijalani oleh masing-masing Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar masing-masing Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>223/Pid.Sus/2022/PN Bpp</t>
@@ -218,7 +200,7 @@
     <t xml:space="preserve">- 2 (dua) paket Sabu dalam kemasan plastik bening dengan berat bruto 186,8 (seratus delapan puluh enam koma delapan) gram. - 1 (satu) buah dompet warna hitam. - 1 (satu) timbangan digital warna hitam. - 1 (satu) bundle klip kosong. - 1 (satu) buah tas kain warna hijau. - 1 (satu) buah HP merk XIAOMI REDMI 4 warna rose gold dengan No. Simcard: 0813-3607-7616 dan No. IMEI : 863732039086883. - 1 (satu) buah Hp merk HAMMER warna merah dengan No. Simcard: 0813-4643-4618 dan No. IMEI: 359570102500286. - 1 (satu) buah HP merk OPPO warna merah dengan No. Simcard: 0813-5104-2388 dan No. IMEI: 866251042364515. oleh karena barang bukti tersebut adalah alat/hasil kejahatan yang digunakan Para Terdakwa untuk melakukan kejahatannya dan dikhawatirkan akan dipergunakan lagi untuk mengulangi perbuatannya maka terhadap barang bukti tersebut </t>
   </si>
   <si>
-    <t>perkara pidana khusus dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa: Terdakwa I; 1. Nama lengkap : AWI ANAS Bin HAYYEN; 2. Tempat lahir : Bangkalan; 3. Umur/tanggal lahir : 47 Tahun / 15 April 1974;  4. Jenis kelamin : Laki-laki; 5. Kebangsaan : Indonesia; 6. Tempat tinggal : Dusun Jetrebung Kel. Tanjung Bumi Kec. Tanjung Bumi;  7. Agama : Islam; 8. Pekerjaan : Wiraswasta;  Terdakwa II; 1. Nama lengkap : MATARI Bin (Alm) MUSLIMAN; 2. Tempat lahir : Bangkalan; 3. Umur/tanggal lahir : 62 Tahun / 07 Mei 1959;  4. Jenis kelamin : Laki-laki; 5. Kebangsaan : Indonesia; 6. Tempat tinggal : Jalan Riko No.35 RT.25 Kelurahan Baru Tengah, Kecamatan Balikpapan Barat;  7. Agama : Islam; 8. Pekerjaan : Buruh Harian Lepas;  Para Terdakwa di tahan dalam Rutan yang dilakukan penahanan oleh: 1.  Penyidik sejak tanggal 29 Januari 2022 sampai dengan tanggal 17 Februari 2022;   2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 18 Februari 2022 sampai dengan tanggal 29 Maret 2022;   3.  Penyidik Perpanjangan Pertama Oleh Ketua PN sejak tanggal 30 Maret 2022 sampai dengan tanggal 28 April 2022;   4.  Penyidik Perpanjangan Kedua Oleh Ketua PN sejak tanggal 29 April 2022 sampai dengan tanggal 28 Mei 2022;   5.  Penuntut Umum sejak tanggal 23 Mei 2022 sampai dengan tanggal 11 Juni 2022;             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa AWI ANAS Bin HAYYEN dan Terdakwa MATARI bin (Alm) MUSLIMAN terbukti secara sah dan meyakinkan telah bersalah melakkukan tindak pidana “TANPA HAK MENYEDIAKAN NARKOTIKA GOLONGAN I BUKAN TANAMAN YANG BERATNYA MELEBIHI 5 (LIMA) GRAM DENGAN PERMUFAKATAN JAHAT”; 2. Menjatuhkan pidana kepada Terdakwa AWI ANAS Bin HAYYEN dan Terdakwa MATARI bin (Alm) MUSLIMAN oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan 6 (enam) bulan dan denda masing-masing sebesar Rp.800.000.000,00 (delapan ratus juta rupiah) dangan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan; 3. Menetapkan masa penangakapan dan penahanan yang tekah dijalani oleh masing-masing Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar masing-masing Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa : - 2 (dua) paket Sabu dalam kemasan plastik bening dengan berat bruto 186,8 (seratus delapan puluh enam koma delapan) gram. - 1 (satu) buah dompet warna hitam. - 1 (satu) timbangan digital warna hitam. - 1 (satu) bundle klip kosong. - 1 (satu) buah tas kain warna hijau. - 1 (satu) buah HP merk XIAOMI REDMI 4 warna rose gold dengan No. Simcard: 0813-3607-7616 dan No. IMEI : 863732039086883. - 1 (satu) buah Hp merk HAMMER warna merah dengan No. Simcard: 0813-4643-4618 dan No. IMEI: 359570102500286. - 1 (satu) buah HP merk OPPO warna merah dengan No. Simcard: 0813-5104-2388 dan No. IMEI: 866251042364515. Dirampas untuk dimusnahkan; 6. Membebankan biaya perkara kepada masing-masing Terdakwa sebesar Rp. 5.000,00 (lima ribu rupiah);</t>
   </si>
   <si>
     <t>244/Pid.Sus/2022/PN Bpp</t>
@@ -227,7 +209,7 @@
     <t xml:space="preserve">• Sisa Narkotika jenis Ekstasi dari Uji Laboratorium pada Balai Besar POM Samarinda sebanyak 10 (sepuluh) butir Ekstasi. • 1 (satu) bundel plastic klip bening yang berukuran kecil; • 1 (satu) buah HP  merk Xiomi warna Hitam Imei 1: 86720805318444 dan Imei 2 : 86720805318451, Simcard 1 : 08115517517 Simcard 2 : 087811 906999 • 1 (satu) buah bantal leher warna kuning.  Seluruhnya </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Abdul Harris Alias Ayes Bin Joni Ar Jani Alm 2.  Tempat lahir  : Banjarmasin 3.  Umur/Tanggal lahir  : 33/16 Februari 1989 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6. Tempat tinggal            : Jalan Sriwi jaya Komplek Keruwing Indah 3 Blok C No. 9 Rt. 006 Rw. 001 Kelurahan Klandasan Ulin Utara Kecamatan Liang Anggang Kota Banjarbaru Provinsi Kalimantan Selatan Atau Apartemen Green Valley Blok E No. 9 Lantai 2 Kelurahan Gunung Sari Ulu Kecamatan Balikpapan Tengah Kota Balikpapan Provinsi Kalimantan Timur 7.  Agama  : Islam 8.  Pekerjaan  : swasta Terdakwa Abdul Harris Alias Ayes Bin Joni Ar Jani Alm ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 24 Februari 2022 sampai dengan tanggal 15 Maret 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 16 Maret 2022 sampai dengan tanggal 24 April 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 25 April 2022 sampai dengan tanggal 24 Mei 2022  4.  Penuntut Umum sejak tanggal 23 Mei 2022 sampai dengan tanggal 11 Juni 2022  5.  Hakim Pengadilan Negeri sejak tanggal 6 Juni 2022 sampai dengan tanggal 5 Juli 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 6 Juli 2022 sampai dengan tanggal 3 September 2022  Terdakwa didampingi oleh Penasehat Hukum Ita Ma’ruf, S.H., S.Ag. Penasihat dari Pos Bantuan Hukum Advokasi Indonesia (Posbakumadin)           Pid.I.A.3</t>
+    <t xml:space="preserve">  1. Menyatakan Terdakwa Abdul Harris Alias Ayes Bin Joni Arjani (Alm) terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman beratnya melebihi 5 (lima) gram”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sejumlah Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1 (satu) bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa :   - Sisa Narkotika jenis Ekstasi dari Uji Laboratorium pada Balai Besar POM Samarinda sebanyak 10 (sepuluh) butir Ekstasi. - 1 (satu) bundel plastic klip bening yang berukuran kecil;</t>
   </si>
   <si>
     <t>248/Pid.Sus/2022/PN Bpp</t>
@@ -251,7 +233,7 @@
 Menimbang, bahwa pada saat melakukan perbuatannya tersebut, terdakwa berada dalam keadaan sadar, tidak berada dalam pengaruh dan tekanan dari pihak manapun juga, oleh karenanya terhadap diri terdakwa haruslah dianggap mampu bertanggung jawab (toerekeningsvatbaar) atas perbuatannya tersebut ; Menimbang, bahwa dari uraian pertimbangan tersebut diatas, terdakwa telah nyata sebagai pelaku dari tindak pidana yang didakwakan oleh Jaksa Penuntut Umum dalam surat dakwaan dan bukan orang lain, sehingga menurut Majelis Hakim unsur “setiap orang“ di dalam dakwaan ini telah terpenuhi ; Ad.2. Unsur  percobaan atau permufakatan jahat untuk melakukan Tindak Pidana Narkotika dan Prekursor Narkotika tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman; Menimbang, bahwa dalam Penjelasan Pasal 132 (1) UU No. 35 Tahun 2009 dijelaskan yang dimaksud dengan “percobaan” adalah adanya unsur-unsur niat, adanya permulaan pelaksanaan, dan tidak selesainya pelaksanaan bukan semata-mata disebabkan karena kehendaknya sendiri. Menimbang, bahwa Sedangkan menurut Pasal 1 angka 18 UU No. 35 Tahun 2009 bahwa yang dimaksud Permufakatan Jahat adalah perbuatan dua orang atau lebih yang bersekongkol atau bersepakat untuk melakukan, melaksanakan, membantu, turut serta melakukan, menyuruh, mernganjurkan, memfasilitasi, memberi konsultasi, menjadi anggota suatu organisasi kejahatan Narkotika, atau mengorganisasikan suatu tindak pidana Narkotika Menimbang, bahwa Pasal 7 UURI No.35 tahun 2009, menyebutkan : Narkotika hanya dapat digunakan untuk kepentingan pelayanan kesehatan dan/atau pengembangan ilmu pengetahuan dan teknologi.  Bahwa dalam pasal ini mensyaratkan Narkotika hanya dapat di miliki, disimpan, di kuasai dengan ijin pihak berwenang  Menimbang, bahwa Sehingga “unsur tanpa hak atau melawan hukum ”disini dimaksudkan terhadap perbuatan atau rangkaian perbuatan terdakwa yang percobaan atau permufakatan jahat untuk melakukan Tindak Pidana Narkotika dan Prekursor Narkotika tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I buk</t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Hasanuddin Alias Puang Bin Alm Hp Taggo; 2.  Tempat lahir  : Balikpapan; 3.  Umur/Tanggal lahir  : 42 Tahun / 16 November 1979; 4.  Jenis kelamin  : Laki-laki; 5.  Kebangsaan  : Indonesia; 6.  Tempat tinggal  : Jalan Letjend Suprapto Nomor 11 RT 07 Kelurahan Baru Ulu Kecamatan Balikpapan Barat; 7.  Agama  : Islam; 8.  Pekerjaan  : Karyawan Swasta;  Terdakwa Hasanuddin Alias Puang Bin Alm Hp Taggo ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 8 April 2022 sampai dengan tanggal 27 April 2022; 2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 28 April 2022 sampai dengan tanggal 6 Juni 2022; 3.  Penuntut Umum sejak tanggal 2 Juni 2022 sampai dengan tanggal 21 Juni 2022; 4.  Hakim Pengadilan Negeri sejak tanggal 13 Juni 2022 sampai dengan tanggal 12 Juli 2022; 5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 13 Juli 2022 sampai dengan tanggal 10 September 2022; Terdakwa dipersidangan didampingi oleh Sdri. ITA MA’RUF, SH., S.Ag., Advokat/Penasihat Hukum dari “POSBAKUMADIN” yang tergabung dalam Posbakum Pengadilan Negeri Balikpapan, yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 06 Juli 2022 Nomor 246/Pid.Sus/2022/PN Bpp;   PENGADILAN NEGERI tersebut; Setelah membaca:             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa HASANUDDIN alias PUANG bin (Alm) HP TAGGO, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa Hak atau Melawan Hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana terhadap Terdakwa dengan pidana penjara selama 6 (enam) tahun dan denda sebesar Rp.800.000.000,- (Delapan Ratus Juta Rupiah), dengan ketentuan apabila denda tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan;  3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti dalam perkara ini berupa :  - 1 (satu) buah Hp merk VIVO Y12 warna hitam dengan simcard No. 081254437796;</t>
   </si>
   <si>
     <t>252/Pid.Sus/2022/PN Bpp</t>
@@ -260,7 +242,7 @@
     <t xml:space="preserve">- 1 (satu) buah kotak rokok LA Bold ; - 1 (satu) bungkus plastik klip bening berisikan Narkotika jenis sabu berat brutto 0,28 (nol koma dua puluh delapan) gram ; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Wiwit Bin Rahmad Solihin (Alm) ; 2.  Tempat lahir  : Balikpapan ; 3.  Umur/Tanggal lahir  : 40 Tahun/ 24 Juni 1981 ; 4.  Jenis kelamin  : Laki-laki ; 5.  Kebangsaan  : Indonesia ; 6.  Tempat tinggal  : Jl. Soekarno Hatta Rt.037 Kelurahan Batu Ampar      Kecamatan Balikpapan Utara Kota Balikpapan      Provinsi Kalimantan Timur ; 7.  Agama  : Islam ; 8.  Pekerjaan  : Swasta ; Terdakwa ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 7 April 2022 sampai dengan tanggal 26 April 2022 ; 2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 27 April 2022 sampai dengan tanggal 05 Juni 2022 ; 3.  Perpanjangan pertama Ketua Pengadilan Negeri Balikpapan sejak tanggal 6 Juni 2022 sampai dengan tanggal 5 Juli 2022 ; 4. Penuntut Umum sejak tanggal 6 Juni 2022 sampai dengan tanggal 25 Juni 2022 ;  5. Hakim Pengadilan Negeri Balikpapan sejak tanggal 17 Juni 2022 sampai dengan tanggal 16 Juli 2022 ; 6. Ketua Pengadilan Negeri Balikpapan sejak tanggal 17 Juli 2022 sampai dengan tanggal 14 September 2022 ; Terdakwa didampingi oleh Penasihat Hukum Ita Ma’ruf, S.H.,S.Ag. dan Muhammad Ramadhan, S.H., Advokat pada Pos Bantuan Hukum Advokat Indonesia (Posbakumadin) Balikpapan, yang berkantor di Perumahan Pondok Karya Agung Blok BAA No. 48 RT.13  RW.19 Kelurahan Sungai Nangka Kecamatan Balikpapan Selatan, berdasarkan Penetapan Nomor : 252/Pid.Sus/2022/PN Bpp tanggal 28 Juni 2022 ; Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 252/Pid.Sus/ 2022/PN Bpp tanggal 17 Juni 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 252/Pid.Sus/2022/PN Bpp tanggal 17 Juni 2022 tentang penetapan hari sidang ;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Wiwit Bin Rahmad Solihin (Alm) terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Penyalahguna Narkotika Golongan I bagi diri sendiri”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 3 (tiga) tahun dan 6 (enam) bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :    - 1 (satu) buah kotak rokok LA Bold ;</t>
   </si>
   <si>
     <t>254/Pid.Sus/2022/PN Bpp</t>
@@ -269,7 +251,7 @@
     <t xml:space="preserve">• 5 (lima) paket sabu dalam kemasan plastik bening dengan berat brutto 56,56 gram atau berat bersih 52,95 gram • 1 (satu) buah plastic warna hitam • 1 (satu) buah HP Android merk Samsung Galaxy A11 beserta simcard nomor 0895320568560 dengan nomor imei : 356173116346227  </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Umi Maryati Binti Matoerip 2.  Tempat lahir  : Surabaya 3.  Umur/Tanggal lahir  : 50/22 Maret 1972 4.  Jenis kelamin  : Perempuan 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Sepaku Laut No- RT. 08 Kelurahan Marga Sari Kecamatan Balikpapan Barat, Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Mengurus rumah tangga  Terdakwa Umi Maryati Binti Matoerip ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 15 Maret 2022 sampai dengan tanggal 3 April 2022   2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 4 April 2022 sampai dengan tanggal 13 Mei 2022   3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 14 Mei 2022 sampai dengan tanggal 12 Juni 2022   4.  Penuntut Umum sejak tanggal 8 Juni 2022 sampai dengan tanggal 27 Juni 2022  5.  Hakim Pengadilan Negeri sejak tanggal 17 Juni 2022 sampai dengan tanggal 16 Juli 2022   6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 17 Juli 2022 sampai dengan tanggal 14 September 2022   Terdakwa didampingi oleh Penasehat Hukumnya dari POSBAKUMADIN berdasarkan Penetapan Nomor :  254/Pid.Sus/2022/PN.Bpp, tanggal  12 Juli 2022 ;    Pengadilan Negeri tersebut; Setelah membaca:             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa  Umi Maryati Binti Matoerip  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “ Tanpa hak atau melawan hukum membeli, menerima Narkotika Golongan I  lebih 5 gram ” ; 2. Menjatuhkan pidana Terdakwa oleh karena itu dengan pidana penjara  masing selama “ 6 (Enam) Tahun  dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah), dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama “ 3 (Tiga) Bulan” ;  3. Menetapkan masa penangkapan dan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;                                                          4. Menetapkan  Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa : - 5 (lima) paket sabu dalam kemasan plastik bening dengan berat brutto 56,56 gram atau berat bersih 52,95 gram - 1 (satu) buah plastic warna hitam - 1 (satu) buah HP Android merk Samsung Galaxy A11 beserta simcard nomor 0895320568560 dengan nomor imei : 356173116346227      Dirampas untuk dimusnahkan ;</t>
   </si>
   <si>
     <t>255/Pid.Sus/2022/PN Bpp</t>
@@ -279,7 +261,7 @@
 - 1 (satu) unit Hp VIVO warna biru Imei: 866660057154357/40 No Hp.085651241680 </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Irvan Alias Ipan Bin Muslimin 2.  Tempat lahir  : Ujung Pandang 3.  Umur/Tanggal lahir  : 35/18 Agustus 1987 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Gunung Gembira III Rt. 04 No. 00 Kel Baru Ilir                                          Kec. Balikpapan Barat, Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Tidak bekerja  Terdakwa Irvan Alias Ipan Bin Muslimin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 26 Maret 2022 sampai dengan tanggal 14 April 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 15 April 2022 sampai dengan tanggal 24 Mei 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 25 Mei 2022 sampai dengan tanggal 23 Juni 2022  4.  Penuntut Umum sejak tanggal 6 Juni 2022 sampai dengan tanggal 25 Juni 2022  5.  Hakim Pengadilan Negeri sejak tanggal 17 Juni 2022 sampai dengan tanggal 16 Juli 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 17 Juli 2022 sampai dengan tanggal 14 September 2022   Terdakwa dipersidangan didampingi oleh Penasihat Hukum, ITA MA’RUF S, Ag, SH.MH.  Yaitu LEMBAGA BANTUAN HUKUM (LBH) POSBAKUM  yang beralamat  kantor di  Pondok  Karya Agung Blok BAA No. 48 RT. 13 Kel. Sungai Nangka, Kec. Balikpapan Selatan, berdasarkan           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa IRVAN Alias IPAN Bin MUSLIMIN tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana  “Percobaan  atau permufakatan jahat secara  tanpa hak  atau melawan hukum menerima, menjadi perantara dalam jual beli  Narkotika  Golongan I bukan tanaman“ ; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 8 (delapan) Tahun  dan denda sebesar Rp. 1.000.000.000, (Satu Milyar rupiah) dengan ketentuan apabila denda tersebut  tidak dibayar, maka diganti dengan pidana penjara selama 4 (empat) Bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;  4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa: - 1 (satu) bungkus plastik klip bening Narkotika jenis sabu seberat netto 18,98 (delapan belas koma sembilan puluh delapan) gram</t>
   </si>
   <si>
     <t>261/Pid.Sus/2022/PN Bpp</t>
@@ -288,7 +270,7 @@
     <t xml:space="preserve"> - 1 (satu) Paket sabu-sabu + plastic flip warna bening : 5,26 (Lima koma dua puluh enam) Gram berat bersih 4,85 Gram.  - 1 (satu) buah timbangan digital merk camry.  - 1 (satu) buah sendok takar warna hitam yang terbuat dari sedotan plastic warna hitam.-  </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap : DENIS RISALDI Bin ARIS RIZALDI  Tempat lahir :  Balikpapan Umur / Tanggal Lahir :  29 Tahun / 27 januari 1992  Jenis kelamin :  Laki Laki Kebangsaan :  Indonesia / Bugis Tempat tinggal :  Jl. MT Haryono No. Rt.30 Kel. Sungai Nangka Kec.Balikpapan Selatan  A g a m a :  Islam  Pekerjaan :  Security perum borneo paradiso     Pendidikan Terakhir :  SMP (tidak tamat)             Terdakwa DENIS RISALDI Bin ARIS RIZALDI ditangkap oleh Penyidik sejak tanggal 23  Maret 2022;           Terdakwa DENIS RISALDI Bin ARIS RIZALDI ditahan dalam tahanan rutan oleh:  1. Penyidik sejak tanggal 24 Maret 2022 sampai dengan tanggal 12 April 2022;  2. Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 13 April 2022 sampai dengan tanggal 22 Mei 2022;  3. Penyidik Perpanjangan pertama oleh Ketua PN sejak tanggal 23 Mei 2022 sampai dengan tanggal 21 Juni 2022; 4. Penuntut Umum sejak tanggal 8 Juni 2022 sampai dengan tanggal 27 Juni 2022;  5. Hakim Pengadilan Negeri sejak tanggal 20 Juni 2022 sampai dengan tanggal 19 Juli 2022;  6. Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 20 Juli 2022 sampai dengan tanggal 17 September 2022;   Terdakwa dalam perkara ini didampingi oleh Penasihat Hukum Sdri.YOHANIS MAROKKO,SH,CIL,C.ME dan YOAN SAKTI NATHANAEL</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa DENIS RISALDI Bin ARIS RIZALDI, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ““Tanpa hak memiliki, menyimpan, menguasai Narkotika Golongan I bukan tanaman; 2. Menjatuhkan pidana kepada Terdakwa dengan pidana penjara selama :                                                   6 (enam) Tahun dan 6 (Enam) Bulan dan pidana denda sebesar Rp.800.000.000,- (Delapan ratus juta rupiuah) dengan ketentuan apabila denda tidak dibayar maka akan diganti dengan pidana penjara selama  :               3 (Tiga) Bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh  Terdakwa di kurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap di tahan; 5. Menetapkan barang bukti berupa:</t>
   </si>
   <si>
     <t>266/Pid.Sus/2022/PN Bpp</t>
@@ -297,28 +279,7 @@
     <t xml:space="preserve">- 1 (satu) buah toples Tupperware warna merah muda berisikan ganja dengan bruto 249 gram; - 1 (satu) buah toples Tupperware warna hijau berisikan ganja dengan bruto 210 gram; - 1 (satu) buah toples Tupperware warna hijau muda berisikan ganja dengan bruto 132 gram; - 1 (satu) buah HP Samsung Galaxy S9 Plus warna ungu dengan No. telp : 081348853873 dan No. Imei : 355335090414229 ;  - 1 (satu) buah kartu ATM Bank BCA.           Adalah merupakan alat yang dipakai untuk melakukan kejahatan, maka akan </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Andi Sulalipu Bin Andi Anton 2.  Tempat lahir  : Tae 3.  Umur/Tanggal lahir  : 29/1 September 1992 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6. Tempat tinggal  : Jalan Pandan Wang No. 21 Rt. 026 Kelurahan Marga Sari Kecamatan Balikpapan Barat Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Karyawan Swasta Terdakwa Andi Sulalipu Bin Andi Anton ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 12 Maret 2022 sampai dengan tanggal 31 Maret 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 1 April 2022 sampai dengan tanggal 10 Mei 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 11 Mei 2022 sampai dengan tanggal 9 Juni 2022  4.  Penuntut Umum sejak tanggal 16 Juni 2022 sampai dengan tanggal 5 Juli 2022  5.  Hakim Pengadilan Negeri sejak tanggal 6 Juli 2022 sampai dengan tanggal 4 Agustus 2022  6.  Perpanjangan Oleh Ketua Pengadilan Negeri sejak tanggal 5 Agustus 2022 sampai dengan tanggal 3 Oktober 2022               Pada hari persidangan pertama Majelis Hakim telah menetapkan Penasihat Hukum yang ditunjuk secara Cuma – Cuma atau Prodeo dan Terdakwa dipersidangan didampingi oleh Sdr. JOHANES MAROKKO, S.H., &amp; YOAN SAKSI NATHANAEL NAINGGOLAN.S.H.,M.H., Penasihat Hukum / Advokat dam Konsultan Hukum berkantor di Lembaga Bantuan Hukum dan Studi Kebijakan Publik (LBH SIKAP) yang beralamat di Jl. ARS Muhammad No.07 Hotel Gran Senyiut Keseluruhan Klandasan Ulu- Kota Balikpapan, berdasarkan Surat Penetapan Majelis Hakim Pengadilan Negeri Balikpapan tanggal 29 Juni 2022 Nomor 264/Pid.Sus/2022/PN Bpp;            Pid.I.A.3</t>
-  </si>
-  <si>
-    <t>269/Pid.Sus/2022/PN Bpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• 1 (satu) bungkus sabu beserta plastic dengan berat kotor 0,28 gram ; berat plastic 0,2 gram dan berat bersih 0,08 gram;  • 1 (satu) bungkus 23 pil ekstasi beserta plastic dengan berat kotor 9,50 gram; berat plastic 0,4 gram dan berat bersih 9,10 gram; • TOTAL 1 (satu) bungkus sabu dan 1 (satu) bungkus 23 pil eksatsi dengan berat kotor 9,78 gram ; berat plastic 0,6 gram dan berat bersih 9,18 gram; • Bahwa berdasarkan Berita Acara Pemeriksaan Laboratoris Kriminalistik No Lab : 02316/ NNF/ 2022 pada hari RABU tanggal 06 April 2022, telah dilakukan pemeriksaan barang bukti Nomor : • 04603/ 2021/ NNF berupa 1 kantong plastik berisikan kristal warna putih dengan berat Netto 0,012 gram • 04604/ 2021/ NNF berupa 1 butir tablet warna merah muda dengan berat Netto 0,308 gram • Dengan kesimpulan : • Barang bukti Nomor  : 04603/ 2021/ NNF tersebut benar Kristal Metamfetamina terdaftar dalam Golongan I Nomor urut 16 Lampiran UU RI No 35 Tahun 2009 • Barang bukti Nomor  : 04604/ 2021/ NNF tersebut dalam adalah benar tablet yang mengandung bahan aktif : • MDMA terdaftar dalam Golongan I Nomor Urut 37 Lampiran 1 UU RI No 35 Tahun 2009 • Kaffein mempunyai efek stimulan terhadap susunan saraf pusat, tidak termasuk narkotika dan psikotropika              Perbuatan terdakwa sebagaimana diatur dan diancam pidana dalam Pasal 112 Ayat (2) UU RI No. 35 Tahun 2009 tentang Narkotika. Menimbang, bahwa terhadap Surat Dakwaan tersebut Terdakwa menyatakan mengerti dan melalui Penasihat Hukumnya menyatakan tidak mengajukan keberatan; Menimbang, bahwa terhadap Surat Dakwaan tersebut Terdakwa menyatakan mengerti dan melalui Penasihat Hukumnya menyatakan tidak mengajukan keberatan;  Menimbang, bahwa untuk membuktikan dakwaannya dipersidangan Jaksa Penuntut Umum telah mengajukan saksi-saksi yang disumpah menurut agamanya, memberikan keterangan sebagai berikut:  1) Saksi ANDI KASMIR Bin (Alm) H.P SYAMSUDDIN, dibawah sumpah dimuka persidangan pada pokoknya menerangkan sebagai berikut
-- Bahwa benar pada hari Jumat tanggal 18 Februari 2022 sekitar pukul 10.30 wita saya bersama tim mendapatkan informasi dari masyarakat bahwa di Jl. Patimura Rt. 48 No. 128 Kel. Batu Ampar Kec. Balikpapan Utara tepatnya di sebuah rumah kontrakan ada yang membawa sabu dan extacy, kemudian dilakukan penyelidikan pada tempat tersebut, sekitar pukul 11.45 wita saya dan Sdr. Fahrezha Ramadanu melakukan penangkapan terhadap terdakwa, setelah ditanya mengaku bernama M. Uwen. Kemudian saya menanyakan “dimana kamu simpan barangmu?” terdakwa menjawab “ada di kamar pak” kemudian rekan saya Sdr. Fahrezha Ramadanu menemukan 1 (satu) buah dompet kecil warna hitam bergambar kelelawar yang berada di bawah meja, yang mana pada saat dibuka di dalamnya berisi 1 (satu) paket sabu dalam kemasan plastik bening, 23 (dua puluh tiga) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik, 1 (satu) buah timbangan digital warna hitam bertuliskan HWH serta 1 (satu) bungkus plastik klip bening kosong pada saat rekan saya Sdr. Fahrezha Ramadanu bertanya kepada terdakwa milik siapa barang bukti yang ditemukan tersebut tersebut, terdakwa mengaku bahwa barang bukti tersebut miliknya Kemudian saya bertanya lagi kepada terdakwa ”dari mana dapatnya?” terdakwa menjawab ”saya dapat dari Aziz pak”. Kemudian dari penemuan barang bukti tersebut, terdakwa beserta barang bukti yang ditemukan di bawa ke Sat. Resnarkoba Polresta Balikpapan untuk di proses lebih lanjut        TANGGAPAN terdakwa:        Atas keterangan saksi tersebut terdakwa telah membenarkannya. 2) Saksi FAHREZHA RAMADANU Bin RACHMAD, dibawah sumpah dimuka persidangan pada pokoknya menerangkan sebagai berikut : - Bahwa benar pada hari Jumat tanggal 18 Februari 2022 sekitar pukul 10.30 wita saya bersama tim mendapatkan informasi dari masyarakat bahwa di Jl. Patimura Rt. 48 No. 128 Kel. Batu Ampar Kec. Balikpapan Utara tepatnya di sebuah rumah kontrakan ada yang membawa sabu dan extacy, kemudian dilakukan penyelidikan pada tempat tersebut, sekitar pukul 11.45 wita saya dan Sdr. Fahrezha Ramadanu melakukan penangkapan terhadap terdakwa, setelah ditanya mengaku bernama M. Uwen. Kemudian saya menanyakan “dimana kamu simpan barangmu?” terdakwa menjawab “ada di kamar pak” kemudian rekan saya Sdr. Fahrezha Ramadanu menemukan 1 (satu) buah dompet kecil warna hitam bergambar kelelawar yang berada di bawah meja, yang mana pada saat dibuka di dalamnya berisi 1 (satu) paket sabu dalam
-kemasan plastik bening, 23 (dua puluh tiga) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik, 1 (satu) buah timbangan digital warna hitam bertuliskan HWH serta 1 (satu) bungkus plastik klip bening kosong pada saat rekan saya Sdr. Fahrezha Ramadanu bertanya kepada terdakwa milik siapa barang bukti yang ditemukan tersebut tersebut, terdakwa mengaku bahwa barang bukti tersebut miliknya Kemudian saya bertanya lagi kepada terdakwa ”dari mana dapatnya?” terdakwa menjawab ”saya dapat dari Aziz pak”. Kemudian dari penemuan barang bukti tersebut, terdakwa beserta barang bukti yang ditemukan di bawa ke Sat. Resnarkoba Polresta Balikpapan untuk di proses lebih lanjut.        TANGGAPAN terdakwa:        Atas keterangan saksi tersebut terdakwa telah membenarkannya Menimbang, bahwa dimuka persidangan Jaksa Penuntut Umum tidak mengajukan alat bukti surat; - 1 (satu) paket sabu dengan berat bruto 0,28 (nol koma dua delapan) gram; - 23 (dua puluh tiga) butir pil ekstasi warna merah muda berlogo gambar kuda di dalam kemasan plastik bening dengan berat bruto 9,28 (sembilan koma dua delapan) gram - 1 (satu) buah timbangan digital warna hitam bertuliskan HWH; - 1 (satu) buah Hp android merk Vivo 1907 beserta simcard Telkomsel AS nomor: 0853-3528-2568 dengan nomor Imei: 868725046127638/868725046127620; - 1 (satu) bungkus plastik klip bening kosong; - 1 (satu) buah dompet kecil warna hitam bergambar kelelawar; Menimbang, bahwa dipersidangan terdakwa telah memberikan keterangan sebagai berikut yakni: - Bahwa Pada hari Rabu tanggal 05 Januari 2022 sekitar pukul 11.00 wita, pada saat terdakwa sedang berada di rumah kontrakan, terdakwa menghubungi Sdr. Aziz dan berkata “saya mau beli inex” Sdr. Aziz menjawab “ada”, setelah itu Sdr. Aziz berkata kepada terdakwa “saya nitip sabu sekalian nanti ada yang nelpon kamu untuk ambil uangnya” terdakwa menjawab “iya” Sdr. Aziz berkata lagi “nanti kamu bayar Rp. 10.000.000,- juta aja sisanya gausah dibayar imbalan kamu antarkan sabunya” terdakwa menjawab “iya”. Tidak beberapa lama kemudian terdakwa dihubungi oleh Private number dan terdakwa diarahkan untuk mengambil uang di daerah Siaga di dekat tiang telpon, setelah itu terdakwa langsung pergi ke daerah Siaga seperti yang diarahkan sebelumnya, sesampainya di daerah Siaga
-terdakwa melihat kresek berwarna hitam di dekat tiang telpon, pada saat terdakwa buka di dalamnya terdapat uang tunai sebesar Rp. 10.000.000,-, setelah itu terdakwa mengambil uang tersebut dan terdakwa pergi ke daerah Petung Kab. Penajam Paser Utara. Sekitar pukul 15.00 wita pada saat terdakwa sedang berada di daerah Petung Kab. Penajam Paser Utara terdakwa dihubungi kembali oleh seseorang yang menggunakan private number dan seseorang tersebut mengarahkan terdakwa untuk mengambil sabu dan pil extacy tersebut di tiang listrik yang berada di pinggir jalan dan terdakwa melihat kresek hitam berada di dekat tiang listrik, pada saat terdakwa buka di dalamnya terdapat 1 (satu) ball paket sabu seberat 50 (lima puluh) gram dan 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik, setelah itu terdakwa mengambil 1 (satu) ball paket sabu seberat 50 (lima puluh) gram dan 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik tersebut dan terdakwa taruh uang sebesar Rp. 20.000.000,-. Setelah itu terdakwa kembali ke Balikpapan. Sesampainya di Balikpapan terdakwa kembali ke rumah kontrakan terdakwa yang berada di daerah Batu Ampar, sabu yang terdakwa dapatkan tadi, terdakwa sisihkan/pecah/potek menjadi 1 (satu) paket sabu sebesar setengah gram. Setelah itu terdakwa simpan sabu tersebut di dalam dompet kecil warna hitam bergambar kelelawar, setelah itu sabu tersebut terdakwa bungkus kembali dan terdakwa pergi untuk melemparkannya kembali di daerah Siaga seperti yang diarahkan oleh Sdr. Aziz sebelumnya. Sedangkan 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik yang terdakwa dapatkan tersebut terdakwa simpan di dalam dompet kecil warna hitam bergambar kelelawar. Sekitar pukul 20.00 wita sabe yang telah terdakwa sisihkan/pecah/potek tadi terdakwa gunakan di rumah kontrakan terdakwa, sisa sabu yang terdakwa gunakan tersebut terdakwa simpan kembali ke dalam dompet kecil warna hitam bergambar kelelawar. Pada hari Jumat tanggal 18 Februari 2022 sekitar pukul 11.45 wita pada saat terdakwa sedang berada di rumah kontrakan terdakwa tiba-tiba datang beberapa orang yang berpakaian preman yang ternyata petugas kepolisian, kemudian terdakwa ditangkap dan digeledah, kemudian petugas polisi bertanya kepada terdakwa “dimana kamu simpan barangmu?” terdakwa menjawab “ada di kamar pak” kemudian petugas polisi menemukan 1 (satu) buah dompet kecil warna hitam bergambar kelelawar yang berada di bawah meja, pada saat dibuka di dalamnya berisi 1 (satu) paket sabu dalam kemasan plastik bening, 23 (dua puluh tiga) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan
-lastik, 1 (satu) buah timbangan digital warna hitam bertuliskan HWH serta 1 (satu) bungkus plastik klip bening kosong milik terdakwa. Kemudian polisi bertanya lagi kepada terdakwa ”dari mana dapatnya?” terdakwa menjawab ”saya dapat dari Aziz pak; Menimbang, bahwa dalam perkara a quo Terdakwa tidak mengajukan saksi a de charge (meringankan) dipersidangan;  Menimbang, bahwa dalam perkara a quo juga Terdakwa tidak mengajukan alat bukti Menimbang, bahwa dimuka persidangan Jaksa Penuntut Umum tidak mengajukan saksi Ahli  Menimbang, bahwa dimuka persidangan Jaksa Penuntut Umum mengajukan alat bukti sebagai berikut; - 1 (satu) paket sabu dengan berat bruto 0,28 (nol koma dua delapan) gram; - 23 (dua puluh tiga) butir pil ekstasi warna merah muda berlogo gambar kuda di dalam kemasan plastik bening dengan berat bruto 9,28 (sembilan koma dua delapan) gram - 1 (satu) buah timbangan digital warna hitam bertuliskan HWH; - 1 (satu) buah Hp android merk Vivo 1907 beserta simcard Telkomsel AS nomor: 0853-3528-2568 dengan nomor Imei: 868725046127638/868725046127620; - 1 (satu) bungkus plastik klip bening kosong; - 1 (satu) buah dompet kecil warna hitam bergambar kelelawar;             Barang bukti yang diajukan dalam persidangan ini telah disita secara sah menurut hukum, karena itu dapat digunakan untuk memperkuat pembuktian.               Menimbang bahwa barang bukti yang diajukan dalam persidangan ini telah disita secara sah menurut hukum yang telah mendapat Izin dan Persetujuan Penyitaan dari Ketua Pengadilan Negeri Balikpapan serta telah dibuatkan Berita Acara Penyitaannya, Hakim juga telah memperlihatkan barang bukti tersebut kepada terdakwa dan saksi-saksi, oleh yang bersangkutan telah membenarkannya, karena itu dapat digunakan untuk memperkuat pembuktian.  Menimbang, bahwa dimuka persidangan Jaksa Penuntut Umum  mengajukan alat bukti surat; • Bahwa berdasar berita acara penimbangan barang bukti Nomor : 75/ 10959. BAP/ II/ 2022 pada hari SABTU tanggal 19 Februari 2022 oleh PT. Pegadaian (Persero) Cabang Damai atas permintaan Kapolres Balikpapan, telah dilakukan penimbangan
-terhadap barang bukti berupa : • 1 (satu) bungkus sabu beserta plastic dengan berat kotor 0,28 gram ; berat plastic 0,2 gram dan berat bersih 0,08 gram;  • 1 (satu) bungkus 23 pil ekstasi beserta plastic dengan berat kotor 9,50 gram ; berat plastic 0,4 gram dan berat bersih 9,10 gram; • TOTAL 1 (satu) bungkus sabu dan 1 (satu) bungkus 23 pil eksatsi dengan berat kotor 9,78 gram ; berat plastic 0,6 gram dan berat bersih 9,18 gram; • Bahwa berdasarkan Berita Acara Pemeriksaan Laboratoris Kriminalistik No Lab : 02316/ NNF/ 2022 pada hari RABU tanggal 06 April 2022, telah dilakukan pemeriksaan barang bukti Nomor : • 04603/ 2021/ NNF berupa 1 kantong plastik berisikan kristal warna putih dengan berat Netto 0,012 gram • 04604/ 2021/ NNF berupa 1 butir tablet warna merah muda dengan berat Netto 0,308 gram • Dengan kesimpulan : • Barang bukti Nomor  : 04603/ 2021/ NNF tersebut benar Kristal Metamfetamina terdaftar dalam Golongan I Nomor urut 16 Lampiran UU RI No 35 Tahun 2009 • Barang bukti Nomor  : 04604/ 2021/ NNF tersebut dalam adalah benar tablet yang mengandung bahan aktif : • MDMA terdaftar dalam Golongan I Nomor Urut 37 Lampiran 1 UU RI No 35 Tahun 2009 - Kaffein mempunyai efek stimulan terhadap susunan saraf pusat, tidak termasuk narkotika dan psikotropika Menimbang, bahwa berdasarkan alat bukti diatas beserta barang bukti yang diajukan dipersidangan didapat fakta hukum sebagai berikut: • Adalah fakta pada hari Jumat tanggal 18 Februari 2022 sekitar pukul 10.30 wita Tim Resnarkoba Polresta Balikpapan melakukan penangkapan terhadap terdakwa M. UWEN Bin (Alm) H. MOH. YASIN dan di temukan :   • 1 (satu) buah dompet kecil warna hitam bergambar kelelawar yang berada di bawah meja, berisi 1 (satu) paket sabu dalam kemasan plastik bening,  • 23 (dua puluh tiga) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik, • 1 (satu) buah timbangan digital warna hitam bertuliskan HWH
-• 1 (satu) bungkus plastik klip bening kosong  • Adalah fakta terdakwa mendaptkan narkotika adalah Pada hari Rabu tanggal 05 Januari 2022 sekitar pukul 11.00 wita, terdakwa menghubungi AZIZ (DPO) berkata “saya mau beli inex” AZIZ menjawab “ada”, dan AZIZ berkata “saya nitip sabu sekalian nanti ada yang nelpon kamu untuk ambil uangnya” terdakwa jawab “iya” dan AZIZ berkata “nanti kamu bayar Rp.10.000.000,- juta aja sisanya gausah dibayar imbalan kamu antarkan sabunya” terdakwa jawab “iya”. Selanjutynya terdakwa dihubungi melalui Private number yang mengarahkan terdakwa untuk mengambil uang di sekitar jalan Siaga di dekat tiang telepon, dan pada saat dilokasi terdakwa melihat kantong plastik berwarna hitam di dekat tiang telepon, yang di dalamnya terdapat uang tunai sebesar Rp. 10.000.000,-, kemudian terdakwa mengambil uang tersebut dan menuju ke Petung Kabupaten Penajam Paser Utara. • Bahwa selanjutnya terdakwa yang sedang berada di Petung mendapat telepon dari Privat Number yang mengarahkan terdakwa untuk mengambil sabu dan pil extacy di tiang listrik di petung di dalam kantong plastik yang pada di buka terdapat  :  • 1 (satu) ball paket sabu seberat 50 (lima puluh) gram  • 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik,  • Dan 1 (satu) ball paket sabu seberat 50 (lima puluh) gram dan 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik tersebut terdakwa ambil dan terdakwa taruh uang sebesar Rp.20.000.000,-. Setelah itu terdakwa kembali ke Balikpapan.  • Adalah fakta pada saat terdakwa di rumahnya di Balikpapan di Jalan Batu Ampar, terdakwa memecah sabu yang terdakwa dapatkan sebelumnya dan terdakwa sisihkan atau pecah dan di potek menjadi 1 (satu) paket sabu sebesar setengah gram. dan terdakwa simpan sabu tersebut di dalam dompet kecil warna hitam bergambar kelelawar, setelah itu sabu tersebut terdakwa bungkus kembali dan terdakwa pergi untuk melemparkannya kembali di Jalan Siaga seperti yang diarahkan oleh AZIZ sebelumnya. Sedangkan 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik yang terdakawa dapatkan sebelumnya terdakwa simpan di dalam dompet kecil warna hitam bergambar kelelawar dan Sekitar pukul 20.00 wita sabu yang telah terdakwa
-hkan atau pecah dan potek sebelumnya terdakw agunakan di rumah kontrakan terdakwa, sisa sabu yang terdakwa gunakan di simpan kembali ke dalam dompet kecil warna hitam bergambar kelelawar. • Adalah fakta penangkapan terhadap terdakwa berdasar Laporan Masyarakat dan terdakwa bukan merupakan Target Operasi • Adalah fakta terhadap extacy ada yang terjual sebanyak 27 (dua puluh tujuh) butir yang terdakwa jual 1 (satu) butir pil extacy seharga  Rp. 400.000,- dan keuntungan yang di dapatkan dari 27 (dua puluh tujuh) butir pil extacy adalah Rp. 10.800.000,-. • Adalah fakta terdakwa dalam hal tanpa hak atau melawan hokum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman beratnya melebihi  (lima) gram tidak ada ijin/ persetujuan pihak berwenang, tidak ada hubungannya dengan kepentingan pengobatan yang hanya bisa digunakan untuk kepentingan pengembangan ilmu pengetahuan dan teknologi selain itu tidak ada hubungannya dengan pekerjaan terdakwa • Adalah fakta terdakwa dalam hal memiliki, menyimpan, menguasai, atau menyediakan narkotika golongan I bukan tanaman jenis pil ecstacy mengandung bahan aktif MDMA (3,4-Metilendioksi) berat bersih 9,10 gram tersebut dilakukan tanpa ijin/persetujuan dari Menteri atas rekomendasi Kepala Badan Pengawas Obat dan Makanan, karena Narkotika golongan I dilarang digunakan untuk kepentingan pengobatan dan hanya bisa digunakan untuk kepentingan pengembangan ilmu pengetahuan dan tekhnologi, yang mana terdakwa tidak mempunyai kapasitas seperti ini • Adalah fakta terdakwa dalam hal memiliki, menyimpan, menguasai, atau menyediakan narkotika golongan I bukan tanaman jenis kristal metamfetamina berat bersih 0,08 gram tersebut dilakukan tanpa ijin/persetujuan dari Menteri atas rekomendasi Kepala Badan Pengawas Obat dan Makanan, karena Narkotika golongan I dilarang digunakan untuk kepentingan pengobatan dan hanya bisa digunakan untuk kepentingan pengembangan ilmu pengetahuan dan tekhnologi, yang mana terdakwa tidak mempunyai kapasitas seperti ini Menimbang, bahwa selanjutnya Majelis Hakim akan mempertimbangkan dakwaan yang telah dikenakan terhadap diri Para terdakwa; Menimbang, bahwa Para terdakwa diajukan ke persidangan oleh Penuntut Umum dengan dakwaan alternatif yakni Pertama Pasal 114 ayat (2) Jo Pasal 132 Ayat (1) UU R.I No. 35 Tahun 2009 tentang Narkotika Atau Kedua
-asal 112 ayat (2) Jo Pasal 132 Ayat (1) UU R.I No. 35 Tahun 2009 tentang Narkotika; Menimbang, bahwa oleh karena Para terdakwa diajukan dipersidangan dengan dakwaan yang berbentuk alternatif, maka Majelis Hakim akan mempertimbangkan dakwaan mana yang dipandang lebih bersesuaian dengan fakta hukum yang terungkap dipersidangan; Menimbang, bahwa berdasarkan pertimbangan tersebut diatas maka Majelis Hakim berpendapat bahwa dakwaan alternatif Pertama yang dipandang lebih bersesuaian dengan fakta – fakta hukum yang terungkap dipersidangan, oleh karena itu Majelis Hakim akan mempertimbangkan dakwaan alternatif Pertama tersebut; Menimbang, bahwa dakwaan Pertama melanggar Pasal 114 ayat (2) Jo Pasal 132 Ayat (1) UU R.I No. 35 Tahun 2009 tentang Narkotika yang mengandung unsur – unsur sebagai berikut:          Menimbang bahwa berdasarkan fakta-fakta yang terungkap dalam persidangan maka sampailah kami kepada pembuktian mengenai unsur-unsur tindak pidana yang didakwakan. Dan oleh karena dakwaan kami susun secara Alternatif Kesatu Pasal 114 ayat (2) Jo. Pasal 132 ayat (1) atau Kedua Pasal 112 ayat (2) Jo. Pasal 132 ayat (1)Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika. Maka kami akan membuktikan dakwaan yang terbukti dipersidangan yaitu Pasal 112 ayat (2) Jo. Pasal 132 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika, adalah dengan unsur-unsur sebagai berikut: 1. Unsur  “ Setiap orang “,               Menimbang bahwa Yang dimaksud dengan “setiap oran ” dalam hukum pidana adalah subjek pelaku dari suatu perbuatan pidana dan orang tersebut adalah orang yang mampu bertanggung jawab serta dapat dipertanggungjawabkan atas perbuatannya secara hukum tanpa ada sesuatu alasan pengecualian hukum berlaku atas dirinya. Dalam hubungan dalam perkara yang sedang disidangkan ini subjek hukumnya mengacu pada manusia sesungguhnya (natuurlijk persoonen) yaitu hal ini dapat kami buktikan dengan fakta-fakta yang terungkap dalam persidangan  yaitu di dalam persidangan telah diperiksa identitas diri terdakwa dan terdakwa mengerti apa isi dari dakwaan dan dapat mengikuti jalannya persidangan, sehingga tidak ada hal-hal yang dapat menghapus pemidanaan. Bahwa dari pengertian uraian diatas dihubungkan dengan fakta yang terungkap di dalam persidangan yaitu dari alat bukti keterangan saksi dibawah sumpah, yang dihubungan antara yang satu dengan yang lain saling bersesuaian, dihubungkan pula alat bukti lainnya yang ada dalam persidangan, bukti surat, petunjuk dan keterangan terdakwa, maka
-terdakwa M. UWEN Bin (Alm) H. MOH. YASIN  sebagai orang atau subyek hukum pelaku tindak pidana yang sehat jasmani dan rohani mempunyai hak dan kewajiban serta kepadanya dapat dipertanggungjawabkan dan dapat dimintakan pertanggung jawaban atas perbuatannya melakukan tindak pidana.  Dengan demikian unsur ini telah terpenuhi dan dapat kami buktikan. 2. Unsur tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman • Bahwa Pasal 7 UURI No.35 tahun 2009, menyebutkan : Narkotika hanya dapat digunakan untuk kepentingan pelayanan kesehatan dan/atau pengembangan ilmu pengetahuan dan teknologi.  • Bahwa dalam pasal ini mensyaratkan Narkotika hanya dapat di miliki, disimpan, di kuasai dengan ijin pihak berwenang  • Sehingga “unsur tanpa hak atau melawan hukum ”disini dimaksudkan terhadap perbuatan atau rangkaian perbuatan terdakwa yang tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman harus ditujukan untuk kepentingan pelayanan kesehatan dan/atau pengembangan ilmu pengetahuan dan teknologi atau setidak-tidaknya seizin dari pihak yang berwenang.            Bahwa berdasarkan fakta-fakta yang terungkap dipersidangan, diperoleh fakta-fakta hukum sebagai berikut : • Adalah fakta pada hari Jumat tanggal 18 Februari 2022 sekitar pukul 10.30 wita Tim Resnarkoba Polresta Balikpapan melakukan penangkapan terhadap terdakwa M. UWEN Bin (Alm) H. MOH. YASIN dan di temukan :  • 1 (satu) buah dompet kecil warna hitam bergambar kelelawar yang berada di bawah meja, berisi 1 (satu) paket sabu dalam kemasan plastik bening,    • 23 (dua puluh tiga) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik, • 1 (satu) buah timbangan digital warna hitam bertuliskan HWH  • 1 (satu) bungkus plastik klip bening kosong  • Adalah fakta terdakwa mendaptkan narkotika adalah Pada hari Rabu tanggal 05 Januari 2022 sekitar pukul 11.00 wita, terdakwa menghubungi AZIZ (DPO) berkata “saya mau beli inex” AZIZ menjawab “ada”, dan AZIZ berkata “saya nitip sabu sekalian nanti ada yang nelpon kamu untuk ambil uangnya” terdakwa jawab “iya” dan AZIZ berkata “nanti kamu bayar
-Rp.10.000.000,- juta aja sisanya gausah dibayar imbalan kamu antarkan sabunya” terdakwa jawab “iya”. Selanjutynya terdakwa dihubungi melalui Private number yang mengarahkan terdakwa untuk mengambil uang di sekitar jalan Siaga di dekat tiang telepon, dan pada saat dilokasi terdakwa melihat kantong plastik berwarna hitam di dekat tiang telepon, yang di dalamnya terdapat uang tunai sebesar Rp.10.000.000,-,kemudian terdakwa mengambil uang tersebut dan menuju ke Petung Kabupaten Penajam Paser Utara. • Bahwa selanjutnya terdakwa yang sedang berada di Petung mendapat telepon dari Privat Number yang mengarahkan terdakwa untuk mengambil sabu dan pil extacy di tiang listrik di petung di dalam kantong plastik yang pada di buka terdapat:  • 1 (satu) ball paket sabu seberat 50 (lima puluh) gram  • 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik,  • Dan 1 (satu) ball paket sabu seberat 50 (lima puluh) gram dan 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik tersebut terdakwa ambil dan terdakwa taruh uang sebesar Rp.20.000.000,-. Setelah itu terdakwa kembali ke Balikpapan.  • Adalah fakta pada saat terdakwa di rumahnya di Balikpapan di Jalan Batu Ampar, terdakwa memecah sabu yang terdakwa dapatkan sebelumnya dan terdakwa sisihkan atau pecah dan di potek menjadi 1 (satu) paket sabu sebesar setengah gram. dan terdakwa simpan sabu tersebut di dalam dompet kecil warna hitam bergambar kelelawar, setelah itu sabu tersebut terdakwa bungkus kembali dan terdakwa pergi untuk melemparkannya kembali di Jalan Siaga seperti yang diarahkan oleh AZIZ sebelumnya. Sedangkan 50 (lima puluh) butir pil extacy warna merah muda berlogo gambar kuda di dalam kemasan plastik yang terdakawa dapatkan sebelumnya terdakwa simpan di dalam dompet kecil warna hitam bergambar kelelawar dan Sekitar pukul 20.00 wita sabu yang telah terdakwa sisihkan atau pecah dan potek sebelumnya terdakw agunakan di rumah kontrakan terdakwa, sisa sabu yang terdakwa gunakan di simpan kembali ke dalam dompet kecil warna hitam bergambar kelelawar. • Adalah fakta penangkapan terhadap terdakwa berdasar Laporan Masyarakat dan terdakwa bukan merupakan Target Operasi • Adalah fakta terhadap extacy ada yang terjual sebanyak 27 (dua puluh tujuh) butir yang terdakwa jual 1 (satu) butir pil extacy seharga  Rp. 400.000,- dan keuntungan yang di dapatkan dari 27 (dua puluh tujuh)
-butir pil extacy adalah Rp. 10.800.000,-. • Adalah fakta terdakwa dalam hal tanpa hak atau melawan hokum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman beratnya melebihi  (lima) gram tidak ada ijin/ persetujuan pihak berwenang, tidak ada hubungannya dengan kepentingan pengobatan yang hanya bisa digunakan untuk kepentingan pengembangan ilmu pengetahuan dan teknologi selain itu tidak ada hubungannya dengan pekerjaan terdakwa • Adalah fakta terdakwa dalam hal memiliki, menyimpan, menguasai, atau menyediakan narkotika golongan I bukan tanaman jenis pil ecstacy mengandung bahan aktif MDMA (3,4-Metilendioksi) berat bersih 9,10 gram tersebut dilakukan tanpa ijin/persetujuan dari Menteri atas rekomendasi Kepala Badan Pengawas Obat dan Makanan, karena Narkotika golongan I dilarang digunakan untuk kepentingan pengobatan dan hanya bisa digunakan untuk kepentingan pengembangan ilmu pengetahuan dan tekhnologi, yang mana terdakwa tidak mempunyai kapasitas seperti ini • Adalah fakta terdakwa dalam hal memiliki, menyimpan, menguasai, atau menyediakan narkotika golongan I bukan tanaman jenis kristal metamfetamina berat bersih 0,08 gram tersebut dilakukan tanpa ijin/persetujuan dari Menteri atas rekomendasi Kepala Badan Pengawas Obat dan Makanan, karena Narkotika golongan I dilarang digunakan untuk kepentingan pengobatan dan hanya bisa digunakan untuk kepentingan pengembangan ilmu pengetahuan dan tekhnologi, yang mana terdakwa tidak mempunyai kapasitas seperti ini          Dengan demikian unsur ini telah terpenuhi dan dapat dibuktikan Menimbang, bahwa oleh karena semua unsur dari Pasal 112 ayat (2) Jo. Pasal 132 ayat (1) UU No 35 Tahun 2009 Tentang Narkotika telah terpenuhi, maka Terdakwa haruslah dinyatakan telah terbukti secara sah dan meyakinkan melakukan tindak pidana sebagaimana didakwakan dalam dakwaan alternatif ke-2 (kedua).;               Menimbang, bahwa berdasarkan uraian-uraian tersebut diatas, maka  terdakwa telah terbukti secara sah dan meyakinkan telah melakukan tindak pidana “permufakatan jahat untuk melakukan tindak pidana Narkotika dan Prosekutor Narkotika untuk melakukan tanpa hak atau melawan hukum memiliki, menyimpan,menguasai atau menyediakan narkotika Golongan I bukan tanaman, Selanjutnya pada diri terdakwa tidak ditemukan alasan pembenar ataupun alasan pemaaf sehingga terdakwa dapat dikenakan pertanggung jawaban pidana.
-Menimbang, bahwa didalam doktrin hukum pidana dan didalam perundang-undangan, dikenal adanya asas hukum yang menyatakan “tiada pidana tanpa kesalahan” (geen straaf zonder schuld); Menimbang, bahwa dari ketentuan diatas diisyaratkan agar supaya orang yang melakukan suatu perbuatan tersebut dapat dipidana dengan hukuman yang diancamkan, pada diri Terdakwa harus ada pertanggung jawaban pidana (criminal responsibility); Menimbang, bahwa selama pemeriksaan di persidangan Majelis Hakim menilai Terdakwa sehat jasmani dan rohani serta waras pikirannya dan dianggap mampu mempertanggungjawabkan perbuatannya dan tidak diperoleh bukti yang dapat dijadikan sebagai alasan pembenar maupun alasan pemaaf sehingga menghilangkan sifat melawan hukum dari perbuatan Terdakwa, oleh karena itu Terdakwa harus mempertanggungjawabkan segala perbuatannya dan harus dijatuhi hukuman yang setimpal dengan perbuatannya; Menimbang, bahwa dalam perkara ini terhadap Terdakwa telah dikenakan penangkapan dan penahanan yang sah, maka masa penangkapan dan penahanan tersebut harus dikurangkan seluruhnya dari pidana yang dijatuhkan;  Menimbang, bahwa oleh karena Terdakwa ditahan dan penahanan terhadap Terdakwa dilandasi alasan yang cukup, maka perlu ditetapkan agar Terdakwa tetap berada dalam tahanan; Menimbang, bahwa Penuntut  mengajukan barang bukti berupa : -   1 (satu) paket sabu dengan berat bruto 0,28 (nol koma dua delapan) gram; - 23 (dua puluh tiga) butir pil ekstasi warna merah muda berlogo gambar kuda di dalam kemasan plastik bening dengan berat bruto 9,28 (sembilan koma dua delapan) gram - 1 (satu) buah timbangan digital warna hitam bertuliskan HWH; - 1 (satu) buah Hp android merk Vivo 1907 beserta simcard Telkomsel AS nomor: 0853-3528-2568 dengan nomor Imei: 868725046127638/868725046127620; - 1 (satu) bungkus plastik klip bening kosong; - 1 (satu) buah dompet kecil warna hitam bergambar kelelawar          Adalah merupakan alat yang telah dipergunakan untuk melakukan kejahatan dan dikhawatirkan akan dipergunakan untuk mengulangi kejahatan, maka perlu ditetapkan agar barang bukti tersebut </t>
-  </si>
-  <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa:  1.  Nama lengkap  : M. Uwen Bin Alm H. Moh. Yasin 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 40/7 Juli 1982 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6. Tempat tinggal  : Jalan Pattimura RT 48 Nomor 125 Kelurahan Batu Ampar Kecamatan Balikpapan Utara 7.  Agama  : Islam 8.  Pekerjaan  : Karyawan Swasta  Terdakwa M. Uwen Bin Alm H. Moh. Yasin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 19 Februari 2022 sampai dengan tanggal 10 Maret 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 11 Maret 2022 sampai dengan tanggal 19 April 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 20 April 2022 sampai dengan tanggal 19 Mei 2022  4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 20 Mei 2022 sampai dengan tanggal 18 Juni 2022  5.  Penuntut Umum sejak tanggal 16 Juni 2022 sampai dengan tanggal 5 Juli 2022  6.  Hakim Pengadilan Negeri sejak tanggal 23 Juni 2022 sampai dengan tanggal 22 Juli 2022           Terdakwa dipersidangan didampingi oleh Sdr. ITA MAR’RUF,S.H.,S.Ag., IDEHAMS.H.,S.Ag dan RAMADHAN,S.H., Penasihat Hukum / Advokat POSBAKUMADIN yang  beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 29 Juni 2022 Nomor 269/Pid.Sus/2022/PN Bpp;   Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan Ketua Pengadilan Negeri Balikpapan Nomor 269/Pid.Sus/2022/PN Bpp tanggal 23 Juni 2022 tentang penunjukan Majelis Hakim;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa ANDI SULALIPU Bin ANDI ANTON, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ”Percobaan atau Permufakatan jahat untuk melakukan tindak pidana Narkotika dan Prekursor Narkotika tanpa hak atau melawan Hukum menanam, memelihara, memiliki, menyimpan, menguasai atau menyediakan Narkotika Golongan I dalam bentuk Tanaman berupa ganja;  2. Menjatuhkan pidana terhadap ANDI SULALIPU Bin ANDI ANTON, dengan pidana penjara selama 6 (enam) Tahun serta, pidana denda sebesar Rp800.000.000,- (delapan ratus juta rupiah), dengan ketentuan jika tidak dibayar akan diganti dengan pidana penjara selama 3 (tiga) bulan;</t>
   </si>
   <si>
     <t>273/Pid.Sus/2022/PN Bpp</t>
@@ -327,7 +288,7 @@
     <t xml:space="preserve"> - 7 (tujuh) paket sabu dengan berat bersih 1,16 gram; - 1 (satu) buah Handphone merk Realme No. Simcard : 0857-5262-9154, IMEI : 865655054152751; - 1 (satu) buah boneka Doraemon; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Rika Wati Binti Baharuddin;   Tempat lahir      : Balikpapan;   Umur/tanggal lahir   : 24 Tahun / 12 Februari 1998;   Jenis Kelamin      : Perempuan;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jl. Sido Mulyo No. 24 RT. 03 Kelurahan Margo Mulyo Kecamatan Balikpapan Barat Kota Balikpapan;   Agama          : Islam;   Pekerjaan        : Ibu Rumah Tangga; Terdakwa Rika Wati Binti Baharuddin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 20 April 2022 sampai dengan tanggal 9 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 10 Mei 2022 sampai dengan tanggal 18 Juni 2022  3.  Penuntut Umum sejak tanggal 16 Juni 2022 sampai dengan tanggal 5 Juli 2022  4.  Hakim Pengadilan Negeri sejak tanggal 27 Juni 2022 sampai dengan tanggal 26 Juli 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 27 Juli 2022 sampai dengan tanggal 24 September 2022  Terdakwa di persidangan didampingi Penasihat Hukumnya : POSBAKUMADIN Balikpapan Penasihat Hukum, berdasarkan Surat Penetapan tanggal 6 Juli 2022; Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 273/Pid.Sus/2022/PN Bpp tanggal 27 Juni 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 273/Pid.Sus/2022/PN Bpp tanggal 27 Juni 2022 tentang penetapan hari sidang;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa RIKA WATI Binti BAHARUDDIN telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Permufakatan jahat tindak pidana Narkotika secara tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman“; 2. Menjatuhkan Pidana oleh karena itu terhadap Terdakwa RIKA WATI Binti BAHARUDDIN dengan pidana penjara selama 5 (lima) tahun dan membayar denda sebesar Rp.800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tidakdibayar diganti dengan pidana penjara selama 3 ( tiga)  bulan; 3. Menetapkan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya; 4. Menetapkan Terdakwa tetap berada dlam tahanan; 5. Menetapkan barang bukti berupa :</t>
   </si>
   <si>
     <t>274/Pid.Sus/2022/PN Bpp</t>
@@ -350,7 +311,7 @@
 RAHUL PRATAMA lalu melakukan penggeledahan dan ditemukan 1 (satu) paket sabu dalam kemasan plastik bening di dalam 1 (satu) buah kotak Rokok Sampoerna Mild warna merah di dalam kantong celana bagian depan kanan yang Terdakwa RAHUL PRATAMA gunakan dan 1 (satu) buah HP merk Samsung Galaxy A02 warna hitam dengan No. Simcard: 0877-8316-9291 dan No. IMEI: 352166476577435 yang Terdakwa genggam menggunakan tangan kiri dan 1 (satu) buah ATM bank BCA kemudian ke kosan Terdakwa ditemukan 1 (satu) bundle plastic klip kosong dan 1 (satu) buah sendokat terbuat dari sedotan warna hitam Kemudian dari penemuan barang bukti tersebut Terdakwa dan Terdakwa RAHUL PRATAMA beserta barang bukti yang ditemukan di bawa ke Sat. Resnarkoba Polresta Balikpapan untuk di proses lebih lanjut; − Bahwa Terdakwa menerangkan hubungan Terdakwa dengan Terdakwa RAHUL PRATAMA dan saksi RIKA WATI hanyalah sebatas teman dan baru kenal kurang lebih 3 (tiga) bulan; − Bahwa Terdakwa menerangkan hubungan Terdakwa dengan Sdri. Dewi Juniarti (Dpo) pacar kakak kandung Terdakwa Sdr. Muhammad Putra Sulaiman Al</t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Para Terdakwa : Terdakwa 1: Nama lengkap  : Adiyta Reza Saputra Bin Sulaiman Tempat lahir  : Balikpapan Umur/Tanggal lahir  : 20/23 Juli 2002 Jenis kelamin  : Laki-laki Kebangsaan  : Indonesia; \Tempat tinggal  : Jl. Sepaku Laut Rt.01No.03 Kel.Marga Sari Kecamatan Balikapapan Barat Kota Balikpapan Agama  :  Pekerjaan  : Tidak bekerja Terdakwa Adiyta Reza Saputra Bin Sulaiman ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 20 April 2022 sampai dengan tanggal 9 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 10 Mei 2022 sampai dengan tanggal 18 Juni 2022  3.  Penuntut Umum sejak tanggal 16 Juni 2022 sampai dengan tanggal 5 Juli 2022  4.  Hakim Pengadilan Negeri sejak tanggal 27 Juni 2022 sampai dengan tanggal 26 Juli 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 27 Juli 2022 sampai dengan tanggal 24 September 2022  Terdakwa 2: Nama lengkap  : Rahul Pratama Bin Jufri Tempat lahir  : Balikpapan Umur/Tanggal lahir  : 22/11 Agustus 2000 Jenis kelamin  : Laki-laki Kebangsaan  : Indonesia ;  Tempat tinggal  : Jl. Jend.Sudirman Rt.04 No.- Kel. Klandasan Ulu      Kec.Balikpapan Tengah Kota Balikpapan Agama  :</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa I. ADITYA REZA SAPUTRA Bin SAID SULAIMAN, dan Terdakwa II. RAHUL PRATAMA Bin JUFRI  terbukti secara sah dan meyakinkan bersalah telah melakukan tindak pidana ”Pemufakatan jahat tindak pidana Narkotika secara tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman” ; 2. Menjatuhkan pidana oleh klarena itu terhadap Terdakwa I dan II berupa pidana penjara masing-masing selama 5 (lima) tahun dan denda sebesar Rp.800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar, diganti dengan pidana penjara selama 3 (tiga) bulan; 3. Menetapkan masa penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidan ayang dijatuhkan; 4. Menetapkan Para Terdakwa tetap berada dlam tahanan; 5. Menetapkan barang bukti berupa : − 1 (satu) paket sabu dengan berat bruto 0,46 (nol koma empat enam) gram; − 1 (satu) buah kotak rokok Sampoerna warna merah; − 1 (satu) buah celana panjang warna biru; − 1 (satu) Buah Hp Merk Samsung A02 Warna Hitam Dengan No.Simcard: 0877-8316-9291 Dan No.Imei: 352166476577435; − 1 (satu) buah kartu ATM Bank BCA; − 1 (satu) Bundel Plastik Klip Kosong;</t>
   </si>
   <si>
     <t>284/Pid.Sus/2022/PN Bpp</t>
@@ -359,7 +320,7 @@
     <t xml:space="preserve">- 1 (satu) unit HP merk Realme warna abu-abu. - 1 (satu) unit Handy Talke (HT) warna Hitam. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Susilowati als Susi als Wati Binti Alm Basuni 2.  Tempat lahir  : Penajam 3.  Umur/Tanggal lahir  : 45/5 Maret 1977 4.  Jenis kelamin  : Perempuan 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : JL.Telindung Rt.86 Kel. Muara Rapak Kec. Balikpapan Barat Kota Balikpapan Provinsi Kaltim. 7.  Agama  : Islam 8.  Pekerjaan  : Mengurus rumah tangga  Terdakwa Susilowati als Susi als Wati Binti Alm Basuni ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 6 Maret 2022 sampai dengan tanggal 25 Maret 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 26 Maret 2022 sampai dengan tanggal 4 Mei 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 5 Mei 2022 sampai dengan tanggal 3 Juni 2022  4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 4 Juni 2022 sampai dengan tanggal 3 Juli 2022  5.  Penuntut Umum sejak tanggal 20 Juni 2022 sampai dengan tanggal 9 Juli 2022  6.  Hakim Pengadilan Negeri sejak tanggal 30 Juni 2022 sampai dengan tanggal 29 Juli 2022  7.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 30 Juli 2022 sampai dengan tanggal 27 September 2022   Terdakwa didampingi oleh  Penasehat Hukum dari Posbakumadin berdasarkan Penetapan  Hakim Ketua Nomor : 284/Pid.Sus/2022/PN.Bpp tanggal 02 Agustus 2022  ;               Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa  SusiowatiAls Wati Binti (Alm) Basuni terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “  Percobaan atau permufakatan jahat untukmelakukan tindak pidaa Narkotika dan Prekusor Narkotika tanpa hak atau melawan hukum menjadiperantara dalam jual beli  Narkotika Golongan I  ” ; 2. Menjatuhkan pidana Terdakwa oleh karena itu dengan pidana penjara  masing selama “ 7 (Tujuh) Tahun dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah), dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama “   4  (Empat) Bulan” ;  3. Menetapkan masa penangkapan dan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;                                                          4. Menetapkan  Terdakwa tetap ditahan ;                                                          5. Menetapkan barang bukti berupa : -   1 (satu) Unit HP merk Realme warna abu-abu ; -   1 (satu) unit Handy Talke (HT) warna Hitam ;           Dirampas untuk dimusnahkan   6. Membebankan kepada  Terdakwa membayar biaya perkara sebesar  Rp.5.000,- (lima ribu rupiah) ;  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Selasa, tanggal 30 Agustus 2022, oleh kami, Ari Siswanto, S.H., M.H., sebagai Hakim Ketua , Lila Sari, S.H., M.H. , Annender Carnova, S.H., M.Hum. masing-masing sebagai Hakim Anggota, yang diucapkan   dalam   sidang  terbuka  untuk  umum pada hari dan  tanggal tersebut</t>
   </si>
   <si>
     <t>285/Pid.Sus/2022/PN Bpp</t>
@@ -368,7 +329,7 @@
     <t xml:space="preserve">➢ 1 (satu) unit Hp merk Redmi warna hitam </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Rudi Cahyadi Bin Muhdar 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 29/9 September 1993 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan 21 Januari Gang Batu Arang  Rt. 03 Kelurahan Kampung Baru Tengah Kecamatan Balikpapan Barat, Kota Balikpapan Provinsi Kaliamantan Timur 7.  Agama  : Islam 8.  Pekerjaan  : Swasta Terdakwa Rudi Cahyadi Bin Muhdar ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 5 Maret 2022 sampai dengan tanggal 24 Maret 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 25 Maret 2022 sampai dengan tanggal 3 Mei 2022   3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 4 Mei 2022 sampai dengan tanggal 2 Juni 2022   4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 3 Juni 2022 sampai dengan tanggal 2 Juli 2022   5.  Penuntut Umum sejak tanggal 20 Juni 2022 sampai dengan tanggal 9 Juli 2022   6.  Hakim Pengadilan Negeri sejak tanggal 30 Juni 2022 sampai dengan tanggal 29 Juli 2022   7.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 30 Juli 2022 sampai dengan tanggal 27 September 2022  Terdakwa didampingi oleh pensehat Hukum dari POSBAKUMADIN berdasarkan Penetapan Nomor : 285/Pid.Sus/2022/PN.Bpp  tanggal 05 Juli 2022 ;    Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 285/Pid.Sus/2022/PN Bpp tanggal 30 Juni 2022 tentang penunjukan Majelis Hakim;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa  Rudi cahyadi Bin Muhdar  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “  Permufakatan  jahat tanpa hak atau melawan hokum menawarkan untuk dijual, menjual,menerima,menjadi perantara dalam jualbeli, atau menyerahkan Narkotika Golongan I bukan tanaman beratnya lebih 5 (lima) Gram  ” ; 2. Menjatuhkan pidana Terdakwa oleh karena itu dengan pidana penjara  masing selama “ 7 (Tujuh) Tahun dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah), dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama “   3  (Tiga) Bulan”  3. Menetapkan masa penangkapan dan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;                                                          4. Menetapkan  Terdakwa tetap ditahan ;                                                          5. Menetapkan barang bukti berupa : -   1 (satu) Unit HP merk Redmi warna hitam ;            Dirampas untuk dimusnahkan ;</t>
   </si>
   <si>
     <t>286/Pid.Sus/2022/PN Bpp</t>
@@ -377,7 +338,7 @@
     <t xml:space="preserve">- 2 (dua) paket sabu dalam kemasan plastik bening dengan berat keseluruhan 9,10 gram brutto dengan rincian :  Paket 1 (satu) dengan berat brutto 4,06 (empat koma nol enam) gram.  Paket 2 (dua) dengan berat brutto 5,04 (lima koma nol empat) gram.  atau berat netto 7,51 gram  - 1 (satu) unit HP merk VIVO warna Hijau  </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Ruslan Alias Jidat Bin Alm Abdullah 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 37/7 Juni 1985 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Sepakat 3 Rt. 10 No. 42 Kelurahan Kampung Baru Tengah Kecamatan Balikpapan Barat, Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Tidak bekerja Terdakwa Ruslan Alias Jidat Bin Alm Abdullah ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 5 Maret 2022 sampai dengan tanggal 24 Maret 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 25 Maret 2022 sampai dengan tanggal 3 Mei 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 4 Mei 2022 sampai dengan tanggal 2 Juni 2022  4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 3 Juni 2022 sampai dengan tanggal 2 Juli 2022  5.  Penuntut Umum sejak tanggal 20 Juni 2022 sampai dengan tanggal 9 Juli 2022  6.  Hakim Pengadilan Negeri sejak tanggal 30 Juni 2022 sampai dengan tanggal 29 Juli 2022  7.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 30 Juli 2022 sampai dengan tanggal 27 September 2022   Terdakwa didampingi oleh  Penasehat Hukum dari POSBAKUMADIN  berdasarkan Penetapan Nomor : 286/Pid.Sus/2022/PN.Bpp, tanggal 05 Juli 2022  ;    Pengadilan Negeri tersebut; Setelah membaca:             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa  Ruslan Alias Jidat Bin (Alm) Abdullah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “  Permufakatan jahat  tanpa hak atau melawan hokum,menawarkan untuk dijual,menjual,menerima,menjadiperantara dalam jual beli, atau menyerahkan Narkotika Golongan I bukakan tanaman beratnya lebih 5 (lima) Gram   ” ; 2. Menjatuhkan pidana Terdakwa oleh karena itu dengan pidana penjara  masing selama “ 7 (Tujuh) Tahun dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah), dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama “  3  (Tiga) Bulan” ; 3. Menetapkan masa penangkapan dan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;                                                          4. Menetapkan  Terdakwa tetap ditahan ;                                                          5 Menetapkan barang bukti berupa : - 2 (dua) paket sabu dalam kemasan plastik bening dengan berat keseluruhan 9,10 gram brutto dengan rincian :  Paket 1 (satu) dengan berat brutto 4,06 (empat koma nol enam) gram.</t>
   </si>
   <si>
     <t>288/Pid.Sus/2022/PN Bpp</t>
@@ -386,7 +347,7 @@
     <t xml:space="preserve">- 1 (satu) paket sabu dalam kemasan plastik bening dengan berat bersih 0,16 (nol koma enam belas) gram. - 1 (satu) buah celana pendek berwarna Pink. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Galang Oktafiah Bin Hendra 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 24/3 Oktober 1997 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Penggalang Rt. 28 No. 74 Kel. Dami Kec.                                          Balikpapan Kota 7.  Agama  : Islam 8.  Pekerjaan  : Marketing  Terdakwa Galang Oktafiah Bin Hendra ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 25 April 2022 sampai dengan tanggal 14 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 15 Mei 2022 sampai dengan tanggal 23 Juni 2022  3.  Penuntut Umum sejak tanggal 22 Juni 2022 sampai dengan tanggal 11 Juli 2022  4.  Hakim Pengadilan Negeri sejak tanggal 30 Juni 2022 sampai dengan tanggal 29 Juli 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 30 Juli 2022 sampai dengan tanggal 27 September 2022   Terdakwa dipersidangan didampingi oleh ITA MA’RUF S, Ag, SH.MH.  Yaitu LEMBAGA BANTUAN HUKUM (LBH) POSBAKUM  yang beralamat  kantor di  Pondok  Karya Agung Blok BAA No. 48 RT. 13 Kel. Sungai Nangka, Kec. Balikpapan Selatan, berdasarkan penunjukan/penetapan Majelis Hakim Nomor : 288/Pid.Sus/2022/ PN.BPP tanggal 13 Juli 2022;               Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa  GALANG OKTAFIAH bin HENDRA tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman” ;</t>
   </si>
   <si>
     <t>289/Pid.Sus/2022/PN Bpp</t>
@@ -395,7 +356,7 @@
     <t xml:space="preserve">- 1 (satu) paket Narkotika jenis sabu-sabu dengan berat kotor 0,32 (nol koma tiga dua) gram dan berat bersih 0,12 (nol koma dua belas) gram; - 1 (satu) buah celana merk EXCES warna cream dengan corak loreng; - 1 (satu Handphone merk Samsung Galaxy Duos warna putih dengan nomor imei 1 : 35877106372 3492/01 dan nomor imei 2: 358772063723490/01; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : NUR APRIANSYAH ADI SAPUTRA Bin SATRIA; 2.  Tempat lahir  : Balikpapan; 3.  Umur/Tanggal lahir  : 23 Tahun / 09 April 1999; 4.  Jenis kelamin  : Laki-laki; 5.  Kebangsaan  : Indonesia; 6.  Tempat tinggal  : Jalan Letjen Suprapto Nomor 02 Rt. 001 Kelurahan        Margasari Kecamatan Balikpapan Barat Kota        Balikpapan; 7.  Agama  : Islam; 8.  Pekerjaan  : Swasta;  Terdakwa Nur Apriansyah Adi Saputra Bin Satria ditahan dalam tahanan Tahanan Rutan oleh:  1.  Penyidik sejak tanggal 20 April 2022 sampai dengan tanggal 09 Mei 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 10 Mei 2022 sampai dengan tanggal 18 Juni 2022;   3.  Penuntut sejak tanggal 16 Juni 2022 sampai dengan tanggal 05 Juli 2022;   4.  Hakim PN sejak tanggal 30 Juni 2022 sampai dengan tanggal 29 Juli 2022;   6.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 30 Juli 2022 sampai dengan tanggal 27 September 2022;    Terdakwa menghadap persidangan didampingi Penasihat Hukum YOHANES MAROKO, S.H. Advokat &amp; Pengacara dari Lembaga Bantuan Hukum (LBH) SIKAP POSBAKUM pada Pengadilan Negeri Balikpapan;     Pengadilan Negeri tersebut; Setelah membaca:</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa NUR APRIANSYAH ADI SAPUTRA Bin SATRIA terbukti secara sah dan meyakinkan telah bersalah melakkukan tindak pidana “Tanpa hak atau melawan hukum memiliki Narkotika Golongan I bukan tanaman”;  2. Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan 6 (enam) bulan dan denda sebesar Rp.800.000.000,00 (delapan ratus juta rupiah) dangan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; 3. Menetapkan masa penangakapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa : - 1 (satu) paket Narkotika jenis sabu-sabu dengan berat kotor 0,32 (nol koma tiga dua) gram dan berat bersih 0,12 (nol koma dua belas) gram; - 1 (satu) buah celana merk EXCES warna cream dengan corak loreng; - 1 (satu Handphone merk Samsung Galaxy Duos warna putih dengan nomor imei 1 : 35877106372 3492/01 dan nomor imei 2: 358772063723490/01; Dirampas untuk dimusnahkan; - 1 (satu) unit sepeda motor jenis Honda Genio warna hitam dengan Nopol KT 6954 HH dengan Nomor mesin JM61E1187531 dan Nomor rangka MH1JM611MK187689; Dikembalikan kepada yang berhak melalui terdakwa; 6. Membebankan biaya perkara kepada Terdakwa sebesar Rp.5.000,00 (lima ribu rupiah);  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Rabu, tanggal 24 Agustus 2022, oleh kami, IMRON ROSYADI, S.H., sebagai Hakim Ketua, SURYA LAKSEMANA, S.H., dan ENNIERLIA ARIENTOWATY, S.H., masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari Senin, tanggal 29 Agustus 2022 oleh IMRON ROSYADI, S.H., sebagai Hakim Ketua, ANNENDER CARNOVA, S.H., M.Hum., dan ENNIERLIA ARIENTOWATY, S.H, dibantu oleh RIZA ACHMADSYAH, S.H., Panitera Pengganti pada Pengadilan</t>
   </si>
   <si>
     <t>29/Pid.Sus/2022/PN Bpp</t>
@@ -404,7 +365,7 @@
     <t xml:space="preserve"> ➢ 10 (sepuluh) paket sabu dalam kemasan plastik bening dengan berat brutto 3,39 (tiga koma tiga sembilan) gram; ➢ 1 (satu) buah HP merk ASUS warna putih; ➢ 1 (satu) buah timbangan digital warna hitam; ➢ 2 (dua) buah sendokan bening yang terbuat dari sedotan; ➢ 1 (satu) buah kaleng warna biru yang bertuliskan “MONDE”; ➢ 1 (satu) buah plastik klip bening kosong. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Muhammad Fadlan Bin Hafni 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 25/10 Januari 1997 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan  Selok  Api  Darat Rt. 009 Kel. Salok Api Barat                                               Kec. Samboja. 7.  Agama  : Islam 8.  Pekerjaan  : Wiraswasta Terdakwa Muhammad Fadlan Bin Hafni ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 17 September 2021 sampai dengan tanggal 6 Oktober 2021  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 7 Oktober 2021 sampai dengan tanggal 15 November 2021   3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 16 November 2021 sampai dengan tanggal 15 Desember 2021  4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 16 Desember 2021 sampai dengan tanggal 14 Januari 2022   5.  Penuntut Umum sejak tanggal 13 Januari 2022 sampai dengan tanggal 1 Februari 2022 :  6.  Hakim Pengadilan Negeri sejak tanggal 25 Januari 2022 sampai dengan tanggal 23 Februari 2022   7.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 24 Februari 2022 sampai dengan tanggal 24 April 2022   8.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Tinggi  sejak tanggal 25 April 2022 sampai dengan tanggal 24 Mei 2022                  Terdakwa didampingi oleh  Penasehat Hukumnya i;    Pengadilan Negeri tersebut; Setelah membaca:              Pid.I.A.3</t>
+    <t xml:space="preserve">  1. Menyatakan Terdakwa  MUHAMMAD FADLAN Bin HAFNI terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana  “  Percobaan atau Permufakatan Jahat untuk melakukan tindak pidana tanpa hak menawarkan untuk dijual, membeli dan menjadi perantara dalam jual beli Narkotika Golongan  I bukan tanaman   “ ; 2. Menjatuhkan pidana terhadap Terdakwa  tersebut oleh karena itu dengan pidana penjara selama   “   6  (Enam) Tahun dan Denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah), dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama “  1  (Satu) Bulan  “                                                                  3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;    4. Menetapkan agar Terdakwa tetap berada dalam ditahan ;                                                              5. Menetapkan barang bukti berupa : - 10 (sepuluh) paket sabu dalam kemasan plastik bening dengan berat brutto 3,39 (tiga koma tiga sembilan) gram; - 1 (satu) buah HP merk ASUS warna putih; - 1 (satu) buah timbangan digital warna hitam; - 2 (dua) buah sendokan bening yang terbuat dari sedotan; - 1 (satu) buah kaleng warna biru yang bertuliskan “MONDE”; - 1 (satu) buah plastik klip bening kosong. Dirampas untuk dimusnahkan ;                                                     6. Membebankan  biaya perkara  kepada Terdakwa sebesar Rp. 5.000,- (Lima ribu rupiah) ;  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari  Senin, tanggal 18 April 2022 , oleh kami, Sutarmo, S.H., M.Hum., sebagai Hakim Ketua , Arum Kusuma Dewi, S.H., M.H. , Rusdhiana Andayani, S.H..MH. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari dan  tanggal  itu  juga  oleh  Hakim  Ketua  dengan  didampingi  para  Hakim   Anggota</t>
   </si>
   <si>
     <t>302/Pid.Sus/2022/PN Bpp</t>
@@ -413,7 +374,7 @@
     <t xml:space="preserve">- 1 (satu) paket plastik klip bening berisi narkotika jenis sabu berat netto 0,09 (nol koma nol sembilan) gram. - 1 (satu) buah jaket hoodie warna hitam putih. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Satrio Alias Tio Bin Sunarto; 2.  Tempat lahir  : Balikpapan; 3.  Umur/Tanggal lahir  : 19 Tahun / 14 Juni 2003; 4.  Jenis kelamin  : Laki-laki; 5.  Kebangsaan  : Indonesia; 6. Tempat tinggal           : Jalan Projakal Km.5,5 Kel. Graha Indah Kecamatan  Balikpapan Utara Kota Balikpapan; 7.  Agama  : Islam; 8.  Pekerjaan  : Tidak bekerja;  Terdakwa Satrio Alias Tio Bin Sunarto ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 6 April 2022 sampai dengan tanggal 25 April 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 26 April 2022 sampai dengan tanggal 4 Juni 2022;  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 5 Juni 2022 sampai dengan tanggal 4 Juli 2022;  4.  Penuntut Umum sejak tanggal 27 Juni 2022 sampai dengan tanggal 16 Juli 2022;  5.  Hakim Pengadilan Negeri sejak tanggal 7 Juli 2022 sampai dengan tanggal 5 Agustus 2022;  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 6 Agustus 2022 sampai dengan tanggal 4 Oktober 2022;   Terdakwa dipersidangan didampingi oleh Sdri. ITA MA’RUF, SH., S.Ag., Advokat/Penasihat Hukum dari “POSBAKUMADIN” yang tergabung dalam Posbakum Pengadilan Negeri Balikpapan, yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 13 Juli 2022 Nomor 302/Pid.Sus/2022/PN Bpp;    PENGADILAN NEGERI tersebut;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa SATRIO Alias TIO Bin SUNARTO, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa Hak atau Melawan Hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana terhadap Terdakwa dengan pidana penjara selama 4 (empat) Tahun dan 6 (enam) Bulan dan denda sebesar Rp.800.000.000,- (Delapan Ratus Juta Rupiah), dengan ketentuan apabila denda tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) Bulan;  3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti dalam perkara ini berupa :  - 1 (satu) paket plastik klip bening berisi narkotika jenis sabu berat netto 0,09 (nol koma nol sembilan) gram; - 1 (satu) buah jaket hoodie warna hitam putih; Dirampas untuk dimusnahkan; 6. Membebankan kepada Terdakwa untuk membayar biaya perkara sebesar Rp.5.000,00 (lima ribu rupiah);</t>
   </si>
   <si>
     <t>304/Pid.Sus/2022/PN Bpp</t>
@@ -434,7 +395,7 @@
 Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari yang dijatuhkan ; 3. Menetapkan Terdakwa tetap berada dalam tahanan ; 4. Menetapkan barang bukti berupa :    -   1 (satu) paket sabu dalam kemasan plastik bening dengan berat bruto 0,37 (nol koma tiga tujuh) gram berat bersihnya 0,17 (nol koma tujuh belas) gram;       </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1. Nama lengkap         :    Yusuf Bin Murtada 2. Tempat lahir       : Balikpapan 3. Umur/Tgl. Lahir       : 38 tahun / 11 Nopember 1983 4. Jenis kelamin       : Laki –laki 5. Kebangsaan       : Indonesia  6. Tempat tinggal       : Jalan Sultan Hasanuddin RT. 37. No. 08. Kel. Baru                                      Ilir Kecamatan Balikpapan Barat Kota Balikpapan 7. A g a m a       : Islam 8. Pekerjaan       : Buruh   Terdakwa Yusuf Bin Murtada ditahan dalam Tahanan Rutan oleh:  1. Penyidik sejak tanggal 05 Mei 2022 sampai dengan tanggal 24 Mei 2022; 2. Penyidik Perpanjangan oleh PU sejak tanggal 25 Mei 2022 sampai dengan tanggal 03 Juli 2022; 3. Penuntut Umum sejak tanggal 30 Juni 2022 sampai dengan tanggal 19 Juli 2022; 4. Hakim Pengadilan Negeri Balikpapan sejak tanggal 07 Juli 2022 sampai dengan tanggal  05 Agustus 2022; 5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 06 Agustus 2022 sampai dengan tanggal 04 Oktober 2022   Terdakwa menghadap didampingi ITA MA’RUF, S. Ag, S.H dan MUHAMMAD RAMADHAN, S.H, dari Posbakumadin Balikpapan, berdasarkan surat penetapan Majelis Hakim No. 304/Pid.Sus/2022/PN.Bpp tanggal 13 Juli 2022;     Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan Ketua Pengadilan Negeri Balikpapan Nomor 304/Pid.Sus/2022/PN Bpp tanggal 07 Juli 2022 tentang penunjukan Majelis Hakim;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan terdakwa YUSUF Bin MURTADA, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Memiliki, menyimpan, menguasai Narkotika Golongan I bukan tanaman”; 1. Menjatuhkan pidana kepada terdakwa oleh karena itu dengan pidana penjara selama  6 (enam) tahun denda sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila tidak dibayar akan diganti dengan pidana penjara selama  3 (tiga) bulan;</t>
   </si>
   <si>
     <t>309/Pid.Sus/2022/PN Bpp</t>
@@ -443,7 +404,7 @@
     <t xml:space="preserve">• 1 (satu) buah timbangan warna silver ; • 1 (satu) unit handphone merek Vivo warna merah hitam nomor sim card 081346738676. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Annursyah Tawaf Makmur Sentosa Alias Makmur                                          Bin Anpuasa 2.  Tempat lahir  : Maridan 3.  Umur/Tanggal lahir  : 28 Tahun/19 Mei 1994 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Transad Gg. Perjuangan Rt. 50 Blok T Nomor                                          16 Kelurahan Sepinggan Kecamatan Balikpapan                                           Selatan Kota Balikpapan Kalimantan Timur 7.  Agama  : Islam 8.  Pekerjaan  : Belum bekerja  Terdakwa Annursyah Tawaf Makmur Sentosa Alias Makmur Bin Anpuasa ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 26 Maret 2022 sampai dengan tanggal 14 April 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 15 April 2022 sampai dengan tanggal 24 Mei 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 25 Mei 2022 sampai dengan tanggal 23 Juni 2022  4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 24 Juni 2022 sampai dengan tanggal 23 Juli 2022  5.  Penuntut Umum sejak tanggal 27 Juni 2022 sampai dengan tanggal 16 Juli 2022  6.  Hakim Pengadilan Negeri sejak tanggal 8 Juli 2022 sampai dengan tanggal 6 Agustus 2022  7.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 7 Agustus 2022 sampai dengan tanggal 5 Oktober 2022             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Annursyah Tawaf Makmur Sentosa Alias Makmur Bin Anpuasa tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana  “Percobaan  atau permufakatan jahat secara  tanpa hak  atau melawan hukum menerima, menjadi perantara dalam jual beli  Narkotika  Golongan I bukan tanaman“ ; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 8 (delapan) Tahun , dan denda sebesar Rp. 1.000.000.000, (Satu Milyar rupiah) dengan ketentuan apabila denda tersebut  tidak dibayar, maka diganti dengan pidana penjara selama 3 (Tiga) Bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;  4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa: - 1 (satu) buah timbangan warna silver ; - 1 (satu) unit handphone merek Vivo warna merah hitam nomor sim card 081346738676. Dirampas untuk dimusnahkan - 1 (satu) unit sepeda motor merek Shogun warna biru Nopol KT 3488 KK Dikembalikan kepada yang berhak melalui terdakwa 6. Membebankan Terdakwa membayar biaya perkara sebesar Rp 5.000,-  (lima Ribu Rupiah);  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Selasa, tanggal 23 Agustus 2022 oleh kami, Annender Carnova, S.H., M.Hum., sebagai Hakim Ketua , Lila Sari, S.H., M.H. , Ari Siswanto, S.H., M.H. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari dan tanggal itu juga oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu oleh Liza</t>
   </si>
   <si>
     <t>318/Pid.Sus/2022/PN Bpp</t>
@@ -452,7 +413,7 @@
     <t xml:space="preserve">- 1 (Satu) paket narkotika jenis sabu seberat netto 0.1 (nol koma satu) gram  </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  Nama lengkap  :  Sapriadi Alias Sappe Bin Tahir ; Tempat lahir  :  Barru ( Sulawesi Selatan) ; Umur/Tanggal lahir  :  39 Tahun / 1 Juli 1983 ; Jenis kelamin  :  Laki-laki ;  Kebangsaan  :  Indonesia ; Tempat tinggal  :  Jalan Merpati Gunung Bugis Rt. 36 No. 28 Kel Baru Ulu Kec Balikpapan Barat, Kota Balikpapan ; Agama  :  Islam ; Pekerjaan  :  Buruh ;  Terdakwa Sapriadi Alias Sappe Bin Tahir ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 18 Mei 2022 sampai dengan tanggal 6 Juni 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 7 Juni 2022 sampai dengan tanggal 16 Juli 2022;  3.  Penuntut Umum sejak tanggal 4 Juli 2022 sampai dengan tanggal 23 Juli 2022; 4.  Hakim Pengadilan Negeri sejak tanggal 13 Juli 2022 sampai dengan tanggal  11 Agustus 2022;  5. Wakil Ketua Pengadilan Negeri Balikpapan sejak tanggal  12 Agustus 2022 sampai dengan tanggal 10  Oktober 2022 ; Terdakwa di damping oleh Penasihat Hukum Ita Ma’ruf,S.H.,S.Ag., Advokat dari Pos Bantuan Hukum Advokasi Indonesia (Posbakumadin) berkantor di Perumahan Pondok Karya Agung Blok BAA No. 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, berdasarkan Penetapan Majelis Hakim Pengadilan Negeri Balikpapan tanggal 20 Juli  2022, Nomor 318/Pid.Sus/2022/PN Bpp;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Sapriadi Alias Sappe Bin Tahir  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman”;  2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (empat) tahun 6 (enam) bulan dan denda sejumlah Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama                 2 (dua) bulan ; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ;</t>
   </si>
   <si>
     <t>319/Pid.Sus/2022/PN Bpp</t>
@@ -461,7 +422,7 @@
     <t xml:space="preserve">➢ 1 (Satu) paket narkotika jenis sabu seberat netto 0,13 (nol koma tiga belas) gram </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap  : Irwansyah Bin Alm Darmansyah ; Tempat lahir  : Balikpapan ; Umur/Tanggal lahir  : 39 Tahun / 28 Januari 1983 ; Jenis kelamin  : Laki-laki ; Kebangsaan  : Indonesia ; Tempat tinggal  : Jalan Swadaya RT. 32 No. 60 Kel. Mekar Sari Kec. Balikpapan Tengah, Kota Balikpapan ; Agama  : Islam ; Pekerjaan  : Buruh ; Terdakwa  Irwansyah Bin Alm Darmansyah  ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 13 Mei 2022 sampai dengan tanggal 1 Juni 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 2 Juni 2022 sampai dengan tanggal 11 Juli 2022;  3.  Penuntut Umum sejak tanggal 4 Juli 2022 sampai dengan tanggal 23 Juli 2022; 4.  Hakim Pengadilan Negeri sejak tanggal 13 Juli 2022 sampai dengan tanggal   11 Agustus 2022;   5. Wakil Ketua Pengadilan Negeri Balikpapan sejak tanggal  12 Agustus 2022 sampai dengan tanggal 10  Oktober 2022 ; Terdakwa di damping oleh Penasihat Hukum Ita Ma’ruf,S.H.,S.Ag., Advokat dari Pos Bantuan Hukum Advokasi Indonesia (Posbakumadin) berkantor di Perumahan Pondok Karya Agung Blok BAA No. 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, berdasarkan Penetapan Majelis Hakim Pengadilan Negeri Balikpapan tanggal 20 Juli  2022, Nomor 319/Pid.Sus/2022/PN Bpp; Pengadilan Negeri tersebut;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa IRWANSYAH Bin (Alm) DARMANSYAH  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “tanpa hak atau melawan hukum memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman”;</t>
   </si>
   <si>
     <t>321/Pid.Sus/2022/PN Bpp</t>
@@ -470,7 +431,7 @@
     <t xml:space="preserve">− 2 (dua) paket sabu dengan berat bruto 0,84 (nol koma delapan empat) gram; − 1 (satu) buah celana pendek warna abu-abu. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Muskain Bin Alm La Tepu;   Tempat lahir      : Barru;   Umur/tanggal lahir   : 50 Tahun / 09 Januari 1972;   Jenis Kelamin      : Laki-laki;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jalan Sultan Hasanuddin No. 34 RT. 35 Kelurahan Baru Ulu, Kecamatan Balikpapan Barat, Kota Balikpapan;   Agama          : Islam;   Pekerjaan        : Karyawan Swasta; Terdakwa Muskain Bin Alm La Tepu ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 17 Mei 2022 sampai dengan tanggal 5 Juni 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 6 Juni 2022 sampai dengan tanggal 15 Juli 2022  3.  Penuntut Umum sejak tanggal 7 Juli 2022 sampai dengan tanggal 26 Juli 2022  4.  Hakim Pengadilan Negeri sejak tanggal 13 Juli 2022 sampai dengan tanggal 11 Agustus 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 12 Agustus 2022 sampai dengan tanggal 10 Oktober 2022  Terdakwa  di persidangan didampingi Penasihat Hukumnya : POSBAKUMADIN beralamat kantor di Perumahan Pondok Kayu Agung Blok BAA Nomor 48 RT 13 Kelurahan Sungai Nangka Kota Balikpapan , berdasarkan Surat Penetapan Majelis Hakim tanggal 28 Juli 2022,;  Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 321/Pid.Sus/2022/PN Bpp tanggal 13 Juli 2022 tentang penunjukkan Majelis Hakim; - Penetapan Majelis Hakim Nomor 321/Pid.Sus/2022/PN Bpp tanggal 13 Juli 2022 tentang penetapan hari sidang;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Muskain Bin (Alm) La Tepu telah terbukti secara sah dan meyakinkan bersalah telah melakukan Tindak Pidana “Tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I bukan tanaman” ; 2. Menjatuhkan pidana oleh karena itu terhadap Terdakwa Muskain Bin (Alm) La Tepu dengan pidana penjara selama 5 ( lima ) tahun  dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila tidak dibayar diganti dengan pidana penjara selama 6 ( enam ) bulan;  3. Menetapkan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan tersbeut; 4. Menetapkan Terdakwa tetap berada dlam tahanan; 5. Menetapkan barang bukti berupa : − 2 (dua) paket sabu dengan berat bruto 0,84 (nol koma delapan empat) gram; − 1 (satu) buah celana pendek warna abu-abu. Dirampas untuk dimusnahkan. 6. Menetapkan agar Terdakwa membayar biaya perkara sebesar Rp5.000,- (lima ribu rupiah).  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Rabu tanggal 07 September 2022 oleh kami, Ennierlia Arientowaty, S.H., sebagai Hakim Ketua , Imron Rosyadi, S.H. ,</t>
   </si>
   <si>
     <t>323/Pid.Sus/2022/PN Bpp</t>
@@ -479,7 +440,7 @@
     <t xml:space="preserve"> - 10 (sepuluh) paket sabu dengan berat bruto 15,15 (lima belas koma satu Lima) gram; - 1 (satu) buah dompet kecil warna cokelat; - 1 (satu) buah timbangan digital warna hitam; - 1 (satu) buah HP Oppo A5 warna hitam No. Simcard: 0812-5067-0856, IMEI: 867783043079956;     </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap   : SEPHIA PRAMESTI als ADE Binti MUHAMMAD         FITRI; 2.  Tempat lahir   : Balikpapan; 3.  Umur/Tanggal lahir  : 19 Tahun / 03 September 2002; 4.  Jenis kelamin   : Perempuan; 5.  Kebangsaan   : Indonesia; 6. Tempat tinggal   : Jalan Serobong No. 23 RT. 21 Kelurahan Prapatan    Kecamatan Balikpapan Kota, Kota Balikpapan; 7.  Agama    : Islam; 8.  Pekerjaan    : Tidak bekerja;  Terdakwa Sephia Pramesti als Ade Binti Muhammad Fitri ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 19 Mei 2022 sampai dengan tanggal 07 Juni 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 08 Juni 2022 sampai dengan tanggal 17 Juli 2022;   3.  Penuntut sejak tanggal 07 Juli 2022 sampai dengan tanggal 26 Juli 2022;   4.  Hakim PN sejak tanggal 13 Juli 2022 sampai dengan tanggal 11 Agustus 2022;   5.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 12 Agustus 2022 sampai dengan tanggal 10 Oktober 2022;    Terdakwa dipersidangan didampingi Penasehat Hukum Ramadhan, S.H. dan Ita Ma’ruf, S.Ag., S.H., M.H. Advokat/Penasehat Hukum Pos Bantuan Hukum Advokat Indonesia POSBAKUMADIN beralamat di Perumahan Pondok Karya Agung Blok BAA No. 48, RT. 13, Kelurahan Sungai Nangka, Kota Balikpapan berdasarkan Penetapan Majelis Hakim Nomor 323/Pid.Sus/2022/PN Bpp tanggal 28 Juli 2022;               Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa SEPHIA PRAMESTI als ADE Binti MUHAMMAD FITRI terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa hak menjadi perantara dalam jual beli Narkotika golongan I yang beratnya melebihi 5 (lima) gram”; 2. Menjatuhkan pidana  terhadap  Terdakwa  dengan  pidana  penjara  selama 7 (tujuh) tahun dan denda sebesar Rp.1.000.000.000,- (satu milyar rupiah), dengan ketentuan apabila denda tidak dibayar harus diganti dengan pidana penjara selama 6 (enam) bulan; 3. Menetapkan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti dalam perkara ini berupa :  - 10 (sepuluh) paket sabu dengan berat bruto 15,15 (lima belas koma satu lima) gram; - 1 (satu) buah dompet kecil warna cokelat; - 1 (satu) buah timbangan digital warna hitam;  - 1 (satu) buah HP Oppo A5 warna hitam No. Simcard: 0812-5067-0856, IMEI: 867783043079956.</t>
   </si>
   <si>
     <t>324/Pid.Sus/2022/PN Bpp</t>
@@ -488,7 +449,7 @@
     <t xml:space="preserve">• 1 (satu) paket diduga Narkotika jenis sabu dengan berat total 8,2 (delapan koma dua) gram bruto (plastik 0,8 gram berat netto 7,4 gram) ; • 1 (satu) buah kotak rokok Sampoerna Menthol ; • 1 (satu) unit handphone merk Oppo warna putih hitam. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa: 1.  Nama lengkap  : Ashari Rangkuti Bin Marzuki Alm 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 33/16 Mei 1989 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6. Tempat tinggal          : Jalan Sultan Hasanuddin Gg. Sumber Rt. 2 No. 37 Kelurahan Baru Ilir Kecamatan Balikpapan Barat Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Swasta Terdakwa Ashari Rangkuti Bin Marzuki Alm ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 11 April 2022 sampai dengan tanggal 30 April 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 1 Mei 2022 sampai dengan tanggal 9 Juni 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 10 Juni 2022 sampai dengan tanggal 9 Juli 2022  4.  Penuntut Umum sejak tanggal 30 Juni 2022 sampai dengan tanggal 19 Juli 2022  5.  Hakim Pengadilan Negeri sejak tanggal 13 Juli 2022 sampai dengan tanggal 11 Agustus 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 12 Agustus 2022 sampai dengan tanggal 10 Oktober 2022  Terdakwa didampingi oleh Penasehat Hukum Ita Ma’ruf, S.H., S.Ag. Penasihat dari Pos Bantuan Hukum Advokasi Indonesia (Posbakumadin) berkantor di Perumahan Pondok Karya Agung Blok BAA No. 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, berdasarkan Surat Penetapan tanggal 2 Agustus 2022 Nomor 324/Pid.Sus/2022/PN Bpp; Pengadilan Negeri tersebut; Setelah membaca:             Pid.I.A.3</t>
+    <t xml:space="preserve">  1. Menyatakan Terdakwa Ashari Rangkuti Bin Marzuki Alm terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman beratnya melebihi 5 (lima) gram”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sejumlah Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa :   - 1 (satu) paket diduga Narkotika jenis sabu dengan berat total 8,2 (delapan koma dua) gram bruto (plastik 0,8 gram berat netto 7,4 gram) ;</t>
   </si>
   <si>
     <t>328/Pid.Sus/2022/PN Bpp</t>
@@ -497,7 +458,7 @@
     <t xml:space="preserve"> - 1 (satu) paket sabu-sabu dalam plastik flip warna bening berat bersih 0,12 gram;       </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Dedi Hariyanto Bin Arifin 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 37/4 November 1984 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia  6.  Tempat tinggal  :Jl. Marsma R. Iswahyudi RT. 10 Kelurahan Sepinggan Raya Kecamatan Balikpapan Selatan Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Buruh Harian Lepas   Terdakwa Dedi Hariyanto Bin Arifin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 9 Mei 2022 sampai dengan tanggal 28 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 29 Mei 2022 sampai dengan tanggal 7 Juli 2022  3.  Penuntut Umum sejak tanggal 4 Juli 2022 sampai dengan tanggal 23 Juli 2022  4.  Hakim Pengadilan Negeri sejak tanggal 14 Juli 2022 sampai dengan tanggal 12 Agustus 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 13 Agustus 2022 sampai dengan tanggal 11 Oktober 2022   Terdakwa dipersidangan didampingi oleh Penasihat Hukum Ita Ma’ruf, S.H. dan rekan Advokat/Penasehat Hukum dari POSBAKUMADIN yang tergabung dalam Posbakum Pengadilan Negeri Balikpapan, yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 27 Juli 2022 Nomor 328/Pid.Sus/2022/PN Bpp;    PENGADILAN NEGERI tersebut; Setelah membaca:</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa DEDI HARIYANTO Bin ARIFIN telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Penyalahguna Narkotika Golongan I bagi diri sendiri“; 2. Menjatuhkan pidana terhadap Terdakwa tersebut dengan pidana penjara selama 3 (tiga) tahun; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa: - 1 (satu) paket sabu-sabu dalam plastik flip warna bening berat bersih 0,12 gram; Dirampas untuk dimusnahkan; 6. Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00 (lima ribu rupiah);  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Rabu, tanggal 10 Agustus 2022, oleh kami, Arif Wisaksono, S.H.., sebagai Hakim Ketua, Sutarmo, S.H., M.Hum. , Arum Kusuma Dewi, S.H., M.H. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari dan tanggal itu juga oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu oleh Sitti Aminah, SH. Panitera Pengganti pada Pengadilan Negeri Balikpapan, serta</t>
   </si>
   <si>
     <t>341/Pid.Sus/2022/PN Bpp</t>
@@ -506,7 +467,7 @@
     <t xml:space="preserve">Berdasarkan Penetapan PN Nomor : 515/ Pen. Pid/ 2022/ PN Balikpapan tanggal 23 Maret 2022 : - 1 (satu) Paket sabu-sabu + plastik klip bening dengan berat Netto : 0,09 (Nol Koma Nol Sembilan) Gram; - 1 (satu) Buah Tas Selempang Warna Hitam Merk Volcom </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Muhammad Reynaldy Bin Muhammad Ali;   Tempat lahir      : Balikpapan;   Umur/tanggal lahir   : 21 Tahun / 11 Februari 2001;   Jenis Kelamin      : Laki-laki;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jalan 21 Januari RT 009 Nomor 86 Kelurahan Baru Tengah Kecamatan Balikpapan Barat;   Agama          : Islam;   Pekerjaan        : Belum Bekerja; Terdakwa Muhammad Reynaldy Bin Muhammad Ali ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 8 Mei 2022 sampai dengan tanggal 27 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 28 Mei 2022 sampai dengan tanggal 6 Juli 2022  3.  Penuntut Umum sejak tanggal 6 Juli 2022 sampai dengan tanggal 25 Juli 2022  4.  Hakim Pengadilan Negeri sejak tanggal 18 Juli 2022 sampai dengan tanggal 16 Agustus 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 17 Agustus 2022 sampai dengan tanggal 15 Oktober 2022  Terdakwa di persidangan didampingi Penasihat Hukumnya yaitu : POSBAKUMADIN beralamat kantor di Perumahan Pondok Kayu Agung Blok BAA Nomor 48 RT 13 Kelurahan Sungai Nangka Kota Balikpapan  tanggal 27 Juli 2022  berdasarkan Penetapan penunkjukkan Majelis Hakim tertanggal 27 Juli 2022’;  Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 341/Pid.Sus/2022/PN Bpp tanggal 18 Juli 2022 tentang penunjukan Majelis Hakim;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa MUHAMMAD REYNALDY bin MUHAMMAD ALI terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana  “ penyalah guna Narkotika Golongan I bukan tanaman” 2. Menjatuhkan pidana oleh kaena terhadap Terdakwa MUHAMMAD REYNALDY bin MUHAMMAD ALI dengan pidana penjara selama 2 (dua) tahun ; 3. Menetapkan masa penahanan yang telah dijalani Terdakwa dikurangkan sleuruhnya dari pidana yang telah dijatuhkan tersbeut; 4. Menetapkan terdsakwa tetap berada dlam tahanan; 5. Menetapkan barang bukti berupa : − 1 (satu) Paket sabu-sabu + plastik klip bening dengan berat Netto : 0,09 (Nol Koma Nol Sembilan) Gram; − 1 (satu) Buah Tas Selempang Warna Hitam Merk Volcom</t>
   </si>
   <si>
     <t>344/Pid.Sus/2022/PN Bpp</t>
@@ -515,7 +476,7 @@
     <t xml:space="preserve"> - 2 (dua) paket sabu dalam kemasan plastik bening dengan berat bruto 11,98 (sebelas koma Sembilan delapan) gram; - 3 (tiga) buah timbangan digital; - 1 (satu) bandel plastik klip bening kosong; - 1 (satu) tas selempang warna coklat bertuliskan PEDRO; - 1 (satu) buah Hp merk Samsung A50 warna putih dengan simcard No. 081255224765. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Syamsul Arifin Bin Alm Muhamad Jalalludin 2.  Tempat lahir  : MADURA 3.  Umur/Tanggal lahir  : 31/19 Oktober 1990 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Musi No. 56A Rt. 53 Kelurahan Gunung                                          Bahagia Kecamatan Balikpapan Selatan, Kota                                          Balikpapan. 7.  Agama  : Islam 8.  Pekerjaan  : Karyawan Swasta  Terdakwa Syamsul Arifin Bin Alm Muhamad Jalalludin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 12 Mei 2022 sampai dengan tanggal 31 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 1 Juni 2022 sampai dengan tanggal 10 Juli 2022  3.  Penuntut Umum sejak tanggal 7 Juli 2022 sampai dengan tanggal 26 Juli 2022  4.  Hakim Pengadilan Negeri sejak tanggal 19 Juli 2022 sampai dengan tanggal 17 Agustus 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 18 Agustus 2022 sampai dengan tanggal 16 Oktober 2022  Terdakwa dipersidangan didampingi oleh Penasihat Hukum, ITA MA’RUF S, Ag, SH.MH.  Yaitu LEMBAGA BANTUAN HUKUM (LBH) POSBAKUM  yang beralamat  kantor di  Pondok  Karya Agung Blok BAA No. 48 RT. 13 Kel. Sungai Nangka, Kec. Balikpapan Selatan, berdasarkan penunjukan/penetapan Majelis Hakim Nomor : 344/Pid.Sus/2022/PN.BPP tanggal 26 Juli 2022;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa SYAMSUL ARIFIN Bin (Alm) MUHAMAD JALALLUDIN tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa hak atau melawan hukum, menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau  menyerahkan  Narkotika Golongan I bukan tanaman yang beratnya melebihi 5 (lima) gram“ 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara 8 (delapan)  Tahun dan denda sebesar Rp 1.000.000.000,- (satu miliar rupiah)  dengan ketentuan apabila denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 4 (empat)  Bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;  4. Menetapkan Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa: - 2 (dua) paket sabu dalam kemasan plastik bening dengan berat bruto 11,98 (sebelas koma Sembilan delapan) gram; - 3 (tiga) buah timbangan digital; - 1 (satu) bandel plastik klip bening kosong; - 1 (satu) tas selempang warna coklat bertuliskan PEDRO;</t>
   </si>
   <si>
     <t>346/Pid.Sus/2022/PN Bpp</t>
@@ -524,7 +485,7 @@
     <t xml:space="preserve">- 1 (satu) paket sabu dalam kemasan plastic bening dengan berat bruto 0,20 (nol koma dua puluh) gram; - 1 (satu) buah HP merk Realme warna hitam dengan No Simcard 081346256791 dan No. Imei 866706053832692.      </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Evi Veronika Binti Oktevianus 2.  Tempat lahir  : Ampah 3.  Umur/Tanggal lahir  : 26/18 Mei 1996 4.  Jenis kelamin  : Perempuan 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan Jl M.T Haryono No. 48 Kelurahan Batu Ampar Kecamatan Balikpapan Utara (Hotel Asria) Kota Balikpapan / Ampah RT. 07 Rw. 03 Kelurahan Ampah Kota Kecamatan  Dusun Tengah Kabupaten Barito Timur 7.  Agama  : Islam 8.  Pekerjaan  : Mengurus rumah tangga  Terdakwa Evi Veronika Binti Oktevianus ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 24 Maret 2022 sampai dengan tanggal 12 April 2022   2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 13 April 2022 sampai dengan tanggal 22 Mei 2022 ;  3.  Penuntut Umum Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 23 Mei 2022 sampai dengan tanggal 21 Juni 2022   4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 22 Juni 2022 sampai dengan tanggal 21 Juli 2022   5.  Penuntut Umum sejak tanggal 7 Juli 2022 sampai dengan tanggal 26 Juli 2022   6.  Hakim Pengadilan Negeri sejak tanggal 20 Juli 2022 sampai dengan tanggal 18 Agustus 2022   7.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 19 Agustus 2022 sampai dengan tanggal 17 Oktober 2022   Terdakwa didampingi oleh penasehat Hukum dari Posbakumadin ;                Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa  Evi VeronikaMaryati Binti Matoerip  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “  Percobaan atau permufakatan jahat untukmelakukan tindak pidaa Narkotika dan Prekusor Narkotika tanpa hak atau melawan hokum menjadiperantara dalam jual beli narkotika Golongan I  ” ; 2. Menjatuhkan pidana Terdakwa oleh karena itu dengan pidana penjara  masing selama “  6 (Enam) Tahun dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah), dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama “ 4  (Empat) Bulan” ;</t>
   </si>
   <si>
     <t>348/Pid.Sus/2022/PN Bpp</t>
@@ -534,7 +495,7 @@
 - 1 (satu) bungkus plastik klip bening berisi Narkotika jenis sabu berat bruto 0,33 (nol koma tiga tiga) gram ; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Ronald Alias Onal Bin Faharudin Alm 2.  Tempat lahir  : Makasssar 3.  Umur/Tanggal lahir  : 26/31 Desember 1995 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan 21 Januari Rt. 01 Kelurahan Baru Tengah Kecamatan Balikpapan Barat Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Buruh harian lepas Terdakwa Ronald Alias Onal Bin Faharudin Alm ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 31 Mei 2022 sampai dengan tanggal 19 Juni 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 20 Juni 2022 sampai dengan tanggal 29 Juli 2022 ; 3.  Penuntut Umum sejak tanggal 11 Juli 2022 sampai dengan tanggal 30 Juli 2022 ; 4.  Hakim Pengadilan Negeri sejak tanggal 20 Juli 2022 sampai dengan tanggal 18 Agustus 2022 ; 5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 19 Agustus 2022 sampai dengan tanggal 17 Oktober 2022 ; Terdakwa  didampingi oleh Penasehat Hukum dari POSBAKUMADIN berdasarkan Penetapan Nomor : 348/Pid.Sus/2022,  tanggal   ;    Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 348/Pid.Sus/2022/PN Bpp tanggal 20 Juli 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 348/Pid.Sus/2022/PN Bpp tanggal 20 Juli 2022 tentang penetapan hari sidang;             Pid.I.A.3</t>
+    <t xml:space="preserve">  1. Menyatakan Terdakwa  Ronald Alias Onal Bin Fahrudin Alm  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “  Tanpa Hak atau Melawan Hukum menawarkan untuk dijual,mnjual, membeli, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I bukan tanaman   ” ;</t>
   </si>
   <si>
     <t>34/Pid.Sus/2022/PN Bpp</t>
@@ -543,16 +504,7 @@
     <t xml:space="preserve">- 1 (satu) Unit Hp merk Iphone 7 warna hitam beserta simcard Telkomsel Simpati nomor (0812-8004-3597) dengan nomor Imei: 354826091340927. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa:  1.  Nama lengkap  : Pramuji Irawan Bin Alm Muchdi 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 41/7 September 1980 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6. Tempat tinggal  : Jl. Padat Blok A3 No. 23 Kelurahan Manggar Kecamatan Balikpapan Timur Kota Balikpapan / Jl. Letjen Suprapto Rt. 25 No. 13 Kelurahan Baru Tengah Kecamatan Balikpapan Barat Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Buruh Harian Lepas  Terdakwa Pramuji Irawan Bin Alm Muchdi ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 23 Oktober 2021 sampai dengan tanggal 11 November 2021  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 12 November 2021 sampai dengan tanggal 21 Desember 2021  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 22 Desember 2021 sampai dengan tanggal 20 Januari 2022  4.  Penuntut Umum sejak tanggal 18 Januari 2022 sampai dengan tanggal 6 Februari 2022  5.  Hakim Pengadilan Negeri sejak tanggal 25 Januari 2022 sampai dengan tanggal 23 Februari 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 24 Februari 2022 sampai dengan tanggal 24 April 2022              Pada hari persidangan pertama Majelis Hakim telah menetapkan Penasihat Hukum yang ditunjuk secara Cuma – Cuma atau Prodeo dan Terdakwa dipersidangan didampingi oleh Sdr. ITA MA’RUF, S.H., S.Ag &amp; REKAN, Penasihat Hukum / Advokat POSBAKUMADIN yang berkantor di perumahan Pondok Karya Agung Blok AA. 48 RT/13 RW/19 Kelurahan Sungai           Pid.I.A.3</t>
-  </si>
-  <si>
-    <t>351/Pid.Sus/2022/PN Bpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 7 (tujuh) paket sabu dalam kemasan plastik bening dengan berat bruto 2,50 (dua koma lima puluh) gram; - 1 (satu) buah helai kain warna orange; - 1 (satu) buah Hp merk Samsung galaxy A52 warna putih dengan simcard No. 082297219912 dengan Imei No. 352938774535012; </t>
-  </si>
-  <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Tampaty Bin Alm Manna 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 51/24 Mei 1971 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jl. Imus Payau RT. 37 No. 08 Kel. Muara Rapak      Kec. Balikpapan Utara Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Karyawan swasta  Terdakwa Tampaty Bin Alm Manna ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 19 Mei 2022 sampai dengan tanggal 7 Juni 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 8 Juni 2022 sampai dengan tanggal 17 Juli 2022  3.  Penuntut Umum sejak tanggal 14 Juli 2022 sampai dengan tanggal 2 Agustus 2022  4.  Hakim Pengadilan Negeri sejak tanggal 21 Juli 2022 sampai dengan tanggal 19 Agustus 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 20 Agustus 2022 sampai dengan tanggal 18 Oktober 2022   Terdakwa didampingi oleh Penasehat Hukum Ita Ma’ruf, S.H., S.Ag. Penasihat dari Pos Bantuan Hukum Advokasi Indonesia (Posbakumadin) berkantor di Perumahan Pondok Karya Agung Blok BAA No. 48 RT.13 RW.19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan, berdasarkan Surat Penetapan tanggal 26 Juli 2022 Nomor 351/Pid.Sus/2022/PN Bpp; Pengadilan Negeri tersebut; Setelah membaca:             Pid.I.A.3</t>
+    <t xml:space="preserve">  1. Menyatakan Terdakwa PRAMUJI IRAWAN Bin (Alm) MUCHDI terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ”Percobaan atau Permufakatan Jahat, Menerima, Menjadi perantara dalam Jual Beli, menukar, atau menyerahkan, Narkotika Golongan I lebih dari 5 (lima) gram;  2. Menjatuhkan pidana terhadap PRAMUJI IRAWAN Bin (Alm) MUCHDI dengan pidana penjara selam ................. Tahun, pidana denda sebesar Rp1.000.000.000,00,- (satu milyard rupiah), dengan ketentuan jika tidak dibayar akan diganti dengan pidana penjara selama   4 (empat) bulan; 3. Menetapkan masa penangkapan dan penahanan yang dijalani oleh Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan Para Terdakwa tetap dalam tahanan; 5. Menetapkan barang bukti berupa:  -    1 (satu) Unit Hp merk Iphone 1 warna hitam beserta simcard Telkomsel nomor (081280043597); Dirampas auntuk dimusnahkan. 6. Membebankan biaya perkara kepada Terdakwa sebesar Rp5.000,- (lima  ribu rupiah); Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari ......, tanggal ......, oleh kami, Surya Laksemana, S.H., sebagai Hakim Ketua , Annender Carnova, S.H., M.Hum. , Lila Sari, S.H., M.H. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari .......... tanggal .......... oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu oleh Muh. Amir, S.H.,</t>
   </si>
   <si>
     <t>353/Pid.Sus/2022/PN Bpp</t>
@@ -561,7 +513,7 @@
     <t xml:space="preserve">- 1 (satu) buah Handphone, merk Vivo 2007 warna biru metalik dengan No. Imei 1 : 860065055154118 dan No. Imai 2 : 860065055154100. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Jauri Hermawanto Alias Laduk Bin Alm Saddila Subandi;   Tempat lahir      : Balikpapan;   Umur/tanggal lahir   : 37 Tahun / 12 Januari 1985;   Jenis Kelamin      : Laki-laki;   Kebangsaan       : Indonesia;   Tempat tinggal     : Lapas Kelas II A Balikpapan;   Agama          : Islam;   Pekerjaan        : Mekanik; Terdakwa adalah terpidana yang sedang menjalani hukuman di Lembaga Pemasyarakatan Balikpapan; Terdakwa didampingi Penasihat hukumnya  Ita Ma’ruf, S.Ag, S.H., M.H. dan Ramadhan, S.H., Advokat pada Kantor POSBAKUMADIN BALIKPAPAN, berdasakan Penetapan Majelis Hakim Pengadilan Negeri Balikpapan Nomor 353/Pid.Sus/2022/PN.Bpp, tanggal 3 Agustus 2022;  Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 353/Pid.Sus/2022/ PN Bpp tanggal 25 Juli 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 353/Pid.Sus/2022/PN Bpp tanggal 25 Juli 2022 tentang penetapan hari sidang; - Berkas perkara dan surat-surat lain yang bersangkutan; Setelah mendengar keterangan saksi-saksi, dan Terdakwa serta memperhatikan bukti surat dan barang bukti yang diajukan di persidangan; Setelah mendengar pembacaan tuntutan pidana yang diajukan oleh Penuntut Umum yang pada pokoknya sebagai berikut: 1. Menyatakan terdakwa JAURI HERMAWANTO Alias LADUK Bin (Alm) SADDILA SUBANDI terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Pecobaan atau permufakatan jahat untuk melakukan tindak pidana Narkotika dan Prekusor Narkotika secara tanpa hak atau melawan hukum menawarkan untuk di jual, menjual,</t>
+    <t xml:space="preserve"> 1. Menyatakan terdakwa Jauri Hermawanto alias Laduk bin (alm) Saddila Subandi telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Pecobaan atau permufakatan jahat untuk melakukan tindak pidana Narkotika dan Prekusor Narkotika secara tanpa hak atau melawan hukum menawarkan untuk di jual, menjual, membeli, menerima, menjadi perantara dalam jual beli menukar atau menyerahkan Narkotika golongan I beratnya melebihi 5 (lima) gram”; 2. Menjatuhkan pidana terhadap terdakwa Jauri Hermawanto alias Laduk bin (alm) Saddila Subandi dengan pidana penjara selama 7 (tujuh) tahun dan 6 (enam) bulan, denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; 3. Menetapkan terdakwa tetap berada di dalam tahanan;   4. Menyatakan barang bukti berupa: - 1 (satu) buah Handphone, merk Vivo 2007 warna biru metalik dengan No. Imei 1 : 860065055154118 dan No. Imai 2 : 860065055154100; Dirampas untuk dimusnahkan. 5. Menetapkan agar terdakwa dibebani membayar biaya perkara sebesar      Rp. 5000, (lima ribu rupiah); Demikianlah diputuskan dalam rapat permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Rabu tanggal 7 September 2022 oleh kami  Thomas Tarigan, S.H., M.H., sebagai Hakim Ketua , Arif Wisaksono, S.H., Arum Kusuma Dewi, S.H., M.H. masing-masing sebagai Hakim Anggota,putusan mana diucapkan dalam sidang terbuka untuk umum pada hari dan tanggal itu juga oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu</t>
   </si>
   <si>
     <t>355/Pid.Sus/2022/PN Bpp</t>
@@ -570,7 +522,7 @@
     <t xml:space="preserve">➢ 1 (satu) buah Handphone, merk realme C25 tipe RMX3191 warna abu-abu No. Imei 1 : 862241053549553 dan Imei 2 : 862241053549546 </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Achmad Asikin als Dani Bin Alm Rappe Umar;   Tempat lahir      : Balikpapan;   Umur/tanggal lahir   : 38 Tahun / 17 Januari 1984;   Jenis Kelamin      : Laki-laki;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jalan Borobudur I Rt. 36 No. 11 Kelurahan Muara Rapak Kecamatan Balikpapan Utara, Kota Balikpapan;   Agama          : Islam;   Pekerjaan        : Mekanik;  Terdakwa Achmad Asikin als Dani Bin Alm Rappe Umar ditahan dalam tahanan Tahanan Rutan oleh:  1.  Penyidik sejak tanggal 24 Maret 2022 sampai dengan tanggal 12 April 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 13 April 2022 sampai dengan tanggal 22 Mei 2022;   3.  Penyidik Perpanjangan Pertama Oleh Ketua PN sejak tanggal 23 Mei 2022 sampai dengan tanggal 21 Juni 2022;   4.  Penyidik Perpanjangan Kedua Oleh Ketua PN sejak tanggal 22 Juni 2022 sampai dengan tanggal 21 Juli 2022;   5.  Penuntut sejak tanggal 14 Juli 2022 sampai dengan tanggal 02 Agustus 2022;   6.  Hakim PN sejak tanggal 25 Juli 2022 sampai dengan tanggal 23 Agustus 2022;   7.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 24 Agustus 2022 sampai dengan tanggal 22 Oktober 2022;   Terdakwa didampingi Penasihat hukumnya  Ita Ma’ruf, S.Ag, S.H., M.H. dan Ramadhan, S.H., Advokat pada Kantor POSBAKUMADIN BALIKPAPAN, berdasakan Penetapan Majelis Hakim Pengadilan Negeri Balikpapan Nomor 355/Pid.Sus/2022/PN.Bpp, tanggal 3 Agustus 2022;  Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 355/Pid.Sus/2022/ PN Bpp tanggal 25 Juli 2022 tentang penunjukan Majelis Hakim;</t>
+    <t xml:space="preserve"> 1. Menyatakan terdakwa ACHMAD ASIKIN Als DANI Bin (Alm) RAPPE UMAR terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Pecobaan atau permufakatan jahat untuk melakukan tindak pidana Narkotika dan Prekusor Narkotika secara tanpa hak atau melawan hukum menawarkan untuk di jual, menjual, membeli, menerima, menjadi perantara dalam jual beli menukar atau menyerahkan Narkotika golongan I beratnya melebihi 5 (lima) gram”,; 2. Menjatuhkan pidana terhadap terdakwa ACHMAD ASIKIN Als DANI Bin (Alm) RAPPE UMAR dengan pidana penjara 7 (tujuh) tahun dan 6 (enam) bulan, denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; 3. Menetapkan masa penangkapan dan/atau penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan;   4. Menetapkan terdakwa tetap berada di dalam tahanan;   5. Menyatakan barang bukti berupa:</t>
   </si>
   <si>
     <t>357/Pid.Sus/2022/PN Bpp</t>
@@ -579,7 +531,7 @@
     <t xml:space="preserve"> − 2 (dua) bungkus plastik bening ukuran sedang berisikan tembakau sintesis atau tembakau gorilla (MDMB-4en PINACA) seberat netto 10,12 gram; − 1 (satu) buah Handphone merk OPPO A5s warna biru No.imei 1 : 867998049263178, No.imei 2 : 867998049263160. − 1 (satu) buah Handphone merk Iphone 6s Plus warna putih dan merah muda No.Imei : 355732075383405. − 1 (satu) buah celana warna hijau muda, − 1 (satu) buah baju garis-garis warna biru kuning dan orange. − 2 (dua) buah plastik pembungkus paket warna merah dan hitam tertera alamat penerima. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : Suhardi Alias Ardi Bin Firdaus;   Tempat lahir      : Muara Gading Mas;   Umur/tanggal lahir   : 26 Tahun / 08 Mei 1996;   Jenis Kelamin      : Laki-laki;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jalan Panorama No. 60 Rt. 23 Kel. Karrang jati Kec. Balikpapan Tengah Kota Balikpapan;   Agama          : Islam;   Pekerjaan        : Karyawan Swasta Alumunium Km. 4 Tukang;  Terdakwa Suhardi Alias Ardi Bin Firdaus ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 27 Maret 2022 sampai dengan tanggal 15 April 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 16 April 2022 sampai dengan tanggal 25 Mei 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 26 Mei 2022 sampai dengan tanggal 24 Juni 2022  4.  Penyidik Perpanjangan Kedua Oleh Ketua Pengadilan Negeri sejak tanggal 25 Juni 2022 sampai dengan tanggal 24 Juli 2022  5.  Penuntut Umum sejak tanggal 14 Juli 2022 sampai dengan tanggal 2 Agustus 2022  6.  Hakim Pengadilan Negeri sejak tanggal 25 Juli 2022 sampai dengan tanggal 23 Agustus 2022  7.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 24 Agustus 2022 sampai dengan tanggal 22 Oktober 2022  Terdakwa di persidangan didamapingi : POSBAKUMADIN beralamat kantor di Perumahan Pondok Kayu Agung Blok BAA Nomor 48 RT 13 Kelurahan Sungai Nangka Kota Balikpapan  berdasarkan Surat Penetapan tanggal 2 Agustus 2022, ;  Pengadilan Negeri tersebut; Setelah membaca:</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa SUHARDI Alias ARDI Bin FIRDAUS telah  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar atau menyerahkan Narkotika I Golongan  beratnya melebihi 5 (lima) gram”, melanggar sebagaimana dakwaan kesatu Penuntut Umum; 2. Menjatuhkan pidana oleh karena itu terhadap Terdakwa SUHARDI Alias ARDI Bin FIRDAUS dengan pidana penjara selama 7 ( tujuh) dan membayar denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila tidak dibayar diganti dengan pidana  penjara selama 6 (enam)  bulan; 3. Menetapkan masa penahanahn yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan tersbeut; 4. Menetapkan Tredakwa tetap berada dlam tahanan ;.                 5. Menetapkan barang bukti berupa :  − 2 (dua) bungkus plastik bening ukuran sedang berisikan tembakau sintesis atau tembakau gorilla (MDMB-4en PINACA) seberat netto 10,12 gram; − 1 (satu) buah Handphone merk OPPO A5s warna biru No.imei 1 : 867998049263178, No.imei 2 : 867998049263160. − 1 (satu) buah Handphone merk Iphone 6s Plus warna putih dan merah muda No.Imei : 355732075383405. − 1 (satu) buah celana warna hijau muda, − 1 (satu) buah baju garis-garis warna biru kuning dan oranye. − 2 (dua) buah plastik pembungkus paket warna merah dan hitam tertera alamat penerima. Dirampas untuk dimusnahkan 6. Menetapkan agar Terdakwa dibebani membayar biaya perkara sebesar Rp. 5000, (lima ribu rupiah).</t>
   </si>
   <si>
     <t>358/Pid.Sus/2022/PN Bpp</t>
@@ -588,7 +540,7 @@
     <t xml:space="preserve">- 2 (dua) paket sabu dalam kemasan plastik bening dengan berat brutto 0,58 (nol koma lima delapan) atau netto 0,18 (nol koma delapan belas) gram; - 1 (Satu) amplop putih; - 1 (Satu) buah Hp merk Oppo F9 warna ungu; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : SUGENG RIADI Bin SUMIJAN; 2.  Tempat lahir  : Balikpapan; 3.  Umur/Tanggal lahir  : 34 Tahun / 09 Januari 1988; 4.  Jenis kelamin  : Laki-laki; 5.  Kebangsaan  : Indonesia; 6.  Tempat tinggal  : Jalan Brantas No. 123 Rt. 36 Kel. Batu Ampar Kec.       Balikpapan Utara, Kota Balikpapan; 7.  Agama  : Islam; 8.  Pekerjaan  : Wiraswasta;  Terdakwa Sugeng Riadi Bin Sumijan ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 18 Mei 2022 sampai dengan tanggal 06 Juni 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 07 Juni 2022 sampai dengan tanggal 16 Juli 2022;   3.  Penuntut sejak tanggal 14 Juli 2022 sampai dengan tanggal 02 Agustus 2022;   4.  Hakim PN sejak tanggal 25 Juli 2022 sampai dengan tanggal 23 Agustus 2022;   5.  Hakim PN Perpanjangan Pertama Oleh Ketua PN sejak tanggal 24 Agustus 2022 sampai dengan tanggal 22 Oktober 2022;    Terdakwa dipersidangan didampingi Penasehat Hukum Ramadhan, S.H. dan Ita Ma’ruf, S.Ag., S.H., M.H. Advokat/Penasehat Hukum Pos Bantuan Hukum Advokat Indonesia POSBAKUMADIN beralamat di Perumahan Pondok Karya Agung Blok BAA No. 48, RT. 13, Kelurahan Sungai Nangka, Kota Balikpapan berdasarkan Penetapan Majelis Hakim Nomor 358/Pid.Sus/2022/PN Bpp tanggal 03 Agustus 2022;    Pengadilan Negeri tersebut; Setelah membaca:             Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa SUGENG RIADI Bin SUMIJAN,  terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ”tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar atau menyerahkan Narkotika  Golongan I”;   2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 3 (tiga) bulan; 3. Menetapkan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dengan pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap ditahan;   5. Menetapkan barang bukti berupa :  - 2 (dua) paket sabu dalam kemasan plastik bening dengan berat netto 0,18 (nol koma delapan belas) gram; - 1 (satu) amplop putih; - 1 (satu) buah Hp merk Oppo F9 warna ungu; Dirampas untuk dimusnakan. 6. Membebankan biaya perkara kepada Terdakwa sebesar Rp.5.000,- ((lima ribu rupiah);     Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Rabu, tanggal 28 September 2022, oleh kami, IMRON ROSYADI, S.H., sebagai Hakim Ketua, ENNIERLIA</t>
   </si>
   <si>
     <t>359/Pid.Sus/2022/PN Bpp</t>
@@ -612,7 +564,7 @@
 berwenang dalam hal ini departemen yang bertanggung jawab pada bidang kesehatan. Bahwa perbuatan terdakwa tersebut dipandang sebagai perbuatan yang tanpa hak dan melawan hukum karena bertentangan dengan undang-undang.  Menimbang, bahwa berdasarkan uraian tersebut diatas dengan demikian unsur ini telah terpenuhi.  Ad.3. Unsur Menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan narkotika golongan I.  Menimbang bahwa unsur tersebut sifatnya alternatif, maka apabila salah satu atau beberapa dari perbuatan tersebut terpenuhi, maka perbuatan yang dilakukan Para Terdakwa adalah telah terbukti. Menimbang bahwa berdasarkan fakta-fakta yang terungkap di persidangan dari keterangan saksi-saksi dan keterangan terdakwa sendiri  sebagai berikut :  - Bahwa terdakwa ALIANSYAH Bin (</t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Para Terdakwa : Terdakwa I; 1. Nama lengkap : ALIANSYAH Bin (Alm) KURNAIN; 2. Tempat lahir : Samboja; 3. Umur/tanggal lahir : 45 tahun / 15 Juli 1976; 4. Jenis kelamin : Laki-laki; 5. Kebangsaan : Indonesia;  6. Tempat tinggal : Jalan Soekarno Hatta Km. 29 RT. 07 Kel. Karya Merdeka, Kec.Samboja Barat; 7. Agama : Islam; 8. Pekerjaan : Swasta; Terdakwa II; 1. Nama lengkap : ARNIA Alias NIA Binti (Alm) MUHIDIN; 2. Tempat lahir : Samboja; 3. Umur/tanggal lahir : 41 tahun / 02 Januari 1981; 4. Jenis kelamin : Laki-laki; 5. Kebangsaan : Indonesia;  6. Tempat tinggal : Jalan Soekarno Hatta Km. 29 RT. 07 Kel. Karya Merdeka, Kec.Samboja Barat; 7. Agama : Islam; 8. Pekerjaan : Mengurus Rumah Tangga;  Para Terdakwa ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 22 Juni 2021 sampai dengan tanggal 11 Juli 2021; 2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 12 Juli 2021 sampai dengan tanggal 20 Agustus 2021; 3.  Penuntut Umum sejak tanggal 12 Agustus 2021 sampai dengan tanggal 31 Agustus 2021; 4.  Hakim Pengadilan Negeri sejak tanggal 24 Agustus 2021 sampai dengan tanggal 22 September 2021;           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa ALIANSYAH Bin (Alm) KURNAIN dan Terdakwa ARNIA Alias NIA Binti (Alm) MUHIDIN, tersebut telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Pemufakatan jahat tanpa hak atau melawan hukum, menjual, membeli, menerima, atau menyerahkan Narkotika Golongan I”;   2. Menjatuhkan pidana terhadap Terdakwa ALIANSYAH Bin (Alm) KURNAIN dan Terdakwa ARNIA Alias NIA Binti (Alm) MUHIDIN oleh karena itu dengan pidana penjara masing-masing selama 6 (enam) tahun dan denda masing-masing sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 4 (empat) bulan; 3. Menetapkan masa penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dengan pidana yang dijatuhkan; 4. Menetapkan agar Para Terdakwa tetap berada dalam tahanan;   5. Menetapkan barang bukti berupa :  - 1 (satu) Paket sabu dalam kemasan plastik bening dengan berat bruto 0,48 (nol koma empat delapan) gram atau berat netto 0,28 gram. - 1 (satu) Unit Handpone Merk Vivo warna Merah dengan Nosim: 082197776360  dan No Imei: 865511045199858. - 7 (tujuh) Paket sabu dalam kemasan plastik bening dengan berat bruto 2,78 (dua koma tujuh delapan) gram atau berat netto 1,28 gram. - 1 (satu) dompet kecil bermotif bunga. - 1 (satu) buah kotak warna Hitam. - 1 (satu) buah sendokan yang terbuat dari plastic warna putih. - 1 (satu) Unit Handpone Merk Oppo warna Hitam dengan Nosim: 085654102099  dan No Imei: 861139044058430. Dirampas untuk dimusnahkan.  - Uang tunai sebesar Rp. 200.000,- (dua ratus ribu rupiah). Dirampas untuk Negara.</t>
   </si>
   <si>
     <t>35/Pid.Sus/2022/PN Bpp</t>
@@ -621,7 +573,7 @@
     <t xml:space="preserve">1. 2 (dua) Paket sabu dalam kemasan plastik bening dengan berat keseluruhan 0,37 gram; 2. 1 (satu) Lembar kertas warna putih ; 3. 1 (satu) Buah dompet bermotif bunga warna coklat; 4. 1 (satu) Unit Hp merk Oppo A3s warna merah beserta simcard Telkomsel Simpati nomor: 0812-5697-5077 dengan nomor Imei: 869350036666179. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa:  1.  Nama lengkap  : Ernawati Binti Alm Syamsudin Dg Napa 2.  Tempat lahir  : Toli-toli 3.  Umur/Tanggal lahir  : 42/14 Februari 1980 4.  Jenis kelamin  : Perempuan 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jl. Patriot Rt. 26 No. 46 Kelurahan Baru Ilir Kecamatan Balikpapan Barat Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Ibu Rumah Tangga  Terdakwa Ernawati Binti Alm Syamsudin Dg Napa ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 23 Oktober 2021 sampai dengan tanggal 11 November 2021  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 12 November 2021 sampai dengan tanggal 21 Desember 2021  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 22 Desember 2021 sampai dengan tanggal 20 Januari 2022  4.  Penuntut Umum sejak tanggal 18 Januari 2022 sampai dengan tanggal 6 Februari 2022  5.  Hakim Pengadilan Negeri sejak tanggal 25 Januari 2022 sampai dengan tanggal 23 Februari 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 24 Februari 2022 sampai dengan tanggal 24 April 2022                Pada hari persidangan pertama Majelis Hakim telah menetapkan Penasihat Hukum yang ditunjuk secara Cuma – Cuma atau Prodeo dan Terdakwa dipersidangan didampingi oleh Sdr. JOHANES MAROKKO, S.H., &amp; REKAN, Penasihat Hukum / Advokat POSBAKUM yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 07 Februari  2022  Nomor 35/Pid.Sus/2022/PN Bpp;            Pid.I.A.3</t>
+    <t xml:space="preserve">  1. Menyatakan Terdakwa ERNAWATI Binti Alm SYAMSUDIN DG. NAPA terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana” Percobaan atau permufakatan jahat untuk melakukan Tindak Pidana Narkotika dan Prekursor Narkotika yang tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I bukan tanaman 2. Menjatuhkan pidana terhadap ERNAWATI Binti Alm SYAMSUDIN DG. NAPA dengan pidana penjara selama 6 (enam) Tahun, pidana denda sebesar Rp1.000.000.000,00,- (satu milyard rupiah), dengan ketentuan jika tidak dibayar akan diganti dengan pidana penjara selama   4 (empat) bulan; 3. Menetapkan masa penangkapan dan penahanan yang dijalani oleh Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;</t>
   </si>
   <si>
     <t>361/Pid.Sus/2022/PN Bpp</t>
@@ -630,7 +582,7 @@
     <t xml:space="preserve"> - 1 (satu) alat hisap bong - 1 (satu) buah korek api </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Rodin Syaiful Alias Rudi Bin Carwanto 2.  Tempat lahir  : malang 3.  Umur/Tanggal lahir  : 35/31 Juli 1987 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Perumahan Bukit Tol Residence Blok L15 Rt. 097 Kelurahan Manggar Kecamatan Balikpapan Timur Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Swasta  1.  Penyidik sejak tanggal 26 Mei 2022 sampai dengan tanggal 14 Juni 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 15 Juni 2022 sampai dengan tanggal 24 Juli 2022  3.  Penuntut Umum sejak tanggal 14 Juli 2022 sampai dengan tanggal 2 Agustus 2022  4.  Hakim Pengadilan Negeri sejak tanggal 26 Juli 2022 sampai dengan tanggal 24 Agustus 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 25 Agustus 2022 sampai dengan tanggal 23 Oktober 2022   Terdakwa dipersidangan didampingi oleh Penasihat Hukum Ita Ma’ruf, S.H. dan rekan Advokat/Penasehat Hukum dari POSBAKUMADIN yang tergabung dalam Posbakum Pengadilan Negeri Balikpapan, yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 3 Agustus 2022 Nomor 361/Pid.Sus/2022/PN Bpp;   Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 361/Pid.Sus/2022/PN Bpp tanggal 26 Juli 2022 tentang penunjukan Majelis Hakim; - Penetapan Majelis Hakim Nomor 361/Pid.Sus/2022/PN Bpp tanggal 26 Juli 2022 tentang penetapan hari sidang;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Rodin Syaiful Alias Rudi Bin Carwanto telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa hak atau melawan hukum menjual, menyerahkan Narkotika Golongan I “; 2. Menjatuhkan pidana terhadap Terdakwa tersebut dengan pidana penjara selama 5 (lima) tahun dan 6 (enam) bulan serta pidana denda sejumlah          Rp. 1.000.000.000,- (Satu milyar rupiah) dengan ketentuan apabila pidana</t>
   </si>
   <si>
     <t>366/Pid.Sus/2022/PN Bpp</t>
@@ -639,7 +591,7 @@
     <t xml:space="preserve"> - 4 (empat) paket sabu dalam kemasan plastik bening berat bersih 0,63 gram; - 19 (sembilan belas) bundel plastik klip bening; - 1 (satu) buah plastik kresek warna hitam; - 1 (satu) buah celana panjang warna biru muda; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Muhammad Ayub Sukeni Saputra Bin Syukur 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 20/2 Agustus 2002 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jl. Letjend Suprapto No. 02 RT. 50 Kelurahan Baru     Ulu Kecamatan Balikpapan Barat Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Tidak bekerja  Terdakwa Muhammad Ayub Sukeni Saputra Bin Syukur ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 27 April 2022 sampai dengan tanggal 16 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 17 Mei 2022 sampai dengan tanggal 25 Juni 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 26 Juni 2022 sampai dengan tanggal 25 Juli 2022  4.  Penuntut Umum sejak tanggal 19 Juli 2022 sampai dengan tanggal 7 Agustus 2022  5.  Hakim Pengadilan Negeri sejak tanggal 28 Juli 2022 sampai dengan tanggal 26 Agustus 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 27 Agustus 2022 sampai dengan tanggal 25 Oktober 2022   Terdakwa dipersidangan didampingi oleh Penasihat Hukum Ita Ma’ruf, S.H. dan rekan Advokat/Penasehat Hukum dari POSBAKUMADIN yang tergabung dalam Posbakum Pengadilan Negeri Balikpapan, yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 3 Agustus 2022 Nomor 366/Pid.Sus/2022/PN Bpp;   PENGADILAN NEGERI tersebut;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa MUHAMMAD AYUB SUKENI SAPUTRA Bin SYUKUR telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Permufakatan jahat secara tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I bukan tanaman“; 2. Menjatuhkan pidana terhadap Terdakwa tersebut dengan pidana penjara selama 4 (empat) tahun dan 6 (enam) bulan serta pidana denda sejumlah Rp 800.000.000,- (delapan ratus juta rupiah)  dengan ketentuan apabila pidana denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 3 (tiga) bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa:</t>
   </si>
   <si>
     <t>368/Pid.Sus/2022/PN Bpp</t>
@@ -648,7 +600,7 @@
     <t xml:space="preserve"> - 1 (satu) paket sabu berat bersih 0,12 gram; - 1 (satu) buah celana jeans warna biru; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : Hespiansyah Bin Budi Amin 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 25/9 Mei 1997 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia  6.  Tempat tinggal  : Jl. Sepakat 3 No. 30 RT. 10 Kelurahan Baru Tengah Kecamatan Balikpapan Barat Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Nelayan  Terdakwa Hespiansyah Bin Budi Amin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 1 Mei 2022 sampai dengan tanggal 20 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 21 Mei 2022 sampai dengan tanggal 29 Juni 2022  3.  Penuntut Umum sejak tanggal 19 Juli 2022 sampai dengan tanggal 7 Agustus 2022  4.  Hakim Pengadilan Negeri sejak tanggal 28 Juli 2022 sampai dengan tanggal 26 Agustus 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 27 Agustus 2022 sampai dengan tanggal 25 Oktober 2022  Terdakwa dipersidangan didampingi oleh Penasihat Hukum Ita Ma’ruf, S.H. dan rekan Advokat/Penasehat Hukum dari POSBAKUMADIN yang tergabung dalam Posbakum Pengadilan Negeri Balikpapan, yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 3 Agustus 2022 Nomor 368/Pid.Sus/2022/PN Bpp;   PENGADILAN NEGERI tersebut; Setelah membaca:</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa HESPIANSYAH Bin BUDI AMIN telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Permufakatan jahat secara tanpa hak atau melawan hukum menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika Golongan I “; 2. Menjatuhkan pidana terhadap Terdakwa tersebut dengan pidana penjara selama 5 (lima) tahun dan 6 (enam) bulan serta pidana denda sejumlah Rp.1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar, maka diganti dengan pidana penjara selama 3 (tiga) bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa: - 1 (satu) paket sabu berat bersih 0,12 gram; - 1 (satu) buah celana jeans warna biru; Dirampas untuk dimusnahkan. 6. Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00 (lima ribu rupiah);  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Senin, tanggal 5 September 2022, oleh kami, Sutarmo, S.H., M.Hum., sebagai Hakim Ketua , Arif Wisaksono, S.H.., Arum Kusuma Dewi, S.H., M.H. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari dan tanggal itu juga oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu oleh Marihot Sirait, SH., Panitera Pengganti pada Pengadilan Negeri Balikpapan,</t>
   </si>
   <si>
     <t>373/Pid.Sus/2022/PN Bpp</t>
@@ -657,16 +609,7 @@
     <t xml:space="preserve">- 1 (satu) paket shabu dalam plastik klip warna bening dengan berat kotor 0,35 gram (nol koma tiga puluh lima gram) ; - 1 (satu) buah jaket jamper warna hitam ; </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa: 1. Nama lengkap  : Evan Fauzan Bin Maxi Hidayat ; 2. Tempat lahir  : Balikpapan ; 3. Umur/Tanggal lahir  : 22 tahun/ 23 Agustus 1999 ; 4. Jenis kelamin  : Laki-laki ; 5. Kebangsaan  : Indonesia ; 6. Tempat tinggal  : Jalan Swadaya No. 08 RT. 38 Kelurahan Karang Rejo Kecamatan Balikpapan Tengah Kota Balikpapan ; 7. Agama  : Islam ; 8. Pekerjaan  : Tidak bekerja ; 9. Pendidikan : SMA (Tamat) ; Terdakwa ditahan dalam tahanan rutan oleh:  1. Penyidik sejak tanggal 24 Mei 2022 sampai dengan tanggal 12 Juni 2022 ; 2. Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 13 Juni 2022 sampai dengan tanggal 22 Juli 2022 ; 3. Penuntut Umum sejak tanggal 18 Juli 2022 sampai dengan tanggal 6 Agustus 2022 ; 4. Hakim Pengadilan Negeri sejak tanggal 2 Agustus 2022 sampai dengan tanggal 31 Agustus 2022 ; 5. Wakil Ketua Pengadilan Negeri Balikpapan sejak tanggal 1 September 2022 sampai dengan tanggal 30 Oktober 2022 ; 6. Ketua Pengadilan Tinggi Samarinda sejak tanggal 31 Oktober 2022 sampai dengan tanggal 29 November 2022 ; Terdakwa di damping oleh Ita Ma’ruf, S.H. , Muhammad Ramadhan, S.H., Advokat, Pengacara &amp; Konsultan Hukum beralamat di Perumahan Pondok Karya Agung Blok BAA No. 47 Kota Balikpapan, berdasarkan Penetapan Majelis Hakim Nomor 373/ Pid.Sus/ 2022/PN Bpp tanggal 23 Agustus 2022 ; Pengadilan Negeri tersebut; Setelah membaca: Pid.I.A.3</t>
-  </si>
-  <si>
-    <t>375/Pid.Sus/2022/PN Bpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • 1 (satu) paket sabu dengan berat bruto 0,32 (nol koma tiga dua) gram ;  </t>
-  </si>
-  <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa:  1.  Nama lengkap  : Aspin Bin Batin 2.  Tempat lahir  : Lumbudolo 3.  Umur/Tanggal lahir  : 38/15 November 1983 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6. Tempat tinggal  : Jl. Ruhui Rahayu II Gg. Perdamaian II RT. 10 Kel. Sepinggan Baru Kec. Balikpapan Selatan Kota Balikpapan 7.  Agama  : Islam 8.  Pekerjaan  : Tidak bekerja Terdakwa ditangkap pada tanggal 01 Mei 2022 berdasarkan surat perintah penangkapan Nomor SP.Kap/74/V/RES.4.2/2022/Renarkoba, tanggal 01 Maret 2022 Terdakwa Aspin Bin Batin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 2 Mei 2022 sampai dengan tanggal 21 Mei 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 22 Mei 2022 sampai dengan tanggal 30 Juni 2022  3.  Penyidik Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 1 Juli 2022 sampai dengan tanggal 30 Juli 2022  4.  Penuntut Umum sejak tanggal 28 Juli 2022 sampai dengan tanggal 16 Agustus 2022  5.  Hakim Pengadilan Negeri sejak tanggal 3 Agustus 2022 sampai dengan tanggal 1 September 2022  6.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 2 September 2022 sampai dengan tanggal 31 Oktober 2022   Pada hari persidangan pertama Majelis Hakim telah menetapkan Penasihat Hukum yang ditunjuk secara Cuma – Cuma atau Predo dan Terdakwa dipersidangan didampingi oleh Sdr. ITA MA'RUF , S.H. , S.Ag &amp; REKAN, Penasihat Hukum / Advokat POSBAKUMADIN yang berkantor di perumahan Pondok Karya Agung Blok AA. 48 RT/13 RW/19 Kelurahan Sungai Nangka, Kecamatan Balikpapan Selatan Kota Balikpapan, berdasarkan Surat Penetapan tanggal 07 Februari 2022 Nomor 34/Pid.Sus/2022/PN Bpp ;            Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Evan Fauzan Bin Maxi Hidayat terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa hak memiliki, menyimpan dan menguasai narkotika golongan I bukan tanaman” ; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (Enam) Tahun dan denda sejumlah Rp 800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan ; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ; 4. Menetapkan Terdakwa tetap ditahan ; 5. Menetapkan barang bukti berupa :</t>
   </si>
   <si>
     <t>378/Pid.Sus/2022/PN Bpp</t>
@@ -675,7 +618,7 @@
     <t xml:space="preserve">• Sisa Narkotika jenis sabu-sabu dari Uji Laboratorium pada Laboratorium Forensik polda Jawa Timur dengan berat kurang lebih 0,176 (nol koma seratus tujuh puluh enam) gram; • 1 (satu) buah timbangan digital warna hitam; • 1 (satu) buah timbangan digital warna silver; • 1 (satu) buah bungkus kemasan minuman yang bertuliskan TORA BIKA CREAMY LATTE; • 3 (tiga) bungkus klip kosong; • 1 (satu) buah Kotak Handsfree yang bertuliskan bertuliskan WIRELESS; • 1 (satu) buah kotak yang terbuat dari plastik warna bening; • 2 (dua) buah sendokan yang terbuat dari sedotan plastik warna merah; • 1 (satu) buah sendokan yang terbuat dari plastik warna putih; • 1 (satu) buah HP Merk OPPO warna silver dengan No. Sim: 0811544588 dan No.Imei : 869778042909839 </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap      : M. Zulkifli Rizal Bin Alm M. Sukransyah;   Tempat lahir      : Tarakan;   Umur/tanggal lahir   : 42 Tahun / 04 November 1979;   Jenis Kelamin      : Laki-laki;   Kebangsaan       : Indonesia;   Tempat tinggal     : Jl. Jend. Ahmad Yani No.27 RT.069 Kel. Gunung Sari Ilir Kec. Balikpapan Tengah Kota Balikpapan;   Agama          : Islam;   Pekerjaan        : Tidak Bekerja; Terdakwa M. Zulkifli Rizal Bin Alm M. Sukransyah ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 29 Juni 2022 sampai dengan tanggal 18 Juli 2022  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 19 Juli 2022 sampai dengan tanggal 27 Agustus 2022  3.  Penuntut Umum sejak tanggal 1 Agustus 2022 sampai dengan tanggal 20 Agustus 2022  4.  Hakim Pengadilan Negeri sejak tanggal 3 Agustus 2022 sampai dengan tanggal 1 September 2022  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 2 September 2022 sampai dengan tanggal 31 Oktober 2022  ` Terdakwa di persidnagan didampingi Penasihat Hukumnya yaitu : POSBAKUMADIN beralamat kantor di Perumahan Pondok Kayu Agung Blok BAA Nomor 48 RT 13 Kelurahan Sungai Nangka Kota Balikpapan  berdasarkan Surat Penetapan Majelis Hakim tanggal 10 Agustus 2022; Pengadilan Negeri tersebut; Setelah membaca:   − Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 378/Pid.Sus/2022/PN Bpp tanggal 3 Agustus 2022 tentang penunjukan Majelis Hakim;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa M. Zulkifli Rzal Bin (Alm) M. Sukransyah telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana “Tanpa hak atau melawan hukum menguasai Narkotika Golongan I bukan tanaman, yang beratnya melebihi 5 (lima) gram”; 2. Menjatuhkan pidana oleh karena itu terhadap Terdakwa M. Zulkifli Rizal Bin (Alm) M. Sukransyah dengan pidana penjara selama................................ dan membayar  denda sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tidak dibayar diganti dengan pidana penjara selama .................. bulan; 3. Menetapkan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijartuhkan tersbeut; 4. Menetapan Terdakwa tetap berada dlam tahanan ; 5. Menetapkan barang bukti berupa : − Sisa Narkotika jenis sabu-sabu dari Uji Laboratorium pada Laboratorium Forensik polda Jawa Timur dengan berat kurang lebih 0,176 (nol koma seratus tujuh puluh enam) gram; − 1 (satu) buah timbangan digital warna hitam; − 1 (satu) buah timbangan digital warna silver; − 1 (satu) buah bungkus kemasan minuman yang bertuliskan TORA BIKA CREAMY LATTE; − 3 (tiga) bungkus klip kosong; − 1 (satu) buah Kotak Handsfree yang bertuliskan bertuliskan WIRELESS; − 1 (satu) buah kotak yang terbuat dari plastik warna bening; − 2 (dua) buah sendokan yang terbuat dari sedotan plastik warna merah; − 1 (satu) buah sendokan yang terbuat dari plastik warna putih; − 1 (satu) buah HP Merk OPPO warna silver dengan No. Sim: 0811544588 dan No.Imei : 869778042909839 Dirampas untuk dimusnahkan</t>
   </si>
   <si>
     <t>379/Pid.Sus/2022/PN Bpp</t>
@@ -684,7 +627,7 @@
     <t xml:space="preserve"> - 2 (dua) paket sabu berat bersih 39,72 gram; - 1 (satu) buah jemper warna hitam; - 1 (satu) unit Handphone merk Iphone XS warna gold Simcard : 085820141670 Imei : 353142100927782; </t>
   </si>
   <si>
-    <t>perkara-perkara pidana dalam tingkat pertama dengan acara pemeriksaan biasa, menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap  : Irwan Faizal bin Ramli Tempat lahir  : Sesumpu Umur/tanggal lahir  : 25 Tahun / 03 September 1996 Jenis kelamin  : Laki-laki Kebangsaan/Kewarganegaraan  : Indonesia Tempat tinggal  : Jl. Klamono Gatu RT.074 Kelurahan Muara  Rapak Kecamatan Balikpapan Utara Kota Balikpapan Agama  : Islam Pekerjaan  : Buruh Pendidikan  : SMK Tamat   Terdakwa dalam perkara ini didampingi Penasihat Hukum dari Lembaga Bantuan Hukum (LBH) Posbakumadin, berdasarkan Penetapan Ketua Majelis Hakim tanggal 11 Agustus 2022.    Terdakwa telah ditahan di Rumah Tahanan Negara (RUTAN) oleh :  1.  Penyidik sejak tanggal 09 Juni 2022 s/d  Tgl. 28 Juni 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 29 Juni 2022 s/d  Tgl. 07 Agustus 2022;  3.  Penuntut Umum sejak tanggal 01 Agustus 2022 s/d  Tgl. 20 Agustus 2022;  4.  Hakim Pengadilan Negeri sejak tanggal 03 Agustus 2022 s/d Tgl. 23 Agustus 2022;  5.  Perpanjangan Oleh Ketua Pengadilan Negeri sejak tanggal 24 Agustus 2022 s/d Tgl. 22 Oktober 2022;  Pengadilan Negeri tersebut ;   Telah membaca berkas perkara ; Telah mendengar keterangan saksi-saksi dan keterangan Terdakwa serta memperhatikan alat bukti lainnya dan barang bukti dalam perkara ini ;  Telah mendengar tuntutan penuntut umum yang dibacakan dan diserahkan dalam persidangan tanggal 23 Agustus 2022 yang pada pokoknya</t>
+    <t xml:space="preserve"> 1.  Menyatakan Terdakwa Irwan Faizal bin Ramli telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak  atau melawan hukum  melakukan permufakatan jahat menguasai dan membawa narkotika golongan I bukan tanaman; 2.  Menghukum Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan;  3.  Menetapkan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;</t>
   </si>
   <si>
     <t>380/Pid.Sus/2022/PN Bpp</t>
@@ -693,7 +636,7 @@
     <t xml:space="preserve"> - 1 (satu) unit Handphone merk Vivo Y19 warna biru Simcard : 085245802002 Imei : 86879704263579; </t>
   </si>
   <si>
-    <t>perkara-perkara pidana dalam tingkat pertama dengan acara pemeriksaan biasa, menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : Nama lengkap : Estu Dwiyanto alias Niko bin Tamis Tempat lahir : Penajam Umur/tanggal lahir : 26 Tahun / 23 Desember 1995 Jenis Kelamin : Laki-laki; Kebangsaan : Indonesia; Tempat tinggal : Gunung Seteleng RT.10 Kelurahan Gunung Seteleng    Kecamatan Penajam Kabupaten Penajam Paser Utara Agama : Islam  Pekerjaan : Karyawan Swasta  Terdakwa dalam perkara ini didampingi Penasihat Hukum dari Lembaga Bantuan Hukum (LBH) Posbakumadin, berdasarkan Penetapan Ketua Majelis Hakim tanggal 11 Agustus 2022.    Terdakwa telah ditahan di Rumah Tahanan Negara (RUTAN) oleh :  1.  Penyidik sejak tanggal 09 Juni 2022 s/d  Tgl. 28 Juni 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 29 Juni 2022 s/d  Tgl. 07 Agustus 2022;  3.  Penuntut Umum sejak tanggal 01 Agustus 2022 s/d  Tgl. 20 Agustus 2022;  4.  Hakim Pengadilan Negeri sejak tanggal 03 Agustus 2022 s/d Tgl. 23 Agustus 2022;  5.  Perpanjangan Oleh Ketua Pengadilan Negeri sejak tanggal 24 Agustus 2022 s/d Tgl. 22 Oktober 2022;  Pengadilan Negeri tersebut ;   Telah membaca berkas perkara ; Telah mendengar keterangan saksi-saksi dan keterangan Terdakwa serta memperhatikan alat bukti lainnya dan barang bukti dalam perkara ini ;  Telah mendengar tuntutan penuntut umum yang dibacakan dan diserahkan dalam persidangan tanggal 23 Agustus 2022 yang pada pokoknya menuntut supaya Majelis Hakim yang memeriksa dan mengadili perkara ini memutuskan  :</t>
+    <t xml:space="preserve"> 1.  Menyatakan Terdakwa Estu Dwiyanto alias Niko bin Tamis telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak  atau melawan hukum  melakukan permufakatan jahat menguasai dan membawa narkotika golongan I bukan tanaman; 2.  Menghukum Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan;  3.  Menetapkan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4.  Menetapkan supaya Terdakwa tetap berada dalam tahanan ;</t>
   </si>
   <si>
     <t>381/Pid.Sus/2022/PN Bpp</t>
@@ -702,7 +645,7 @@
     <t xml:space="preserve">Berdasarkan Penetapan PN Nomor : 626/ Pen. Pid/ 2022/ PN Balikpapan tanggal 24 Juni 2022 : - 1 (satu) paket sabu dengan berat bruto 0,46 (nol koma empat enam) gram / Netto : 0,26 gram - 1 (satu) buah Handphone merk Vivo warna biru dengan No.Sim: 0821-4883-3943 No.Imei: 867472057661855 </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa : 1.  Nama lengkap  : Darmawan Alias Wawan Bin Darmoyo 2.  Tempat lahir  : Balikpapan 3.  Umur/Tanggal lahir  : 31/16 Mei 1991 4.  Jenis kelamin  : Laki-laki 5.  Kebangsaan  : Indonesia 6.  Tempat tinggal  : Jalan 21 Januari RT 02 Nomor 55 Kelurahan Baru Tengah Kecamatan Balikpapan Barat 7.  Agama  : Islam 8.  Pekerjaan  : Wiraswasta  Terdakwa Darmawan Alias Wawan Bin Darmoyo ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 18 Juni 2022 sampai dengan tanggal 7 Juli 2022;  2.  Penyidik Perpanjangan Oleh Penuntut Umum sejak tanggal 8 Juli 2022 sampai dengan tanggal 16 Agustus 2022;  3.  Penuntut Umum sejak tanggal 4 Agustus 2022 sampai dengan tanggal 23 Agustus 2022;  4.  Hakim Pengadilan Negeri sejak tanggal 4 Agustus 2022 sampai dengan tanggal 2 September 2022;  5.  Hakim Pengadilan Negeri Perpanjangan Pertama Oleh Ketua Pengadilan Negeri sejak tanggal 3 September 2022 sampai dengan tanggal 1 November 2022;   Terdakwa di persidangan didampingi oleh Penasihat Hukum Ita Ma’ruf, S.H. Dan Rekan, Advokat/Penasehat Hukum dari POSBAKUMADIN yang tergabung dalam Posbakum Pengadilan Negeri Balikpapan, yang beralamat di Jl. Jend. Sudirman No. 788 Balikpapan, berdasarkan Surat Penetapan tanggal 11 Agustus 2022 Nomor 381/Pid.Sus/2022/PN Bpp;   Pengadilan Negeri tersebut; Setelah membaca:   - Penetapan  Ketua Pengadilan Negeri Balikpapan Nomor 381/Pid.Sus/2022/PN Bpp tanggal 4 Agustus 2022 tentang penunjukan Majelis Hakim;</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa Darmawan alias Wawan bin Darmoyo  telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana setiap penyalah guna Narkotika Golongan I bukan tanaman sebagaimana dalam dakwaan alternatif ketiga penuntut umum; 2. Menjatuhkan pidana terhadap Terdakwa tersebut dengan pidana penjara selama 10 (Sepuluh) bulan; 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap berada dalam tahanan; 5. Menetapkan barang bukti berupa: - 1 (satu) paket sabu dengan berat bruto 0,46 (nol koma empat enam) gram / Netto : 0,26 gram; - 1 (satu) buah Handphone merk Vivo warna biru dengan No.Sim: 0821-4883-3943 No.Imei: 867472057661855; Dirampas untuk dimusnahkan; 6. Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00 (lima ribu rupiah);  Demikianlah diputuskan dalam sidang permusyawaratan Majelis Hakim Pengadilan Negeri Balikpapan, pada hari Selasa, tanggal 30 Agustus 2022, oleh kami, Dr. Ibrahim Palino, S.H., M.H., sebagai Hakim Ketua, Arif Wisaksono, S.H.., Arum Kusuma Dewi, S.H., M.H. masing-masing sebagai Hakim Anggota, yang diucapkan dalam sidang terbuka untuk umum pada hari dan tanggal itu juga oleh Hakim Ketua dengan didampingi para Hakim Anggota tersebut, dibantu oleh Marihot Sirait, SH., Panitera Pengganti pada Pengadilan Negeri Balikpapan, serta dihadiri oleh Asrina Marina, S.H.,M.H, Penuntut Umum dari Kejaksaan Negeri Balikpapan serta Terdakwa didampingi oleh Penasehat Hukumnya</t>
   </si>
   <si>
     <t>387/Pid.Sus/2022/PN Bpp</t>
@@ -711,7 +654,7 @@
     <t xml:space="preserve">- 1 (satu) plastik klip bening shabu-shabu yang berat kotor 0,28 gram; - 1 (satu) buah masker warna hijau. </t>
   </si>
   <si>
-    <t>perkara pidana dengan acara pemeriksaan biasa dalam tingkat pertama menjatuhkan putusan sebagai berikut dalam perkara Terdakwa :  1.  Nama lengkap  : MUHAMMAD IQBAL PRAKOSO Bin MUKRIN; 2.  Tempat lahir  : Balikpapan; 3.  Umur/Tanggal lahir  : 28 Tahun / 27 Mei 1994; 4.  Jenis kelamin  : Laki-laki; 5.  Kebangsaan  : Indonesia; 6.  Tempat tinggal  : Jl. Dr. Sutomo RT.06 No.64 Kel. Karang Rejo, Kec.      Balikpapan Tengah; 7.  Agama  : Islam; 8.  Pekerjaan  : Swasta;  Terdakwa Muhammad Iqbal Prakoso Bin Mukrin ditahan dalam tahanan rutan oleh:  1.  Penyidik sejak tanggal 03 April 2022 sampai dengan tanggal 22 April 2022;   2.  Penyidik Perpanjangan Oleh PU sejak tanggal 23 April 2022 sampai dengan tanggal 01 Juni 2022;   3.  Penyidik Perpanjangan Pertama Oleh Ketua PN sejak tanggal 02 Juni 2022 sampai dengan tanggal 01 Juli 2022;   4.  Penyidik Perpanjangan Kedua Oleh Ketua PN sejak tanggal 02 Juli 2022 sampai dengan tanggal 31 Juli 2022;   5.  Penuntut sejak tanggal 01 Agustus 2022 sampai dengan tanggal 20 Agustus 2022;   6.  Hakim PN sejak tanggal 11 Agustus 2022 sampai dengan tanggal 09 September 2022;   7.  Hakim PN Perpanjangan Pertama Oleh Wakil Ketua PN sejak tanggal 10 September 2022 sampai dengan tanggal 08 November 2022;    Terdakwa dipersidangan didampingi Penasehat Hukum Ramadhan, S.H. dan Ita Ma’ruf, S.Ag., S.H., M.H. Advokat/Penasehat Hukum Pos Bantuan Hukum Advokat Indonesia POSBAKUMADIN beralamat di Perumahan Pondok           Pid.I.A.3</t>
+    <t xml:space="preserve"> 1. Menyatakan Terdakwa MUHAMMAD IQBAL PRAKOSO Bin MUKRIN terbukti secara sah dan meyakinkan telah bersalah melakkukan tindak pidana “Tanpa hak menguasai narkotika Golongan I bukan tanaman”; 2. Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sebesar Rp.800.000.000,00 (delapan ratus juta rupiah) dangan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana kurungan selama 2 (dua) bulan; 3. Menetapkan masa penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 4. Menetapkan agar Terdakwa tetap ditahan; 5. Menetapkan barang bukti berupa : - 1 (satu) plastik klip bening shabu-shabu yang berat kotor 0,28 gram; - 1 (satu) buah masker warna hijau; Dirampas untuk dimusnahkan;</t>
   </si>
 </sst>
 </file>
@@ -1080,22 +1023,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="27.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1053,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1127,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1144,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1161,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1178,7 +1121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1195,7 +1138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1212,7 +1155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1229,7 +1172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1246,7 +1189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1263,7 +1206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1280,7 +1223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1297,7 +1240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1314,7 +1257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1348,7 +1291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1365,7 +1308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1382,7 +1325,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1399,7 +1342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1416,7 +1359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1433,7 +1376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1450,7 +1393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1467,7 +1410,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1484,7 +1427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1501,7 +1444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1518,7 +1461,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1535,7 +1478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1569,7 +1512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1586,7 +1529,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1603,7 +1546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1620,7 +1563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1637,7 +1580,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1654,7 +1597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1671,7 +1614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1688,7 +1631,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1705,7 +1648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1722,7 +1665,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1739,7 +1682,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1756,7 +1699,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1773,7 +1716,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1790,7 +1733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1807,7 +1750,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1824,7 +1767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1841,7 +1784,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1858,7 +1801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1875,7 +1818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1892,7 +1835,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1909,7 +1852,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1926,7 +1869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1943,7 +1886,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1960,7 +1903,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1994,7 +1937,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2011,7 +1954,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2028,7 +1971,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2062,7 +2005,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2079,7 +2022,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2096,7 +2039,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2113,7 +2056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2130,7 +2073,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2147,7 +2090,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2162,91 +2105,6 @@
       </c>
       <c r="E63" s="3" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="375" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="345" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
